--- a/data/nzd0475/nzd0475.xlsx
+++ b/data/nzd0475/nzd0475.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H582"/>
+  <dimension ref="A1:H591"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16957,6 +16957,268 @@
         <v>316.79</v>
       </c>
       <c r="H582" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:14:48+00:00</t>
+        </is>
+      </c>
+      <c r="B583" t="n">
+        <v>329.7322222222222</v>
+      </c>
+      <c r="C583" t="n">
+        <v>313.5785714285714</v>
+      </c>
+      <c r="D583" t="n">
+        <v>324.8085714285714</v>
+      </c>
+      <c r="E583" t="n">
+        <v>327.6433333333334</v>
+      </c>
+      <c r="F583" t="n">
+        <v>322.9518181818182</v>
+      </c>
+      <c r="G583" t="n">
+        <v>319.6866666666667</v>
+      </c>
+      <c r="H583" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:20:33+00:00</t>
+        </is>
+      </c>
+      <c r="B584" t="n">
+        <v>327.46</v>
+      </c>
+      <c r="C584" t="n">
+        <v>310.78</v>
+      </c>
+      <c r="D584" t="n">
+        <v>313.95</v>
+      </c>
+      <c r="E584" t="n">
+        <v>321.47</v>
+      </c>
+      <c r="F584" t="n">
+        <v>311.46</v>
+      </c>
+      <c r="G584" t="n">
+        <v>319.9</v>
+      </c>
+      <c r="H584" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-04 22:20:26+00:00</t>
+        </is>
+      </c>
+      <c r="B585" t="n">
+        <v>317.1866666666667</v>
+      </c>
+      <c r="C585" t="n">
+        <v>303.3685714285714</v>
+      </c>
+      <c r="D585" t="n">
+        <v>312.5285714285715</v>
+      </c>
+      <c r="E585" t="n">
+        <v>315.27</v>
+      </c>
+      <c r="F585" t="n">
+        <v>309.8554545454546</v>
+      </c>
+      <c r="G585" t="n">
+        <v>317.56</v>
+      </c>
+      <c r="H585" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:14:42+00:00</t>
+        </is>
+      </c>
+      <c r="B586" t="n">
+        <v>321.1188888888889</v>
+      </c>
+      <c r="C586" t="n">
+        <v>311.8728571428572</v>
+      </c>
+      <c r="D586" t="n">
+        <v>321.3628571428572</v>
+      </c>
+      <c r="E586" t="n">
+        <v>323.2533333333333</v>
+      </c>
+      <c r="F586" t="n">
+        <v>322.1481818181818</v>
+      </c>
+      <c r="G586" t="n">
+        <v>325.7466666666667</v>
+      </c>
+      <c r="H586" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:33+00:00</t>
+        </is>
+      </c>
+      <c r="B587" t="n">
+        <v>323.85</v>
+      </c>
+      <c r="C587" t="n">
+        <v>306.2557142857143</v>
+      </c>
+      <c r="D587" t="n">
+        <v>307.0457142857143</v>
+      </c>
+      <c r="E587" t="n">
+        <v>310.38</v>
+      </c>
+      <c r="F587" t="n">
+        <v>297.9318181818182</v>
+      </c>
+      <c r="G587" t="n">
+        <v>310.68</v>
+      </c>
+      <c r="H587" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:20:25+00:00</t>
+        </is>
+      </c>
+      <c r="B588" t="n">
+        <v>325.7711111111111</v>
+      </c>
+      <c r="C588" t="n">
+        <v>324.9685714285715</v>
+      </c>
+      <c r="D588" t="n">
+        <v>321.6485714285715</v>
+      </c>
+      <c r="E588" t="n">
+        <v>323.1966666666667</v>
+      </c>
+      <c r="F588" t="n">
+        <v>312.379090909091</v>
+      </c>
+      <c r="G588" t="n">
+        <v>324.8833333333333</v>
+      </c>
+      <c r="H588" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:14:48+00:00</t>
+        </is>
+      </c>
+      <c r="B589" t="n">
+        <v>336.7166666666667</v>
+      </c>
+      <c r="C589" t="n">
+        <v>336.0671428571428</v>
+      </c>
+      <c r="D589" t="n">
+        <v>335.6271428571428</v>
+      </c>
+      <c r="E589" t="n">
+        <v>332.75</v>
+      </c>
+      <c r="F589" t="n">
+        <v>327.2672727272728</v>
+      </c>
+      <c r="G589" t="n">
+        <v>327.85</v>
+      </c>
+      <c r="H589" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-05 22:20:27+00:00</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr"/>
+      <c r="C590" t="inlineStr"/>
+      <c r="D590" t="n">
+        <v>371.8385714285714</v>
+      </c>
+      <c r="E590" t="n">
+        <v>338.3</v>
+      </c>
+      <c r="F590" t="n">
+        <v>318.26</v>
+      </c>
+      <c r="G590" t="inlineStr"/>
+      <c r="H590" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:20:27+00:00</t>
+        </is>
+      </c>
+      <c r="B591" t="n">
+        <v>332.0977777777778</v>
+      </c>
+      <c r="C591" t="n">
+        <v>316.0914285714285</v>
+      </c>
+      <c r="D591" t="inlineStr"/>
+      <c r="E591" t="n">
+        <v>324.6366666666667</v>
+      </c>
+      <c r="F591" t="n">
+        <v>311.1890909090909</v>
+      </c>
+      <c r="G591" t="n">
+        <v>330.4033333333333</v>
+      </c>
+      <c r="H591" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -16973,7 +17235,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B679"/>
+  <dimension ref="A1:B691"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23771,6 +24033,126 @@
       </c>
       <c r="B679" t="n">
         <v>-0.54</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B680" t="n">
+        <v>-0.54</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B681" t="n">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>2024-12-11 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B682" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B683" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>2025-01-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B684" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B685" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B686" t="n">
+        <v>-0.54</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B687" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B688" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>2025-02-05 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B689" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B690" t="n">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B691" t="n">
+        <v>-0.9399999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -23939,28 +24321,28 @@
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.03448550660341881</v>
+        <v>-0.02011774971522005</v>
       </c>
       <c r="J2" t="n">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="K2" t="n">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0005652426878274275</v>
+        <v>0.0001963451022589657</v>
       </c>
       <c r="M2" t="n">
-        <v>7.045437958127833</v>
+        <v>7.030676829030988</v>
       </c>
       <c r="N2" t="n">
-        <v>93.23762011995578</v>
+        <v>92.61724288292237</v>
       </c>
       <c r="O2" t="n">
-        <v>9.655962930746771</v>
+        <v>9.623785267914199</v>
       </c>
       <c r="P2" t="n">
-        <v>323.0575355337017</v>
+        <v>322.8938649433055</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -24016,28 +24398,28 @@
         <v>0.0756</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3305908368232305</v>
+        <v>-0.3278518685579629</v>
       </c>
       <c r="J3" t="n">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="K3" t="n">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0707956848822886</v>
+        <v>0.07001942745185208</v>
       </c>
       <c r="M3" t="n">
-        <v>6.088913557049415</v>
+        <v>6.111791280286248</v>
       </c>
       <c r="N3" t="n">
-        <v>64.00486538590829</v>
+        <v>64.54818468497682</v>
       </c>
       <c r="O3" t="n">
-        <v>8.000304080840195</v>
+        <v>8.034188489510115</v>
       </c>
       <c r="P3" t="n">
-        <v>322.9036857517503</v>
+        <v>322.8722798622692</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -24093,28 +24475,28 @@
         <v>0.0751</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1762695766849792</v>
+        <v>-0.1583512640168802</v>
       </c>
       <c r="J4" t="n">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="K4" t="n">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02323645375089545</v>
+        <v>0.01751961288976833</v>
       </c>
       <c r="M4" t="n">
-        <v>5.637968077673528</v>
+        <v>5.754762712163818</v>
       </c>
       <c r="N4" t="n">
-        <v>58.34523393170138</v>
+        <v>63.6252633757336</v>
       </c>
       <c r="O4" t="n">
-        <v>7.638405195569385</v>
+        <v>7.976544576176679</v>
       </c>
       <c r="P4" t="n">
-        <v>324.8299392271887</v>
+        <v>324.6254211458692</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -24170,28 +24552,28 @@
         <v>0.08409999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2601880718725111</v>
+        <v>-0.257282876740326</v>
       </c>
       <c r="J5" t="n">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="K5" t="n">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05051209113681765</v>
+        <v>0.05003024411558954</v>
       </c>
       <c r="M5" t="n">
-        <v>5.663132920461726</v>
+        <v>5.668027878890104</v>
       </c>
       <c r="N5" t="n">
-        <v>55.91444752505257</v>
+        <v>56.04524309618741</v>
       </c>
       <c r="O5" t="n">
-        <v>7.477596373504829</v>
+        <v>7.486337094747164</v>
       </c>
       <c r="P5" t="n">
-        <v>329.8937576631213</v>
+        <v>329.8601815968092</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -24247,28 +24629,28 @@
         <v>0.0609</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2442220157125197</v>
+        <v>-0.2510345958797027</v>
       </c>
       <c r="J6" t="n">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="K6" t="n">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03954886059499763</v>
+        <v>0.04219029004626418</v>
       </c>
       <c r="M6" t="n">
-        <v>6.09906503011463</v>
+        <v>6.118213274494743</v>
       </c>
       <c r="N6" t="n">
-        <v>63.69004305495209</v>
+        <v>63.85664486806664</v>
       </c>
       <c r="O6" t="n">
-        <v>7.980604178566438</v>
+        <v>7.991035281367905</v>
       </c>
       <c r="P6" t="n">
-        <v>322.9311410687205</v>
+        <v>323.0093579278595</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -24324,28 +24706,28 @@
         <v>0.06320000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1435741069985429</v>
+        <v>-0.1435115186994495</v>
       </c>
       <c r="J7" t="n">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="K7" t="n">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01085765364362634</v>
+        <v>0.01108799117665848</v>
       </c>
       <c r="M7" t="n">
-        <v>6.894462174234379</v>
+        <v>6.866757571497712</v>
       </c>
       <c r="N7" t="n">
-        <v>81.88662988007535</v>
+        <v>81.15711002001855</v>
       </c>
       <c r="O7" t="n">
-        <v>9.049123155315954</v>
+        <v>9.008724106110618</v>
       </c>
       <c r="P7" t="n">
-        <v>325.7367300271766</v>
+        <v>325.7356353038738</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -24382,7 +24764,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H582"/>
+  <dimension ref="A1:H591"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46942,6 +47324,368 @@
         </is>
       </c>
     </row>
+    <row r="583">
+      <c r="A583" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:14:48+00:00</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>-45.166609886449876,170.91049416187215</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>-45.16692914300434,170.9096717835504</t>
+        </is>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>-45.16749472039117,170.90920333782782</t>
+        </is>
+      </c>
+      <c r="E583" t="inlineStr">
+        <is>
+          <t>-45.16798461969688,170.9086181460029</t>
+        </is>
+      </c>
+      <c r="F583" t="inlineStr">
+        <is>
+          <t>-45.16850183719412,170.90808739005098</t>
+        </is>
+      </c>
+      <c r="G583" t="inlineStr">
+        <is>
+          <t>-45.168985445542226,170.90752810587253</t>
+        </is>
+      </c>
+      <c r="H583" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:20:33+00:00</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>-45.16659432702163,170.91047540910105</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>-45.16691139990753,170.90964652021253</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>-45.16742967700529,170.90910025780067</t>
+        </is>
+      </c>
+      <c r="E584" t="inlineStr">
+        <is>
+          <t>-45.16795023886348,170.90855646258674</t>
+        </is>
+      </c>
+      <c r="F584" t="inlineStr">
+        <is>
+          <t>-45.16844214134214,170.90796801987648</t>
+        </is>
+      </c>
+      <c r="G584" t="inlineStr">
+        <is>
+          <t>-45.1689866132445,170.90753025993223</t>
+        </is>
+      </c>
+      <c r="H584" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-04 22:20:26+00:00</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>-45.16652397858715,170.9103906228606</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>-45.1668644110168,170.9095796156448</t>
+        </is>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>-45.16742116257045,170.90908676424795</t>
+        </is>
+      </c>
+      <c r="E585" t="inlineStr">
+        <is>
+          <t>-45.1679157094844,170.9084945127947</t>
+        </is>
+      </c>
+      <c r="F585" t="inlineStr">
+        <is>
+          <t>-45.168433806297415,170.90795135283233</t>
+        </is>
+      </c>
+      <c r="G585" t="inlineStr">
+        <is>
+          <t>-45.168973805008115,170.90750663259462</t>
+        </is>
+      </c>
+      <c r="H585" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:14:42+00:00</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>-45.16655090516893,170.91042307562697</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>-45.16691832868257,170.9096563856795</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>-45.16747408039996,170.9091706277608</t>
+        </is>
+      </c>
+      <c r="E586" t="inlineStr">
+        <is>
+          <t>-45.167960170695004,170.9085742814925</t>
+        </is>
+      </c>
+      <c r="F586" t="inlineStr">
+        <is>
+          <t>-45.1684976625969,170.9080790423461</t>
+        </is>
+      </c>
+      <c r="G586" t="inlineStr">
+        <is>
+          <t>-45.16901861556943,170.9075892946658</t>
+        </is>
+      </c>
+      <c r="H586" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:33+00:00</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>-45.166569606926416,170.91044561559963</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>-45.1668827156759,170.90960567849433</t>
+        </is>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>-45.167388319942035,170.90903471578775</t>
+        </is>
+      </c>
+      <c r="E587" t="inlineStr">
+        <is>
+          <t>-45.16788847580604,170.9084456524474</t>
+        </is>
+      </c>
+      <c r="F587" t="inlineStr">
+        <is>
+          <t>-45.16837186716036,170.9078274974899</t>
+        </is>
+      </c>
+      <c r="G587" t="inlineStr">
+        <is>
+          <t>-45.16893614657636,170.9074371642449</t>
+        </is>
+      </c>
+      <c r="H587" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:20:25+00:00</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>-45.16658276206572,170.91046147061766</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>-45.16700135617561,170.90977460382095</t>
+        </is>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>-45.16747579184237,170.90917334003746</t>
+        </is>
+      </c>
+      <c r="E588" t="inlineStr">
+        <is>
+          <t>-45.167959855104144,170.90857371528418</t>
+        </is>
+      </c>
+      <c r="F588" t="inlineStr">
+        <is>
+          <t>-45.16844691569247,170.90797756683708</t>
+        </is>
+      </c>
+      <c r="G588" t="inlineStr">
+        <is>
+          <t>-45.169013890028424,170.90758057744608</t>
+        </is>
+      </c>
+      <c r="H588" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:14:48+00:00</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>-45.166657713603115,170.91055180492805</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>-45.167071721589735,170.9098747935458</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>-45.16755952408599,170.90930603837054</t>
+        </is>
+      </c>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t>-45.16801305997318,170.9086691714339</t>
+        </is>
+      </c>
+      <c r="F589" t="inlineStr">
+        <is>
+          <t>-45.16852425439329,170.908132216492</t>
+        </is>
+      </c>
+      <c r="G589" t="inlineStr">
+        <is>
+          <t>-45.169030128371226,170.90761053237702</t>
+        </is>
+      </c>
+      <c r="H589" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-05 22:20:27+00:00</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr"/>
+      <c r="C590" t="inlineStr"/>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>-45.167776431409365,170.90964979464096</t>
+        </is>
+      </c>
+      <c r="E590" t="inlineStr">
+        <is>
+          <t>-45.168043969256324,170.90872462667633</t>
+        </is>
+      </c>
+      <c r="F590" t="inlineStr">
+        <is>
+          <t>-45.16847746490495,170.90803865420293</t>
+        </is>
+      </c>
+      <c r="G590" t="inlineStr"/>
+      <c r="H590" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:20:27+00:00</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>-45.16662608499088,170.91051368493902</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>-45.166945074652304,170.9096944676941</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr"/>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t>-45.16796787482417,170.90858810363864</t>
+        </is>
+      </c>
+      <c r="F591" t="inlineStr">
+        <is>
+          <t>-45.168440734065626,170.90796520583692</t>
+        </is>
+      </c>
+      <c r="G591" t="inlineStr">
+        <is>
+          <t>-45.16904410428717,170.90763631382566</t>
+        </is>
+      </c>
+      <c r="H591" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0475/nzd0475.xlsx
+++ b/data/nzd0475/nzd0475.xlsx
@@ -24166,7 +24166,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24257,35 +24257,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -24344,27 +24349,28 @@
       <c r="P2" t="n">
         <v>322.8938649433055</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (170.90777297066376 -45.164351958265236, 170.9150513089345 -45.17039067577401)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>170.9077729706638</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-45.16435195826524</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>170.9150513089345</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-45.17039067577401</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>170.9114121397991</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-45.16737131701962</v>
       </c>
     </row>
@@ -24421,27 +24427,28 @@
       <c r="P3" t="n">
         <v>322.8722798622692</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (170.90684113646427 -45.16494100427293, 170.9148029157232 -45.170532530483484)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>170.9068411364643</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-45.16494100427293</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>170.9148029157232</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-45.17053253048348</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>170.9108220260937</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-45.16773676737821</v>
       </c>
     </row>
@@ -24498,27 +24505,28 @@
       <c r="P4" t="n">
         <v>324.6254211458692</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (170.90612004358866 -45.16554906209203, 170.91449302001558 -45.17083218452686)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>170.9061200435887</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-45.16554906209203</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>170.9144930200156</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-45.17083218452686</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>170.9103065318021</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-45.16819062330944</v>
       </c>
     </row>
@@ -24575,27 +24583,28 @@
       <c r="P5" t="n">
         <v>329.8601815968092</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (170.9053444652258 -45.166159847766096, 170.91415804274803 -45.17107212210256)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>170.9053444652258</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-45.1661598477661</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>170.914158042748</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-45.17107212210256</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>170.9097512539869</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-45.16861598493433</v>
       </c>
     </row>
@@ -24652,27 +24661,28 @@
       <c r="P6" t="n">
         <v>323.0093579278595</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (170.90473285447584 -45.16682417290098, 170.9138957404573 -45.171406237997935)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>170.9047328544758</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-45.16682417290098</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>170.9138957404573</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-45.17140623799794</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>170.9093142974666</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-45.16911520544946</v>
       </c>
     </row>
@@ -24729,27 +24739,28 @@
       <c r="P7" t="n">
         <v>325.7356353038738</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (170.9043002797252 -45.16723556307778, 170.91320676408816 -45.172063507120605)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>170.9043002797252</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-45.16723556307778</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>170.9132067640882</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-45.1720635071206</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>170.9087535219067</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-45.1696495350992</v>
       </c>
     </row>

--- a/data/nzd0475/nzd0475.xlsx
+++ b/data/nzd0475/nzd0475.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H591"/>
+  <dimension ref="A1:H596"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17208,7 +17208,9 @@
       <c r="C591" t="n">
         <v>316.0914285714285</v>
       </c>
-      <c r="D591" t="inlineStr"/>
+      <c r="D591" t="n">
+        <v>320.0514285714286</v>
+      </c>
       <c r="E591" t="n">
         <v>324.6366666666667</v>
       </c>
@@ -17219,6 +17221,156 @@
         <v>330.4033333333333</v>
       </c>
       <c r="H591" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:14+00:00</t>
+        </is>
+      </c>
+      <c r="B592" t="n">
+        <v>333.4533333333333</v>
+      </c>
+      <c r="C592" t="n">
+        <v>315.7985714285714</v>
+      </c>
+      <c r="D592" t="n">
+        <v>313.6285714285714</v>
+      </c>
+      <c r="E592" t="n">
+        <v>314.86</v>
+      </c>
+      <c r="F592" t="n">
+        <v>303.3236363636364</v>
+      </c>
+      <c r="G592" t="n">
+        <v>312.28</v>
+      </c>
+      <c r="H592" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:14:16+00:00</t>
+        </is>
+      </c>
+      <c r="B593" t="n">
+        <v>321.5588888888889</v>
+      </c>
+      <c r="C593" t="n">
+        <v>311.3671428571428</v>
+      </c>
+      <c r="D593" t="n">
+        <v>322.8071428571428</v>
+      </c>
+      <c r="E593" t="n">
+        <v>322.0333333333334</v>
+      </c>
+      <c r="F593" t="n">
+        <v>316.8918181818182</v>
+      </c>
+      <c r="G593" t="n">
+        <v>322.8266666666667</v>
+      </c>
+      <c r="H593" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:19:58+00:00</t>
+        </is>
+      </c>
+      <c r="B594" t="n">
+        <v>327.0955555555556</v>
+      </c>
+      <c r="C594" t="n">
+        <v>315.81</v>
+      </c>
+      <c r="D594" t="n">
+        <v>319.18</v>
+      </c>
+      <c r="E594" t="n">
+        <v>324.0633333333333</v>
+      </c>
+      <c r="F594" t="n">
+        <v>326.2663636363636</v>
+      </c>
+      <c r="G594" t="n">
+        <v>323.3666666666667</v>
+      </c>
+      <c r="H594" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:20:13+00:00</t>
+        </is>
+      </c>
+      <c r="B595" t="n">
+        <v>320.4866666666667</v>
+      </c>
+      <c r="C595" t="n">
+        <v>311.4285714285714</v>
+      </c>
+      <c r="D595" t="n">
+        <v>318.8385714285715</v>
+      </c>
+      <c r="E595" t="n">
+        <v>318.73</v>
+      </c>
+      <c r="F595" t="n">
+        <v>310.9654545454546</v>
+      </c>
+      <c r="G595" t="n">
+        <v>319.78</v>
+      </c>
+      <c r="H595" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:05+00:00</t>
+        </is>
+      </c>
+      <c r="B596" t="n">
+        <v>329.8277777777778</v>
+      </c>
+      <c r="C596" t="n">
+        <v>321.7085714285714</v>
+      </c>
+      <c r="D596" t="n">
+        <v>326.0085714285714</v>
+      </c>
+      <c r="E596" t="n">
+        <v>326.7066666666666</v>
+      </c>
+      <c r="F596" t="n">
+        <v>321.6372727272728</v>
+      </c>
+      <c r="G596" t="n">
+        <v>327.9733333333333</v>
+      </c>
+      <c r="H596" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -17235,7 +17387,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B691"/>
+  <dimension ref="A1:B696"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24153,6 +24305,56 @@
       </c>
       <c r="B691" t="n">
         <v>-0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B692" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B693" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B694" t="n">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B695" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B696" t="n">
+        <v>0.59</v>
       </c>
     </row>
   </sheetData>
@@ -24326,28 +24528,28 @@
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.02011774971522005</v>
+        <v>-0.01208670173478263</v>
       </c>
       <c r="J2" t="n">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="K2" t="n">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001963451022589657</v>
+        <v>7.188447073946946e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>7.030676829030988</v>
+        <v>7.013776274711177</v>
       </c>
       <c r="N2" t="n">
-        <v>92.61724288292237</v>
+        <v>92.11185175084259</v>
       </c>
       <c r="O2" t="n">
-        <v>9.623785267914199</v>
+        <v>9.597491951069435</v>
       </c>
       <c r="P2" t="n">
-        <v>322.8938649433055</v>
+        <v>322.8015463472034</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24404,28 +24606,28 @@
         <v>0.0756</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3278518685579629</v>
+        <v>-0.326382333543699</v>
       </c>
       <c r="J3" t="n">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="K3" t="n">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07001942745185208</v>
+        <v>0.07046954201667233</v>
       </c>
       <c r="M3" t="n">
-        <v>6.111791280286248</v>
+        <v>6.083873062182946</v>
       </c>
       <c r="N3" t="n">
-        <v>64.54818468497682</v>
+        <v>64.07079954726497</v>
       </c>
       <c r="O3" t="n">
-        <v>8.034188489510115</v>
+        <v>8.004423748607078</v>
       </c>
       <c r="P3" t="n">
-        <v>322.8722798622692</v>
+        <v>322.8553412171843</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -24482,28 +24684,28 @@
         <v>0.0751</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1583512640168802</v>
+        <v>-0.1594300605349828</v>
       </c>
       <c r="J4" t="n">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="K4" t="n">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01751961288976833</v>
+        <v>0.01808304627993851</v>
       </c>
       <c r="M4" t="n">
-        <v>5.754762712163818</v>
+        <v>5.722912096810503</v>
       </c>
       <c r="N4" t="n">
-        <v>63.6252633757336</v>
+        <v>63.05966831583719</v>
       </c>
       <c r="O4" t="n">
-        <v>7.976544576176679</v>
+        <v>7.941011794213455</v>
       </c>
       <c r="P4" t="n">
-        <v>324.6254211458692</v>
+        <v>324.6376281245279</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24560,28 +24762,28 @@
         <v>0.08409999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.257282876740326</v>
+        <v>-0.2611247833626515</v>
       </c>
       <c r="J5" t="n">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="K5" t="n">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05003024411558954</v>
+        <v>0.05216231038826569</v>
       </c>
       <c r="M5" t="n">
-        <v>5.668027878890104</v>
+        <v>5.647850795823077</v>
       </c>
       <c r="N5" t="n">
-        <v>56.04524309618741</v>
+        <v>55.70667317784756</v>
       </c>
       <c r="O5" t="n">
-        <v>7.486337094747164</v>
+        <v>7.463690318994187</v>
       </c>
       <c r="P5" t="n">
-        <v>329.8601815968092</v>
+        <v>329.9045533257509</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24638,28 +24840,28 @@
         <v>0.0609</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2510345958797027</v>
+        <v>-0.2524775746654462</v>
       </c>
       <c r="J6" t="n">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="K6" t="n">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04219029004626418</v>
+        <v>0.0429912198224367</v>
       </c>
       <c r="M6" t="n">
-        <v>6.118213274494743</v>
+        <v>6.124943908018222</v>
       </c>
       <c r="N6" t="n">
-        <v>63.85664486806664</v>
+        <v>63.87241114854373</v>
       </c>
       <c r="O6" t="n">
-        <v>7.991035281367905</v>
+        <v>7.992021718472976</v>
       </c>
       <c r="P6" t="n">
-        <v>323.0093579278595</v>
+        <v>323.0257804558825</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -24716,28 +24918,28 @@
         <v>0.06320000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1435115186994495</v>
+        <v>-0.145071109453115</v>
       </c>
       <c r="J7" t="n">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="K7" t="n">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01108799117665848</v>
+        <v>0.01149528791729071</v>
       </c>
       <c r="M7" t="n">
-        <v>6.866757571497712</v>
+        <v>6.839319121158009</v>
       </c>
       <c r="N7" t="n">
-        <v>81.15711002001855</v>
+        <v>80.63477004928708</v>
       </c>
       <c r="O7" t="n">
-        <v>9.008724106110618</v>
+        <v>8.979686522885256</v>
       </c>
       <c r="P7" t="n">
-        <v>325.7356353038738</v>
+        <v>325.7535587724911</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -24775,7 +24977,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H591"/>
+  <dimension ref="A1:H596"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47675,7 +47877,11 @@
           <t>-45.166945074652304,170.9096944676941</t>
         </is>
       </c>
-      <c r="D591" t="inlineStr"/>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>-45.167466224878574,170.90915817841318</t>
+        </is>
+      </c>
       <c r="E591" t="inlineStr">
         <is>
           <t>-45.16796787482417,170.90858810363864</t>
@@ -47692,6 +47898,216 @@
         </is>
       </c>
       <c r="H591" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:14+00:00</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>-45.166635367384956,170.91052487242243</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>-45.16694321792266,170.90969182400414</t>
+        </is>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>-45.167427751630704,170.90909720649444</t>
+        </is>
+      </c>
+      <c r="E592" t="inlineStr">
+        <is>
+          <t>-45.16791342608882,170.90849041611756</t>
+        </is>
+      </c>
+      <c r="F592" t="inlineStr">
+        <is>
+          <t>-45.168399875793575,170.90788350432092</t>
+        </is>
+      </c>
+      <c r="G592" t="inlineStr">
+        <is>
+          <t>-45.16894490435483,170.9074533196668</t>
+        </is>
+      </c>
+      <c r="H592" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:14:16+00:00</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>-45.1665539181456,170.91042670696413</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>-45.16691512242599,170.90965182048274</t>
+        </is>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>-45.167482731740655,170.90918433832084</t>
+        </is>
+      </c>
+      <c r="E593" t="inlineStr">
+        <is>
+          <t>-45.16795337620869,170.9085620913619</t>
+        </is>
+      </c>
+      <c r="F593" t="inlineStr">
+        <is>
+          <t>-45.168470357694176,170.9080244423427</t>
+        </is>
+      </c>
+      <c r="G593" t="inlineStr">
+        <is>
+          <t>-45.16900263265599,170.90755981094787</t>
+        </is>
+      </c>
+      <c r="H593" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:19:58+00:00</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>-45.16659183142602,170.91047240132258</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>-45.166943290380395,170.90969192717253</t>
+        </is>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>-45.167461004978,170.90914990597275</t>
+        </is>
+      </c>
+      <c r="E594" t="inlineStr">
+        <is>
+          <t>-45.16796468178771,170.90858237494143</t>
+        </is>
+      </c>
+      <c r="F594" t="inlineStr">
+        <is>
+          <t>-45.1685190550402,170.90812181962522</t>
+        </is>
+      </c>
+      <c r="G594" t="inlineStr">
+        <is>
+          <t>-45.1690055884008,170.90756526341502</t>
+        </is>
+      </c>
+      <c r="H594" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:20:13+00:00</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>-45.1665465759169,170.910417857873</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>-45.16691551188655,170.90965237501226</t>
+        </is>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>-45.1674589598037,170.90914666480387</t>
+        </is>
+      </c>
+      <c r="E595" t="inlineStr">
+        <is>
+          <t>-45.16793497910963,170.90852908476612</t>
+        </is>
+      </c>
+      <c r="F595" t="inlineStr">
+        <is>
+          <t>-45.168439572354096,170.90796288283798</t>
+        </is>
+      </c>
+      <c r="G595" t="inlineStr">
+        <is>
+          <t>-45.16898595641196,170.90752904827363</t>
+        </is>
+      </c>
+      <c r="H595" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:05+00:00</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>-45.166610540782735,170.91049495049748</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>-45.16698068762117,170.90974517498998</t>
+        </is>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>-45.16750190844568,170.909214729399</t>
+        </is>
+      </c>
+      <c r="E596" t="inlineStr">
+        <is>
+          <t>-45.167979403168616,170.90860878690526</t>
+        </is>
+      </c>
+      <c r="F596" t="inlineStr">
+        <is>
+          <t>-45.16849500861058,170.90807373532164</t>
+        </is>
+      </c>
+      <c r="G596" t="inlineStr">
+        <is>
+          <t>-45.16903080344824,170.90761177769474</t>
+        </is>
+      </c>
+      <c r="H596" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0475/nzd0475.xlsx
+++ b/data/nzd0475/nzd0475.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H596"/>
+  <dimension ref="A1:H599"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17373,6 +17373,96 @@
       <c r="H596" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:13:36+00:00</t>
+        </is>
+      </c>
+      <c r="B597" t="n">
+        <v>326.7366666666667</v>
+      </c>
+      <c r="C597" t="n">
+        <v>328.7428571428572</v>
+      </c>
+      <c r="D597" t="n">
+        <v>326.0828571428572</v>
+      </c>
+      <c r="E597" t="n">
+        <v>330.68</v>
+      </c>
+      <c r="F597" t="n">
+        <v>323.3636363636364</v>
+      </c>
+      <c r="G597" t="n">
+        <v>332.12</v>
+      </c>
+      <c r="H597" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:19:54+00:00</t>
+        </is>
+      </c>
+      <c r="B598" t="n">
+        <v>324.1411111111111</v>
+      </c>
+      <c r="C598" t="n">
+        <v>319.63</v>
+      </c>
+      <c r="D598" t="n">
+        <v>322.74</v>
+      </c>
+      <c r="E598" t="n">
+        <v>327.9266666666666</v>
+      </c>
+      <c r="F598" t="n">
+        <v>319.1218181818182</v>
+      </c>
+      <c r="G598" t="n">
+        <v>326.6133333333333</v>
+      </c>
+      <c r="H598" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:13:39+00:00</t>
+        </is>
+      </c>
+      <c r="B599" t="n">
+        <v>321.5366666666667</v>
+      </c>
+      <c r="C599" t="n">
+        <v>321.7685714285714</v>
+      </c>
+      <c r="D599" t="n">
+        <v>325.3485714285715</v>
+      </c>
+      <c r="E599" t="n">
+        <v>329.38</v>
+      </c>
+      <c r="F599" t="n">
+        <v>322.53</v>
+      </c>
+      <c r="G599" t="n">
+        <v>326.04</v>
+      </c>
+      <c r="H599" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -17387,7 +17477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B696"/>
+  <dimension ref="A1:B699"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24355,6 +24445,36 @@
       </c>
       <c r="B696" t="n">
         <v>0.59</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B697" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B698" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B699" t="n">
+        <v>0.66</v>
       </c>
     </row>
   </sheetData>
@@ -24528,28 +24648,28 @@
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.01208670173478263</v>
+        <v>-0.01016489189967836</v>
       </c>
       <c r="J2" t="n">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="K2" t="n">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="L2" t="n">
-        <v>7.188447073946946e-05</v>
+        <v>5.137733159543689e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>7.013776274711177</v>
+        <v>6.986777406729395</v>
       </c>
       <c r="N2" t="n">
-        <v>92.11185175084259</v>
+        <v>91.62088803526049</v>
       </c>
       <c r="O2" t="n">
-        <v>9.597491951069435</v>
+        <v>9.571880067952193</v>
       </c>
       <c r="P2" t="n">
-        <v>322.8015463472034</v>
+        <v>322.7793538603762</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24606,28 +24726,28 @@
         <v>0.0756</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.326382333543699</v>
+        <v>-0.3160723992144674</v>
       </c>
       <c r="J3" t="n">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="K3" t="n">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07046954201667233</v>
+        <v>0.06652791204360198</v>
       </c>
       <c r="M3" t="n">
-        <v>6.083873062182946</v>
+        <v>6.100086475261469</v>
       </c>
       <c r="N3" t="n">
-        <v>64.07079954726497</v>
+        <v>64.23906286234599</v>
       </c>
       <c r="O3" t="n">
-        <v>8.004423748607078</v>
+        <v>8.014927502001873</v>
       </c>
       <c r="P3" t="n">
-        <v>322.8553412171843</v>
+        <v>322.7365407667273</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -24684,28 +24804,28 @@
         <v>0.0751</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1594300605349828</v>
+        <v>-0.1546375267443633</v>
       </c>
       <c r="J4" t="n">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="K4" t="n">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01808304627993851</v>
+        <v>0.0171788417395129</v>
       </c>
       <c r="M4" t="n">
-        <v>5.722912096810503</v>
+        <v>5.716248647341585</v>
       </c>
       <c r="N4" t="n">
-        <v>63.05966831583719</v>
+        <v>62.80815686529431</v>
       </c>
       <c r="O4" t="n">
-        <v>7.941011794213455</v>
+        <v>7.925159737525441</v>
       </c>
       <c r="P4" t="n">
-        <v>324.6376281245279</v>
+        <v>324.5822686857837</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24762,28 +24882,28 @@
         <v>0.08409999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2611247833626515</v>
+        <v>-0.2539853932377998</v>
       </c>
       <c r="J5" t="n">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="K5" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05216231038826569</v>
+        <v>0.04980555534061171</v>
       </c>
       <c r="M5" t="n">
-        <v>5.647850795823077</v>
+        <v>5.652091092618616</v>
       </c>
       <c r="N5" t="n">
-        <v>55.70667317784756</v>
+        <v>55.60650775210719</v>
       </c>
       <c r="O5" t="n">
-        <v>7.463690318994187</v>
+        <v>7.456977118920722</v>
       </c>
       <c r="P5" t="n">
-        <v>329.9045533257509</v>
+        <v>329.8213823745121</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24840,28 +24960,28 @@
         <v>0.0609</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2524775746654462</v>
+        <v>-0.2464291626011166</v>
       </c>
       <c r="J6" t="n">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="K6" t="n">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0429912198224367</v>
+        <v>0.0413624469115097</v>
       </c>
       <c r="M6" t="n">
-        <v>6.124943908018222</v>
+        <v>6.118371155481021</v>
       </c>
       <c r="N6" t="n">
-        <v>63.87241114854373</v>
+        <v>63.67083639236016</v>
       </c>
       <c r="O6" t="n">
-        <v>7.992021718472976</v>
+        <v>7.979400753963931</v>
       </c>
       <c r="P6" t="n">
-        <v>323.0257804558825</v>
+        <v>322.9554063824029</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -24918,28 +25038,28 @@
         <v>0.06320000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.145071109453115</v>
+        <v>-0.1377126126867736</v>
       </c>
       <c r="J7" t="n">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="K7" t="n">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01149528791729071</v>
+        <v>0.0104480531097777</v>
       </c>
       <c r="M7" t="n">
-        <v>6.839319121158009</v>
+        <v>6.83362841867798</v>
       </c>
       <c r="N7" t="n">
-        <v>80.63477004928708</v>
+        <v>80.43147531310447</v>
       </c>
       <c r="O7" t="n">
-        <v>8.979686522885256</v>
+        <v>8.968359677951396</v>
       </c>
       <c r="P7" t="n">
-        <v>325.7535587724911</v>
+        <v>325.6674368343359</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -24977,7 +25097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H596"/>
+  <dimension ref="A1:H599"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48113,6 +48233,132 @@
         </is>
       </c>
     </row>
+    <row r="597">
+      <c r="A597" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:13:36+00:00</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>-45.16658937387295,170.91046943939466</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>-45.167025285316754,170.90980867526358</t>
+        </is>
+      </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>-45.167502353420446,170.9092154345916</t>
+        </is>
+      </c>
+      <c r="E597" t="inlineStr">
+        <is>
+          <t>-45.168001531639284,170.90864848814275</t>
+        </is>
+      </c>
+      <c r="F597" t="inlineStr">
+        <is>
+          <t>-45.16850397643885,170.90809166777808</t>
+        </is>
+      </c>
+      <c r="G597" t="inlineStr">
+        <is>
+          <t>-45.16905350062434,170.90765364731328</t>
+        </is>
+      </c>
+      <c r="H597" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:19:54+00:00</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>-45.16657160036003,170.9104480181525</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>-45.166967509376065,170.90972641121976</t>
+        </is>
+      </c>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>-45.16748232955177,170.90918370093567</t>
+        </is>
+      </c>
+      <c r="E598" t="inlineStr">
+        <is>
+          <t>-45.16798619765012,170.90862097704704</t>
+        </is>
+      </c>
+      <c r="F598" t="inlineStr">
+        <is>
+          <t>-45.16848194173849,170.90804760626023</t>
+        </is>
+      </c>
+      <c r="G598" t="inlineStr">
+        <is>
+          <t>-45.16902335935511,170.90759804554418</t>
+        </is>
+      </c>
+      <c r="H598" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:13:39+00:00</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>-45.16655376597507,170.91042652356325</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>-45.16698106802407,170.90974571662474</t>
+        </is>
+      </c>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>-45.16749795501582,170.90920846403452</t>
+        </is>
+      </c>
+      <c r="E599" t="inlineStr">
+        <is>
+          <t>-45.167994291621,170.9086354986405</t>
+        </is>
+      </c>
+      <c r="F599" t="inlineStr">
+        <is>
+          <t>-45.16849964600289,170.9080830084501</t>
+        </is>
+      </c>
+      <c r="G599" t="inlineStr">
+        <is>
+          <t>-45.1690202211585,170.90759225650137</t>
+        </is>
+      </c>
+      <c r="H599" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0475/nzd0475.xlsx
+++ b/data/nzd0475/nzd0475.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H599"/>
+  <dimension ref="A1:H600"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17463,6 +17463,26 @@
       <c r="H599" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:19:47+00:00</t>
+        </is>
+      </c>
+      <c r="B600" t="n">
+        <v>311.0288888888889</v>
+      </c>
+      <c r="C600" t="inlineStr"/>
+      <c r="D600" t="inlineStr"/>
+      <c r="E600" t="inlineStr"/>
+      <c r="F600" t="inlineStr"/>
+      <c r="G600" t="inlineStr"/>
+      <c r="H600" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -17477,7 +17497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B699"/>
+  <dimension ref="A1:B700"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24475,6 +24495,16 @@
       </c>
       <c r="B699" t="n">
         <v>0.66</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B700" t="n">
+        <v>0.43</v>
       </c>
     </row>
   </sheetData>
@@ -24648,28 +24678,28 @@
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.01016489189967836</v>
+        <v>-0.01464580059196485</v>
       </c>
       <c r="J2" t="n">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="K2" t="n">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="L2" t="n">
-        <v>5.137733159543689e-05</v>
+        <v>0.0001067443389218825</v>
       </c>
       <c r="M2" t="n">
-        <v>6.986777406729395</v>
+        <v>6.994600040349702</v>
       </c>
       <c r="N2" t="n">
-        <v>91.62088803526049</v>
+        <v>91.69710571409333</v>
       </c>
       <c r="O2" t="n">
-        <v>9.571880067952193</v>
+        <v>9.575860573029106</v>
       </c>
       <c r="P2" t="n">
-        <v>322.7793538603762</v>
+        <v>322.8312886662959</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24729,7 +24759,7 @@
         <v>-0.3160723992144674</v>
       </c>
       <c r="J3" t="n">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="K3" t="n">
         <v>522</v>
@@ -24807,7 +24837,7 @@
         <v>-0.1546375267443633</v>
       </c>
       <c r="J4" t="n">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="K4" t="n">
         <v>522</v>
@@ -24885,7 +24915,7 @@
         <v>-0.2539853932377998</v>
       </c>
       <c r="J5" t="n">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="K5" t="n">
         <v>520</v>
@@ -24963,7 +24993,7 @@
         <v>-0.2464291626011166</v>
       </c>
       <c r="J6" t="n">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="K6" t="n">
         <v>514</v>
@@ -25041,7 +25071,7 @@
         <v>-0.1377126126867736</v>
       </c>
       <c r="J7" t="n">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="K7" t="n">
         <v>515</v>
@@ -25097,7 +25127,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H599"/>
+  <dimension ref="A1:H600"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40620,7 +40650,7 @@
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>-45.167906204617346,170.90847745996197</t>
+          <t>-45.16790620461735,170.90847745996197</t>
         </is>
       </c>
       <c r="F401" t="inlineStr">
@@ -43828,7 +43858,7 @@
       </c>
       <c r="G486" t="inlineStr">
         <is>
-          <t>-45.16901474755908,170.9075821593353</t>
+          <t>-45.16901474755909,170.9075821593353</t>
         </is>
       </c>
       <c r="H486" t="inlineStr">
@@ -48359,6 +48389,28 @@
         </is>
       </c>
     </row>
+    <row r="600">
+      <c r="A600" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:19:47+00:00</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>-45.166481812105445,170.9103398025683</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr"/>
+      <c r="D600" t="inlineStr"/>
+      <c r="E600" t="inlineStr"/>
+      <c r="F600" t="inlineStr"/>
+      <c r="G600" t="inlineStr"/>
+      <c r="H600" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0475/nzd0475.xlsx
+++ b/data/nzd0475/nzd0475.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H600"/>
+  <dimension ref="A1:H602"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17483,6 +17483,60 @@
       <c r="H600" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:13:42+00:00</t>
+        </is>
+      </c>
+      <c r="B601" t="n">
+        <v>310.0211111111111</v>
+      </c>
+      <c r="C601" t="n">
+        <v>309.7771428571428</v>
+      </c>
+      <c r="D601" t="n">
+        <v>316.3171428571428</v>
+      </c>
+      <c r="E601" t="n">
+        <v>319.9166666666667</v>
+      </c>
+      <c r="F601" t="n">
+        <v>312.5563636363636</v>
+      </c>
+      <c r="G601" t="n">
+        <v>315.2933333333333</v>
+      </c>
+      <c r="H601" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr"/>
+      <c r="C602" t="inlineStr"/>
+      <c r="D602" t="inlineStr"/>
+      <c r="E602" t="n">
+        <v>321.3966666666666</v>
+      </c>
+      <c r="F602" t="n">
+        <v>300.7945454545454</v>
+      </c>
+      <c r="G602" t="n">
+        <v>303.7233333333333</v>
+      </c>
+      <c r="H602" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -17497,7 +17551,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B700"/>
+  <dimension ref="A1:B702"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24505,6 +24559,26 @@
       </c>
       <c r="B700" t="n">
         <v>0.43</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B701" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B702" t="n">
+        <v>-0.58</v>
       </c>
     </row>
   </sheetData>
@@ -24678,28 +24752,28 @@
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.01464580059196485</v>
+        <v>-0.01946970112162383</v>
       </c>
       <c r="J2" t="n">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="K2" t="n">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001067443389218825</v>
+        <v>0.0001886977671933243</v>
       </c>
       <c r="M2" t="n">
-        <v>6.994600040349702</v>
+        <v>7.00444820313491</v>
       </c>
       <c r="N2" t="n">
-        <v>91.69710571409333</v>
+        <v>91.8161496674558</v>
       </c>
       <c r="O2" t="n">
-        <v>9.575860573029106</v>
+        <v>9.582074392711414</v>
       </c>
       <c r="P2" t="n">
-        <v>322.8312886662959</v>
+        <v>322.8872058628686</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24756,28 +24830,28 @@
         <v>0.0756</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3160723992144674</v>
+        <v>-0.3179294329924058</v>
       </c>
       <c r="J3" t="n">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="K3" t="n">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06652791204360198</v>
+        <v>0.06744162471214565</v>
       </c>
       <c r="M3" t="n">
-        <v>6.100086475261469</v>
+        <v>6.097583187952773</v>
       </c>
       <c r="N3" t="n">
-        <v>64.23906286234599</v>
+        <v>64.16025083154175</v>
       </c>
       <c r="O3" t="n">
-        <v>8.014927502001873</v>
+        <v>8.010009415196823</v>
       </c>
       <c r="P3" t="n">
-        <v>322.7365407667273</v>
+        <v>322.7580065293487</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -24834,28 +24908,28 @@
         <v>0.0751</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1546375267443633</v>
+        <v>-0.1562725305772795</v>
       </c>
       <c r="J4" t="n">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="K4" t="n">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0171788417395129</v>
+        <v>0.01758886560847628</v>
       </c>
       <c r="M4" t="n">
-        <v>5.716248647341585</v>
+        <v>5.712703878771479</v>
       </c>
       <c r="N4" t="n">
-        <v>62.80815686529431</v>
+        <v>62.72287816480263</v>
       </c>
       <c r="O4" t="n">
-        <v>7.925159737525441</v>
+        <v>7.919777658798423</v>
       </c>
       <c r="P4" t="n">
-        <v>324.5822686857837</v>
+        <v>324.6012116271909</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24912,28 +24986,28 @@
         <v>0.08409999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2539853932377998</v>
+        <v>-0.2560051693181488</v>
       </c>
       <c r="J5" t="n">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="K5" t="n">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04980555534061171</v>
+        <v>0.05087894593395959</v>
       </c>
       <c r="M5" t="n">
-        <v>5.652091092618616</v>
+        <v>5.639937933699564</v>
       </c>
       <c r="N5" t="n">
-        <v>55.60650775210719</v>
+        <v>55.42147549023428</v>
       </c>
       <c r="O5" t="n">
-        <v>7.456977118920722</v>
+        <v>7.444560127383906</v>
       </c>
       <c r="P5" t="n">
-        <v>329.8213823745121</v>
+        <v>329.8449874586373</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24990,28 +25064,28 @@
         <v>0.0609</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2464291626011166</v>
+        <v>-0.2541959608711152</v>
       </c>
       <c r="J6" t="n">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="K6" t="n">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0413624469115097</v>
+        <v>0.04386032647406068</v>
       </c>
       <c r="M6" t="n">
-        <v>6.118371155481021</v>
+        <v>6.133792308101635</v>
       </c>
       <c r="N6" t="n">
-        <v>63.67083639236016</v>
+        <v>63.93556057697768</v>
       </c>
       <c r="O6" t="n">
-        <v>7.979400753963931</v>
+        <v>7.995971521771303</v>
       </c>
       <c r="P6" t="n">
-        <v>322.9554063824029</v>
+        <v>323.0461047908145</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -25068,28 +25142,28 @@
         <v>0.06320000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1377126126867736</v>
+        <v>-0.1476109135291081</v>
       </c>
       <c r="J7" t="n">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="K7" t="n">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0104480531097777</v>
+        <v>0.01196216245870363</v>
       </c>
       <c r="M7" t="n">
-        <v>6.83362841867798</v>
+        <v>6.858434917786409</v>
       </c>
       <c r="N7" t="n">
-        <v>80.43147531310447</v>
+        <v>80.85785229265629</v>
       </c>
       <c r="O7" t="n">
-        <v>8.968359677951396</v>
+        <v>8.992099437431522</v>
       </c>
       <c r="P7" t="n">
-        <v>325.6674368343359</v>
+        <v>325.7837224359116</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -25127,7 +25201,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H600"/>
+  <dimension ref="A1:H602"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48411,6 +48485,78 @@
         </is>
       </c>
     </row>
+    <row r="601">
+      <c r="A601" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:13:42+00:00</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>-45.1664749111653,170.91033148536047</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>-45.166905041736776,170.9096374671979</t>
+        </is>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>-45.167443856317014,170.90912272898242</t>
+        </is>
+      </c>
+      <c r="E601" t="inlineStr">
+        <is>
+          <t>-45.167941587957586,170.9085409418253</t>
+        </is>
+      </c>
+      <c r="F601" t="inlineStr">
+        <is>
+          <t>-45.16844783656114,170.90797940823919</t>
+        </is>
+      </c>
+      <c r="G601" t="inlineStr">
+        <is>
+          <t>-45.16896139816495,170.90748374572502</t>
+        </is>
+      </c>
+      <c r="H601" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr"/>
+      <c r="C602" t="inlineStr"/>
+      <c r="D602" t="inlineStr"/>
+      <c r="E602" t="inlineStr">
+        <is>
+          <t>-45.16794983045167,170.9085557298468</t>
+        </is>
+      </c>
+      <c r="F602" t="inlineStr">
+        <is>
+          <t>-45.16838673804312,170.90785723370135</t>
+        </is>
+      </c>
+      <c r="G602" t="inlineStr">
+        <is>
+          <t>-45.16889806845969,170.9073669218746</t>
+        </is>
+      </c>
+      <c r="H602" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0475/nzd0475.xlsx
+++ b/data/nzd0475/nzd0475.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H602"/>
+  <dimension ref="A1:H606"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17537,6 +17537,120 @@
       <c r="H602" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:13:55+00:00</t>
+        </is>
+      </c>
+      <c r="B603" t="n">
+        <v>308.8166666666667</v>
+      </c>
+      <c r="C603" t="n">
+        <v>303.9842857142857</v>
+      </c>
+      <c r="D603" t="n">
+        <v>311.3342857142857</v>
+      </c>
+      <c r="E603" t="inlineStr"/>
+      <c r="F603" t="inlineStr"/>
+      <c r="G603" t="inlineStr"/>
+      <c r="H603" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B604" t="n">
+        <v>313.1922222222223</v>
+      </c>
+      <c r="C604" t="n">
+        <v>320.0528571428572</v>
+      </c>
+      <c r="D604" t="n">
+        <v>315.1828571428572</v>
+      </c>
+      <c r="E604" t="n">
+        <v>323.9333333333333</v>
+      </c>
+      <c r="F604" t="n">
+        <v>313.03</v>
+      </c>
+      <c r="G604" t="n">
+        <v>321.3266666666667</v>
+      </c>
+      <c r="H604" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:20:13+00:00</t>
+        </is>
+      </c>
+      <c r="B605" t="n">
+        <v>313.9944444444445</v>
+      </c>
+      <c r="C605" t="n">
+        <v>309.2114285714285</v>
+      </c>
+      <c r="D605" t="n">
+        <v>314.9914285714286</v>
+      </c>
+      <c r="E605" t="n">
+        <v>316.3366666666667</v>
+      </c>
+      <c r="F605" t="n">
+        <v>308.2418181818182</v>
+      </c>
+      <c r="G605" t="n">
+        <v>317.7233333333333</v>
+      </c>
+      <c r="H605" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:14:00+00:00</t>
+        </is>
+      </c>
+      <c r="B606" t="n">
+        <v>318.8266666666667</v>
+      </c>
+      <c r="C606" t="n">
+        <v>306.0457142857143</v>
+      </c>
+      <c r="D606" t="n">
+        <v>320.2357142857143</v>
+      </c>
+      <c r="E606" t="n">
+        <v>322.33</v>
+      </c>
+      <c r="F606" t="n">
+        <v>314.6545454545454</v>
+      </c>
+      <c r="G606" t="n">
+        <v>322.49</v>
+      </c>
+      <c r="H606" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -17551,7 +17665,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B702"/>
+  <dimension ref="A1:B708"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24579,6 +24693,66 @@
       </c>
       <c r="B702" t="n">
         <v>-0.58</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B703" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B704" t="n">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B705" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B706" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B707" t="n">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B708" t="n">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
@@ -24752,28 +24926,28 @@
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.01946970112162383</v>
+        <v>-0.03274378923634988</v>
       </c>
       <c r="J2" t="n">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="K2" t="n">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001886977671933243</v>
+        <v>0.0005373768638872178</v>
       </c>
       <c r="M2" t="n">
-        <v>7.00444820313491</v>
+        <v>7.015012419560938</v>
       </c>
       <c r="N2" t="n">
-        <v>91.8161496674558</v>
+        <v>91.77381999769328</v>
       </c>
       <c r="O2" t="n">
-        <v>9.582074392711414</v>
+        <v>9.579865343400881</v>
       </c>
       <c r="P2" t="n">
-        <v>322.8872058628686</v>
+        <v>323.0415781192404</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24830,28 +25004,28 @@
         <v>0.0756</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3179294329924058</v>
+        <v>-0.3251121596606289</v>
       </c>
       <c r="J3" t="n">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="K3" t="n">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06744162471214565</v>
+        <v>0.07077956511078476</v>
       </c>
       <c r="M3" t="n">
-        <v>6.097583187952773</v>
+        <v>6.107432937386086</v>
       </c>
       <c r="N3" t="n">
-        <v>64.16025083154175</v>
+        <v>64.12913071364004</v>
       </c>
       <c r="O3" t="n">
-        <v>8.010009415196823</v>
+        <v>8.008066602722534</v>
       </c>
       <c r="P3" t="n">
-        <v>322.7580065293487</v>
+        <v>322.841355507614</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -24908,28 +25082,28 @@
         <v>0.0751</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1562725305772795</v>
+        <v>-0.1639925242262328</v>
       </c>
       <c r="J4" t="n">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="K4" t="n">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01758886560847628</v>
+        <v>0.01952072769258828</v>
       </c>
       <c r="M4" t="n">
-        <v>5.712703878771479</v>
+        <v>5.703834377381074</v>
       </c>
       <c r="N4" t="n">
-        <v>62.72287816480263</v>
+        <v>62.51809822744842</v>
       </c>
       <c r="O4" t="n">
-        <v>7.919777658798423</v>
+        <v>7.906838699976649</v>
       </c>
       <c r="P4" t="n">
-        <v>324.6012116271909</v>
+        <v>324.6909355899367</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24986,28 +25160,28 @@
         <v>0.08409999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2560051693181488</v>
+        <v>-0.2587197348352303</v>
       </c>
       <c r="J5" t="n">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="K5" t="n">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05087894593395959</v>
+        <v>0.05235226807984139</v>
       </c>
       <c r="M5" t="n">
-        <v>5.639937933699564</v>
+        <v>5.623088565581671</v>
       </c>
       <c r="N5" t="n">
-        <v>55.42147549023428</v>
+        <v>55.19690458578092</v>
       </c>
       <c r="O5" t="n">
-        <v>7.444560127383906</v>
+        <v>7.429461931107859</v>
       </c>
       <c r="P5" t="n">
-        <v>329.8449874586373</v>
+        <v>329.8768649383682</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -25064,28 +25238,28 @@
         <v>0.0609</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2541959608711152</v>
+        <v>-0.2594300359445749</v>
       </c>
       <c r="J6" t="n">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="K6" t="n">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04386032647406068</v>
+        <v>0.04596651308708521</v>
       </c>
       <c r="M6" t="n">
-        <v>6.133792308101635</v>
+        <v>6.124569400258939</v>
       </c>
       <c r="N6" t="n">
-        <v>63.93556057697768</v>
+        <v>63.72358673034147</v>
       </c>
       <c r="O6" t="n">
-        <v>7.995971521771303</v>
+        <v>7.982705476863184</v>
       </c>
       <c r="P6" t="n">
-        <v>323.0461047908145</v>
+        <v>323.1074551164907</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -25142,28 +25316,28 @@
         <v>0.06320000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1476109135291081</v>
+        <v>-0.1493077019982775</v>
       </c>
       <c r="J7" t="n">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="K7" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01196216245870363</v>
+        <v>0.01236123609874695</v>
       </c>
       <c r="M7" t="n">
-        <v>6.858434917786409</v>
+        <v>6.829702194836745</v>
       </c>
       <c r="N7" t="n">
-        <v>80.85785229265629</v>
+        <v>80.42705344747183</v>
       </c>
       <c r="O7" t="n">
-        <v>8.992099437431522</v>
+        <v>8.968113148676919</v>
       </c>
       <c r="P7" t="n">
-        <v>325.7837224359116</v>
+        <v>325.8037349514436</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -25201,7 +25375,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H602"/>
+  <dimension ref="A1:H606"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48557,6 +48731,162 @@
         </is>
       </c>
     </row>
+    <row r="603">
+      <c r="A603" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:13:55+00:00</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>-45.166466663513916,170.9103215450618</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>-45.16686831468283,170.90958517382654</t>
+        </is>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>-45.16741400873254,170.90907542695447</t>
+        </is>
+      </c>
+      <c r="E603" t="inlineStr"/>
+      <c r="F603" t="inlineStr"/>
+      <c r="G603" t="inlineStr"/>
+      <c r="H603" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>-45.16649662591878,170.91035765660328</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>-45.16697019031138,170.9097302284534</t>
+        </is>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>-45.16743706188574,170.90911196125725</t>
+        </is>
+      </c>
+      <c r="E604" t="inlineStr">
+        <is>
+          <t>-45.16796395778521,170.90858107599274</t>
+        </is>
+      </c>
+      <c r="F604" t="inlineStr">
+        <is>
+          <t>-45.16845029693319,170.90798432808813</t>
+        </is>
+      </c>
+      <c r="G604" t="inlineStr">
+        <is>
+          <t>-45.16899442225239,170.90754466520886</t>
+        </is>
+      </c>
+      <c r="H604" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:20:13+00:00</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>-45.16650211927877,170.91036427736233</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>-45.16690145507605,170.90963236037004</t>
+        </is>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>-45.167435915218405,170.90911014403437</t>
+        </is>
+      </c>
+      <c r="E605" t="inlineStr">
+        <is>
+          <t>-45.167921650025036,170.90850517081807</t>
+        </is>
+      </c>
+      <c r="F605" t="inlineStr">
+        <is>
+          <t>-45.16842542402627,170.90793459136228</t>
+        </is>
+      </c>
+      <c r="G605" t="inlineStr">
+        <is>
+          <t>-45.16897469903046,170.90750828179588</t>
+        </is>
+      </c>
+      <c r="H605" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:14:00+00:00</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>-45.16653520877603,170.91040415783377</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>-45.166881384263476,170.90960378277936</t>
+        </is>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>-45.16746732875911,170.90915992783113</t>
+        </is>
+      </c>
+      <c r="E606" t="inlineStr">
+        <is>
+          <t>-45.16795502841997,170.90856505562834</t>
+        </is>
+      </c>
+      <c r="F606" t="inlineStr">
+        <is>
+          <t>-45.16845873586608,170.90800120288998</t>
+        </is>
+      </c>
+      <c r="G606" t="inlineStr">
+        <is>
+          <t>-45.16900078987668,170.90755641157054</t>
+        </is>
+      </c>
+      <c r="H606" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0475/nzd0475.xlsx
+++ b/data/nzd0475/nzd0475.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H606"/>
+  <dimension ref="A1:H608"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17651,6 +17651,66 @@
       <c r="H606" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:14:30+00:00</t>
+        </is>
+      </c>
+      <c r="B607" t="n">
+        <v>319.8944444444444</v>
+      </c>
+      <c r="C607" t="n">
+        <v>317.3214285714286</v>
+      </c>
+      <c r="D607" t="n">
+        <v>326.4214285714286</v>
+      </c>
+      <c r="E607" t="n">
+        <v>325.9966666666667</v>
+      </c>
+      <c r="F607" t="n">
+        <v>318.5663636363636</v>
+      </c>
+      <c r="G607" t="n">
+        <v>327.9533333333333</v>
+      </c>
+      <c r="H607" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:20:26+00:00</t>
+        </is>
+      </c>
+      <c r="B608" t="n">
+        <v>318.6566666666667</v>
+      </c>
+      <c r="C608" t="n">
+        <v>312.9842857142857</v>
+      </c>
+      <c r="D608" t="n">
+        <v>315.5442857142857</v>
+      </c>
+      <c r="E608" t="n">
+        <v>317.27</v>
+      </c>
+      <c r="F608" t="n">
+        <v>322.6163636363636</v>
+      </c>
+      <c r="G608" t="n">
+        <v>319.85</v>
+      </c>
+      <c r="H608" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -17665,7 +17725,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B708"/>
+  <dimension ref="A1:B711"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24753,6 +24813,36 @@
       </c>
       <c r="B708" t="n">
         <v>0.3</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B709" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B710" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B711" t="n">
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
@@ -24926,28 +25016,28 @@
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.03274378923634988</v>
+        <v>-0.03497571918258487</v>
       </c>
       <c r="J2" t="n">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="K2" t="n">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0005373768638872178</v>
+        <v>0.0006172721808234138</v>
       </c>
       <c r="M2" t="n">
-        <v>7.015012419560938</v>
+        <v>6.999298766624604</v>
       </c>
       <c r="N2" t="n">
-        <v>91.77381999769328</v>
+        <v>91.45890444527305</v>
       </c>
       <c r="O2" t="n">
-        <v>9.579865343400881</v>
+        <v>9.563414894548549</v>
       </c>
       <c r="P2" t="n">
-        <v>323.0415781192404</v>
+        <v>323.0676614136855</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25004,28 +25094,28 @@
         <v>0.0756</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3251121596606289</v>
+        <v>-0.3245455379360657</v>
       </c>
       <c r="J3" t="n">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="K3" t="n">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07077956511078476</v>
+        <v>0.07100074905354092</v>
       </c>
       <c r="M3" t="n">
-        <v>6.107432937386086</v>
+        <v>6.092560023817278</v>
       </c>
       <c r="N3" t="n">
-        <v>64.12913071364004</v>
+        <v>63.90644652064393</v>
       </c>
       <c r="O3" t="n">
-        <v>8.008066602722534</v>
+        <v>7.994150769196433</v>
       </c>
       <c r="P3" t="n">
-        <v>322.841355507614</v>
+        <v>322.8347715209061</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25082,28 +25172,28 @@
         <v>0.0751</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1639925242262328</v>
+        <v>-0.1635884264543069</v>
       </c>
       <c r="J4" t="n">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="K4" t="n">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01952072769258828</v>
+        <v>0.01952621645153396</v>
       </c>
       <c r="M4" t="n">
-        <v>5.703834377381074</v>
+        <v>5.703046013757167</v>
       </c>
       <c r="N4" t="n">
-        <v>62.51809822744842</v>
+        <v>62.39454666144866</v>
       </c>
       <c r="O4" t="n">
-        <v>7.906838699976649</v>
+        <v>7.899021880046204</v>
       </c>
       <c r="P4" t="n">
-        <v>324.6909355899367</v>
+        <v>324.6862613681695</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25160,28 +25250,28 @@
         <v>0.08409999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2587197348352303</v>
+        <v>-0.2598974210493188</v>
       </c>
       <c r="J5" t="n">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="K5" t="n">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05235226807984139</v>
+        <v>0.0530875112717637</v>
       </c>
       <c r="M5" t="n">
-        <v>5.623088565581671</v>
+        <v>5.617969591829781</v>
       </c>
       <c r="N5" t="n">
-        <v>55.19690458578092</v>
+        <v>55.0682794615003</v>
       </c>
       <c r="O5" t="n">
-        <v>7.429461931107859</v>
+        <v>7.420800459620263</v>
       </c>
       <c r="P5" t="n">
-        <v>329.8768649383682</v>
+        <v>329.8907710010112</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -25238,28 +25328,28 @@
         <v>0.0609</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2594300359445749</v>
+        <v>-0.2561607776183162</v>
       </c>
       <c r="J6" t="n">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="K6" t="n">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04596651308708521</v>
+        <v>0.04512014353675631</v>
       </c>
       <c r="M6" t="n">
-        <v>6.124569400258939</v>
+        <v>6.116871362579316</v>
       </c>
       <c r="N6" t="n">
-        <v>63.72358673034147</v>
+        <v>63.56230515480198</v>
       </c>
       <c r="O6" t="n">
-        <v>7.982705476863184</v>
+        <v>7.972597139878697</v>
       </c>
       <c r="P6" t="n">
-        <v>323.1074551164907</v>
+        <v>323.0689825890835</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -25316,28 +25406,28 @@
         <v>0.06320000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1493077019982775</v>
+        <v>-0.1477814432379426</v>
       </c>
       <c r="J7" t="n">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="K7" t="n">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01236123609874695</v>
+        <v>0.01218760039217692</v>
       </c>
       <c r="M7" t="n">
-        <v>6.829702194836745</v>
+        <v>6.818660418950555</v>
       </c>
       <c r="N7" t="n">
-        <v>80.42705344747183</v>
+        <v>80.19645695460365</v>
       </c>
       <c r="O7" t="n">
-        <v>8.968113148676919</v>
+        <v>8.955247453566185</v>
       </c>
       <c r="P7" t="n">
-        <v>325.8037349514436</v>
+        <v>325.7857084113525</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -25375,7 +25465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H606"/>
+  <dimension ref="A1:H608"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48887,6 +48977,90 @@
         </is>
       </c>
     </row>
+    <row r="607">
+      <c r="A607" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:14:30+00:00</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>-45.16654252057165,170.91041297024123</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>-45.16695287291614,170.9097055711937</t>
+        </is>
+      </c>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>-45.167504381478466,170.90921864864262</t>
+        </is>
+      </c>
+      <c r="E607" t="inlineStr">
+        <is>
+          <t>-45.16797544900257,170.9086016926438</t>
+        </is>
+      </c>
+      <c r="F607" t="inlineStr">
+        <is>
+          <t>-45.16847905635324,170.90804183652693</t>
+        </is>
+      </c>
+      <c r="G607" t="inlineStr">
+        <is>
+          <t>-45.169030693976296,170.9076115757513</t>
+        </is>
+      </c>
+      <c r="H607" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:20:26+00:00</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>-45.16653404467117,170.91040275481802</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>-45.16692537520066,170.9096664187974</t>
+        </is>
+      </c>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>-45.16743922686205,170.90911539228276</t>
+        </is>
+      </c>
+      <c r="E608" t="inlineStr">
+        <is>
+          <t>-45.167926847997315,170.90851449659033</t>
+        </is>
+      </c>
+      <c r="F608" t="inlineStr">
+        <is>
+          <t>-45.16850009463041,170.90808390554506</t>
+        </is>
+      </c>
+      <c r="G608" t="inlineStr">
+        <is>
+          <t>-45.16898633956427,170.90752975507448</t>
+        </is>
+      </c>
+      <c r="H608" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0475/nzd0475.xlsx
+++ b/data/nzd0475/nzd0475.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H608"/>
+  <dimension ref="A1:H612"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17711,6 +17711,126 @@
       <c r="H608" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:14:15+00:00</t>
+        </is>
+      </c>
+      <c r="B609" t="n">
+        <v>319.9177777777778</v>
+      </c>
+      <c r="C609" t="n">
+        <v>321.8585714285715</v>
+      </c>
+      <c r="D609" t="n">
+        <v>331.8185714285714</v>
+      </c>
+      <c r="E609" t="n">
+        <v>334.7366666666667</v>
+      </c>
+      <c r="F609" t="n">
+        <v>328.5081818181818</v>
+      </c>
+      <c r="G609" t="n">
+        <v>321.9833333333333</v>
+      </c>
+      <c r="H609" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:14:23+00:00</t>
+        </is>
+      </c>
+      <c r="B610" t="n">
+        <v>321.0555555555555</v>
+      </c>
+      <c r="C610" t="n">
+        <v>309.5914285714285</v>
+      </c>
+      <c r="D610" t="n">
+        <v>321.3514285714285</v>
+      </c>
+      <c r="E610" t="n">
+        <v>323.9133333333333</v>
+      </c>
+      <c r="F610" t="n">
+        <v>318.2536363636364</v>
+      </c>
+      <c r="G610" t="n">
+        <v>319.1766666666667</v>
+      </c>
+      <c r="H610" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:14:20+00:00</t>
+        </is>
+      </c>
+      <c r="B611" t="n">
+        <v>320.1333333333333</v>
+      </c>
+      <c r="C611" t="n">
+        <v>322.7314285714286</v>
+      </c>
+      <c r="D611" t="n">
+        <v>321.5714285714286</v>
+      </c>
+      <c r="E611" t="n">
+        <v>326.98</v>
+      </c>
+      <c r="F611" t="n">
+        <v>321.42</v>
+      </c>
+      <c r="G611" t="n">
+        <v>320.88</v>
+      </c>
+      <c r="H611" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:14:49+00:00</t>
+        </is>
+      </c>
+      <c r="B612" t="n">
+        <v>322.5177777777778</v>
+      </c>
+      <c r="C612" t="n">
+        <v>308.3242857142857</v>
+      </c>
+      <c r="D612" t="n">
+        <v>323.5842857142857</v>
+      </c>
+      <c r="E612" t="n">
+        <v>322.7166666666667</v>
+      </c>
+      <c r="F612" t="n">
+        <v>317.8990909090909</v>
+      </c>
+      <c r="G612" t="n">
+        <v>318.2233333333333</v>
+      </c>
+      <c r="H612" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -17725,7 +17845,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B711"/>
+  <dimension ref="A1:B716"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24843,6 +24963,56 @@
       </c>
       <c r="B711" t="n">
         <v>0.75</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B712" t="n">
+        <v>-0.67</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>2025-09-01 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B713" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B714" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B715" t="n">
+        <v>-0.66</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B716" t="n">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
@@ -25016,28 +25186,28 @@
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.03497571918258487</v>
+        <v>-0.03686116951344624</v>
       </c>
       <c r="J2" t="n">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="K2" t="n">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0006172721808234138</v>
+        <v>0.0006952679627451053</v>
       </c>
       <c r="M2" t="n">
-        <v>6.999298766624604</v>
+        <v>6.957156133965659</v>
       </c>
       <c r="N2" t="n">
-        <v>91.45890444527305</v>
+        <v>90.78939283630733</v>
       </c>
       <c r="O2" t="n">
-        <v>9.563414894548549</v>
+        <v>9.528346804997566</v>
       </c>
       <c r="P2" t="n">
-        <v>323.0676614136855</v>
+        <v>323.0897537363947</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25094,28 +25264,28 @@
         <v>0.0756</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3245455379360657</v>
+        <v>-0.3226953152847116</v>
       </c>
       <c r="J3" t="n">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="K3" t="n">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07100074905354092</v>
+        <v>0.07082597510462951</v>
       </c>
       <c r="M3" t="n">
-        <v>6.092560023817278</v>
+        <v>6.097002556962289</v>
       </c>
       <c r="N3" t="n">
-        <v>63.90644652064393</v>
+        <v>63.7737299041037</v>
       </c>
       <c r="O3" t="n">
-        <v>7.994150769196433</v>
+        <v>7.985845597311765</v>
       </c>
       <c r="P3" t="n">
-        <v>322.8347715209061</v>
+        <v>322.8131977856295</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25172,28 +25342,28 @@
         <v>0.0751</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1635884264543069</v>
+        <v>-0.1574183990722184</v>
       </c>
       <c r="J4" t="n">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="K4" t="n">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01952621645153396</v>
+        <v>0.01828136647889733</v>
       </c>
       <c r="M4" t="n">
-        <v>5.703046013757167</v>
+        <v>5.694205065775153</v>
       </c>
       <c r="N4" t="n">
-        <v>62.39454666144866</v>
+        <v>62.18955914696593</v>
       </c>
       <c r="O4" t="n">
-        <v>7.899021880046204</v>
+        <v>7.886035705407751</v>
       </c>
       <c r="P4" t="n">
-        <v>324.6862613681695</v>
+        <v>324.6139920518456</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25250,28 +25420,28 @@
         <v>0.08409999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2598974210493188</v>
+        <v>-0.2539276999931896</v>
       </c>
       <c r="J5" t="n">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="K5" t="n">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0530875112717637</v>
+        <v>0.05123615023495298</v>
       </c>
       <c r="M5" t="n">
-        <v>5.617969591829781</v>
+        <v>5.608319715731684</v>
       </c>
       <c r="N5" t="n">
-        <v>55.0682794615003</v>
+        <v>54.93394364303685</v>
       </c>
       <c r="O5" t="n">
-        <v>7.420800459620263</v>
+        <v>7.411743630417666</v>
       </c>
       <c r="P5" t="n">
-        <v>329.8907710010112</v>
+        <v>329.8202927636933</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -25328,28 +25498,28 @@
         <v>0.0609</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2561607776183162</v>
+        <v>-0.2483512324046478</v>
       </c>
       <c r="J6" t="n">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="K6" t="n">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04512014353675631</v>
+        <v>0.04289655541640702</v>
       </c>
       <c r="M6" t="n">
-        <v>6.116871362579316</v>
+        <v>6.107912074133202</v>
       </c>
       <c r="N6" t="n">
-        <v>63.56230515480198</v>
+        <v>63.41140514651398</v>
       </c>
       <c r="O6" t="n">
-        <v>7.972597139878697</v>
+        <v>7.963127849439188</v>
       </c>
       <c r="P6" t="n">
-        <v>323.0689825890835</v>
+        <v>322.9768617060827</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -25406,28 +25576,28 @@
         <v>0.06320000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1477814432379426</v>
+        <v>-0.1506578158821314</v>
       </c>
       <c r="J7" t="n">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="K7" t="n">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01218760039217692</v>
+        <v>0.01283403811378536</v>
       </c>
       <c r="M7" t="n">
-        <v>6.818660418950555</v>
+        <v>6.781754311246388</v>
       </c>
       <c r="N7" t="n">
-        <v>80.19645695460365</v>
+        <v>79.62884140579655</v>
       </c>
       <c r="O7" t="n">
-        <v>8.955247453566185</v>
+        <v>8.923499392379458</v>
       </c>
       <c r="P7" t="n">
-        <v>325.7857084113525</v>
+        <v>325.8198873764671</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -25465,7 +25635,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H608"/>
+  <dimension ref="A1:H612"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49061,6 +49231,174 @@
         </is>
       </c>
     </row>
+    <row r="609">
+      <c r="A609" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:14:15+00:00</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>-45.16654268035073,170.9104131628121</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>-45.16698163862844,170.90974652907684</t>
+        </is>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>-45.16753671059417,170.9092698836302</t>
+        </is>
+      </c>
+      <c r="E609" t="inlineStr">
+        <is>
+          <t>-45.16802412420006,170.9086890220723</t>
+        </is>
+      </c>
+      <c r="F609" t="inlineStr">
+        <is>
+          <t>-45.16853070045646,170.90814510634308</t>
+        </is>
+      </c>
+      <c r="G609" t="inlineStr">
+        <is>
+          <t>-45.16899801658488,170.90755129567629</t>
+        </is>
+      </c>
+      <c r="H609" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:14:23+00:00</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>-45.1665504714829,170.91042255293453</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>-45.16690386429768,170.9096357907139</t>
+        </is>
+      </c>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>-45.167474011942275,170.90917051926976</t>
+        </is>
+      </c>
+      <c r="E610" t="inlineStr">
+        <is>
+          <t>-45.16796384640021,170.9085808761545</t>
+        </is>
+      </c>
+      <c r="F610" t="inlineStr">
+        <is>
+          <t>-45.16847743184815,170.90803858810125</t>
+        </is>
+      </c>
+      <c r="G610" t="inlineStr">
+        <is>
+          <t>-45.168982654003834,170.90752295632387</t>
+        </is>
+      </c>
+      <c r="H610" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:14:20+00:00</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>-45.16654415640512,170.91041494179993</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>-45.1669871725847,170.90975440857358</t>
+        </is>
+      </c>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>-45.16747532975294,170.90917260772275</t>
+        </is>
+      </c>
+      <c r="E611" t="inlineStr">
+        <is>
+          <t>-45.1679809254296,170.90861151802966</t>
+        </is>
+      </c>
+      <c r="F611" t="inlineStr">
+        <is>
+          <t>-45.168493879957964,170.90807147841997</t>
+        </is>
+      </c>
+      <c r="G611" t="inlineStr">
+        <is>
+          <t>-45.16899197737627,170.9075401551452</t>
+        </is>
+      </c>
+      <c r="H611" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:14:49+00:00</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>-45.16656048430399,170.9104346207128</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>-45.16689583053947,170.90962435193666</t>
+        </is>
+      </c>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>-45.16748738686299,170.90919171571588</t>
+        </is>
+      </c>
+      <c r="E612" t="inlineStr">
+        <is>
+          <t>-45.16795718186375,170.90856891916692</t>
+        </is>
+      </c>
+      <c r="F612" t="inlineStr">
+        <is>
+          <t>-45.168475590112635,170.90803490529328</t>
+        </is>
+      </c>
+      <c r="G612" t="inlineStr">
+        <is>
+          <t>-45.16897743583344,170.90751333037156</t>
+        </is>
+      </c>
+      <c r="H612" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0475/nzd0475.xlsx
+++ b/data/nzd0475/nzd0475.xlsx
@@ -25177,10 +25177,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1465</v>
+        <v>0.1528</v>
       </c>
       <c r="H2" t="n">
         <v>0.2</v>
@@ -25255,13 +25255,13 @@
         <v>0.1992207052068132</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0636</v>
+        <v>0.07779999999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0756</v>
+        <v>0.1993</v>
       </c>
       <c r="I3" t="n">
         <v>-0.3227111272845457</v>
@@ -25333,13 +25333,13 @@
         <v>0.3987532473981842</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.155</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06519999999999999</v>
+        <v>0.1055</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0751</v>
+        <v>0.2</v>
       </c>
       <c r="I4" t="n">
         <v>-0.1574274574003992</v>
@@ -25411,13 +25411,13 @@
         <v>0.5994432009416563</v>
       </c>
       <c r="F5" t="n">
-        <v>0.075</v>
+        <v>0.2</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06950000000000001</v>
+        <v>0.1084</v>
       </c>
       <c r="H5" t="n">
-        <v>0.08409999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="I5" t="n">
         <v>-0.2539508441195512</v>
@@ -25489,13 +25489,13 @@
         <v>0.8002055922544614</v>
       </c>
       <c r="F6" t="n">
-        <v>0.055</v>
+        <v>0.065</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0535</v>
+        <v>0.0592</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0609</v>
+        <v>0.0766</v>
       </c>
       <c r="I6" t="n">
         <v>-0.2483257392059309</v>
@@ -25567,13 +25567,13 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06</v>
+        <v>0.115</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0542</v>
+        <v>0.0861</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06320000000000001</v>
+        <v>0.1815</v>
       </c>
       <c r="I7" t="n">
         <v>-0.1506316600214656</v>

--- a/data/nzd0475/nzd0475.xlsx
+++ b/data/nzd0475/nzd0475.xlsx
@@ -491,7 +491,7 @@
         <v>330.01</v>
       </c>
       <c r="D2" t="n">
-        <v>332.4</v>
+        <v>332.25</v>
       </c>
       <c r="E2" t="n">
         <v>334.77</v>
@@ -521,7 +521,7 @@
         <v>309.24</v>
       </c>
       <c r="D3" t="n">
-        <v>311.9</v>
+        <v>311.86</v>
       </c>
       <c r="E3" t="n">
         <v>320.63</v>
@@ -551,7 +551,7 @@
         <v>319.8</v>
       </c>
       <c r="D4" t="n">
-        <v>328.51</v>
+        <v>328.59</v>
       </c>
       <c r="E4" t="n">
         <v>323.14</v>
@@ -581,7 +581,7 @@
         <v>317.02</v>
       </c>
       <c r="D5" t="n">
-        <v>325.03</v>
+        <v>325.21</v>
       </c>
       <c r="E5" t="n">
         <v>322.63</v>
@@ -611,7 +611,7 @@
         <v>331.24</v>
       </c>
       <c r="D6" t="n">
-        <v>332.14</v>
+        <v>331.95</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
@@ -635,7 +635,7 @@
         <v>323.43</v>
       </c>
       <c r="D7" t="n">
-        <v>326.72</v>
+        <v>326.75</v>
       </c>
       <c r="E7" t="n">
         <v>329.66</v>
@@ -665,7 +665,7 @@
         <v>323.66</v>
       </c>
       <c r="D8" t="n">
-        <v>317.98</v>
+        <v>318.1</v>
       </c>
       <c r="E8" t="n">
         <v>329.68</v>
@@ -695,7 +695,7 @@
         <v>322.41</v>
       </c>
       <c r="D9" t="n">
-        <v>323.4</v>
+        <v>323.48</v>
       </c>
       <c r="E9" t="n">
         <v>328.31</v>
@@ -725,7 +725,7 @@
         <v>319.82</v>
       </c>
       <c r="D10" t="n">
-        <v>322.12</v>
+        <v>322.05</v>
       </c>
       <c r="E10" t="n">
         <v>327.94</v>
@@ -755,7 +755,7 @@
         <v>316.19</v>
       </c>
       <c r="D11" t="n">
-        <v>322.74</v>
+        <v>322.69</v>
       </c>
       <c r="E11" t="n">
         <v>326.74</v>
@@ -785,7 +785,7 @@
         <v>321.73</v>
       </c>
       <c r="D12" t="n">
-        <v>327.7</v>
+        <v>327.84</v>
       </c>
       <c r="E12" t="n">
         <v>329.06</v>
@@ -815,7 +815,7 @@
         <v>322.95</v>
       </c>
       <c r="D13" t="n">
-        <v>332.21</v>
+        <v>332.39</v>
       </c>
       <c r="E13" t="n">
         <v>331.04</v>
@@ -845,7 +845,7 @@
         <v>324.76</v>
       </c>
       <c r="D14" t="n">
-        <v>328.76</v>
+        <v>328.66</v>
       </c>
       <c r="E14" t="n">
         <v>331.95</v>
@@ -875,7 +875,7 @@
         <v>330.79</v>
       </c>
       <c r="D15" t="n">
-        <v>334.51</v>
+        <v>334.32</v>
       </c>
       <c r="E15" t="n">
         <v>337.43</v>
@@ -905,7 +905,7 @@
         <v>326.93</v>
       </c>
       <c r="D16" t="n">
-        <v>327.79</v>
+        <v>327.6</v>
       </c>
       <c r="E16" t="n">
         <v>335.51</v>
@@ -935,7 +935,7 @@
         <v>317.94</v>
       </c>
       <c r="D17" t="n">
-        <v>323.55</v>
+        <v>323.72</v>
       </c>
       <c r="E17" t="n">
         <v>328.56</v>
@@ -965,7 +965,7 @@
         <v>317.51</v>
       </c>
       <c r="D18" t="n">
-        <v>322.26</v>
+        <v>322.38</v>
       </c>
       <c r="E18" t="n">
         <v>327.37</v>
@@ -995,7 +995,7 @@
         <v>320.73</v>
       </c>
       <c r="D19" t="n">
-        <v>326.82</v>
+        <v>326.89</v>
       </c>
       <c r="E19" t="n">
         <v>326.52</v>
@@ -1025,7 +1025,7 @@
         <v>327.85</v>
       </c>
       <c r="D20" t="n">
-        <v>322.59</v>
+        <v>322.49</v>
       </c>
       <c r="E20" t="n">
         <v>334.42</v>
@@ -1055,7 +1055,7 @@
         <v>315.91</v>
       </c>
       <c r="D21" t="n">
-        <v>317.13</v>
+        <v>316.95</v>
       </c>
       <c r="E21" t="n">
         <v>327.38</v>
@@ -1085,7 +1085,7 @@
         <v>320.22</v>
       </c>
       <c r="D22" t="n">
-        <v>325.76</v>
+        <v>325.61</v>
       </c>
       <c r="E22" t="n">
         <v>332.74</v>
@@ -1115,7 +1115,7 @@
         <v>319.08</v>
       </c>
       <c r="D23" t="n">
-        <v>323.21</v>
+        <v>323.09</v>
       </c>
       <c r="E23" t="n">
         <v>337.95</v>
@@ -1145,7 +1145,7 @@
         <v>315.42</v>
       </c>
       <c r="D24" t="n">
-        <v>322.76</v>
+        <v>322.75</v>
       </c>
       <c r="E24" t="n">
         <v>326.93</v>
@@ -1175,7 +1175,7 @@
         <v>308.53</v>
       </c>
       <c r="D25" t="n">
-        <v>324.14</v>
+        <v>324.15</v>
       </c>
       <c r="E25" t="n">
         <v>325.09</v>
@@ -1205,7 +1205,7 @@
         <v>320.29</v>
       </c>
       <c r="D26" t="n">
-        <v>318.4</v>
+        <v>318.5</v>
       </c>
       <c r="E26" t="n">
         <v>321.34</v>
@@ -1235,7 +1235,7 @@
         <v>319.08</v>
       </c>
       <c r="D27" t="n">
-        <v>326.23</v>
+        <v>326.13</v>
       </c>
       <c r="E27" t="n">
         <v>327.38</v>
@@ -1265,7 +1265,7 @@
         <v>310.41</v>
       </c>
       <c r="D28" t="n">
-        <v>312.53</v>
+        <v>312.56</v>
       </c>
       <c r="E28" t="n">
         <v>316.75</v>
@@ -1295,7 +1295,7 @@
         <v>320.22</v>
       </c>
       <c r="D29" t="n">
-        <v>324.01</v>
+        <v>324.05</v>
       </c>
       <c r="E29" t="n">
         <v>327.77</v>
@@ -1325,7 +1325,7 @@
         <v>322.68</v>
       </c>
       <c r="D30" t="n">
-        <v>324.37</v>
+        <v>324.53</v>
       </c>
       <c r="E30" t="n">
         <v>329.64</v>
@@ -1355,7 +1355,7 @@
         <v>331.53</v>
       </c>
       <c r="D31" t="n">
-        <v>335.43</v>
+        <v>335.26</v>
       </c>
       <c r="E31" t="n">
         <v>340.59</v>
@@ -1385,7 +1385,7 @@
         <v>321.25</v>
       </c>
       <c r="D32" t="n">
-        <v>321.88</v>
+        <v>321.71</v>
       </c>
       <c r="E32" t="n">
         <v>333.47</v>
@@ -1415,7 +1415,7 @@
         <v>322.83</v>
       </c>
       <c r="D33" t="n">
-        <v>322.32</v>
+        <v>322.28</v>
       </c>
       <c r="E33" t="n">
         <v>327.51</v>
@@ -1445,7 +1445,7 @@
         <v>310.87</v>
       </c>
       <c r="D34" t="n">
-        <v>318.71</v>
+        <v>318.76</v>
       </c>
       <c r="E34" t="n">
         <v>318.24</v>
@@ -1475,7 +1475,7 @@
         <v>316.22</v>
       </c>
       <c r="D35" t="n">
-        <v>325.35</v>
+        <v>325.43</v>
       </c>
       <c r="E35" t="n">
         <v>332.17</v>
@@ -1505,7 +1505,7 @@
         <v>311.41</v>
       </c>
       <c r="D36" t="n">
-        <v>316.32</v>
+        <v>316.46</v>
       </c>
       <c r="E36" t="n">
         <v>317.39</v>
@@ -1535,7 +1535,7 @@
         <v>312.8</v>
       </c>
       <c r="D37" t="n">
-        <v>321.62</v>
+        <v>321.65</v>
       </c>
       <c r="E37" t="n">
         <v>322.27</v>
@@ -1591,7 +1591,7 @@
         <v>329.52</v>
       </c>
       <c r="D39" t="n">
-        <v>336.19</v>
+        <v>336.03</v>
       </c>
       <c r="E39" t="n">
         <v>341.05</v>
@@ -1621,7 +1621,7 @@
         <v>314.65</v>
       </c>
       <c r="D40" t="n">
-        <v>321.79</v>
+        <v>321.78</v>
       </c>
       <c r="E40" t="n">
         <v>327.59</v>
@@ -1651,7 +1651,7 @@
         <v>324.67</v>
       </c>
       <c r="D41" t="n">
-        <v>327.31</v>
+        <v>327.32</v>
       </c>
       <c r="E41" t="n">
         <v>330.01</v>
@@ -1681,7 +1681,7 @@
         <v>328.96</v>
       </c>
       <c r="D42" t="n">
-        <v>326.46</v>
+        <v>326.32</v>
       </c>
       <c r="E42" t="n">
         <v>328.59</v>
@@ -1711,7 +1711,7 @@
         <v>327.05</v>
       </c>
       <c r="D43" t="n">
-        <v>321.19</v>
+        <v>321.04</v>
       </c>
       <c r="E43" t="n">
         <v>333.07</v>
@@ -1741,7 +1741,7 @@
         <v>323.05</v>
       </c>
       <c r="D44" t="n">
-        <v>322.82</v>
+        <v>322.89</v>
       </c>
       <c r="E44" t="n">
         <v>330.32</v>
@@ -1771,7 +1771,7 @@
         <v>326.16</v>
       </c>
       <c r="D45" t="n">
-        <v>321.94</v>
+        <v>322.03</v>
       </c>
       <c r="E45" t="n">
         <v>329.99</v>
@@ -1799,7 +1799,7 @@
         <v>327.54</v>
       </c>
       <c r="D46" t="n">
-        <v>320.87</v>
+        <v>320.88</v>
       </c>
       <c r="E46" t="n">
         <v>326.47</v>
@@ -1829,7 +1829,7 @@
         <v>318.81</v>
       </c>
       <c r="D47" t="n">
-        <v>328.56</v>
+        <v>328.42</v>
       </c>
       <c r="E47" t="n">
         <v>340.1</v>
@@ -1859,7 +1859,7 @@
         <v>321.31</v>
       </c>
       <c r="D48" t="n">
-        <v>320.03</v>
+        <v>319.89</v>
       </c>
       <c r="E48" t="n">
         <v>325.1</v>
@@ -1889,7 +1889,7 @@
         <v>327.67</v>
       </c>
       <c r="D49" t="n">
-        <v>331.84</v>
+        <v>331.94</v>
       </c>
       <c r="E49" t="n">
         <v>329.74</v>
@@ -1919,7 +1919,7 @@
         <v>320.96</v>
       </c>
       <c r="D50" t="n">
-        <v>327.49</v>
+        <v>327.34</v>
       </c>
       <c r="E50" t="n">
         <v>328.47</v>
@@ -1949,7 +1949,7 @@
         <v>315.86</v>
       </c>
       <c r="D51" t="n">
-        <v>324.8</v>
+        <v>324.88</v>
       </c>
       <c r="E51" t="n">
         <v>322.52</v>
@@ -1979,7 +1979,7 @@
         <v>322.91</v>
       </c>
       <c r="D52" t="n">
-        <v>326.76</v>
+        <v>326.78</v>
       </c>
       <c r="E52" t="n">
         <v>331.07</v>
@@ -2009,7 +2009,7 @@
         <v>326.05</v>
       </c>
       <c r="D53" t="n">
-        <v>335.58</v>
+        <v>335.61</v>
       </c>
       <c r="E53" t="n">
         <v>337.37</v>
@@ -2039,7 +2039,7 @@
         <v>326.45</v>
       </c>
       <c r="D54" t="n">
-        <v>330.27</v>
+        <v>330.39</v>
       </c>
       <c r="E54" t="n">
         <v>331.31</v>
@@ -2069,7 +2069,7 @@
         <v>316.6</v>
       </c>
       <c r="D55" t="n">
-        <v>326.77</v>
+        <v>326.73</v>
       </c>
       <c r="E55" t="n">
         <v>330.17</v>
@@ -2099,7 +2099,7 @@
         <v>329.85</v>
       </c>
       <c r="D56" t="n">
-        <v>328.24</v>
+        <v>328.23</v>
       </c>
       <c r="E56" t="n">
         <v>328.68</v>
@@ -2127,7 +2127,7 @@
         <v>323.47</v>
       </c>
       <c r="D57" t="n">
-        <v>320.65</v>
+        <v>320.61</v>
       </c>
       <c r="E57" t="n">
         <v>330.57</v>
@@ -2181,7 +2181,7 @@
         <v>323.72</v>
       </c>
       <c r="D59" t="n">
-        <v>322.14</v>
+        <v>321.94</v>
       </c>
       <c r="E59" t="n">
         <v>333.96</v>
@@ -2211,7 +2211,7 @@
         <v>323.68</v>
       </c>
       <c r="D60" t="n">
-        <v>328.95</v>
+        <v>328.87</v>
       </c>
       <c r="E60" t="n">
         <v>333.64</v>
@@ -2241,7 +2241,7 @@
         <v>317.82</v>
       </c>
       <c r="D61" t="n">
-        <v>320.28</v>
+        <v>320.43</v>
       </c>
       <c r="E61" t="n">
         <v>321.52</v>
@@ -2271,7 +2271,7 @@
         <v>323</v>
       </c>
       <c r="D62" t="n">
-        <v>328.03</v>
+        <v>328.13</v>
       </c>
       <c r="E62" t="n">
         <v>332.38</v>
@@ -2301,7 +2301,7 @@
         <v>316.6</v>
       </c>
       <c r="D63" t="n">
-        <v>325.37</v>
+        <v>325.24</v>
       </c>
       <c r="E63" t="n">
         <v>326.06</v>
@@ -2331,7 +2331,7 @@
         <v>338.64</v>
       </c>
       <c r="D64" t="n">
-        <v>343.2</v>
+        <v>343.3</v>
       </c>
       <c r="E64" t="n">
         <v>340.02</v>
@@ -2361,7 +2361,7 @@
         <v>318.25</v>
       </c>
       <c r="D65" t="n">
-        <v>327.83</v>
+        <v>327.72</v>
       </c>
       <c r="E65" t="n">
         <v>329.85</v>
@@ -2405,7 +2405,7 @@
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="n">
-        <v>323.01</v>
+        <v>323.11</v>
       </c>
       <c r="E67" t="n">
         <v>328.86</v>
@@ -2435,7 +2435,7 @@
         <v>310.22</v>
       </c>
       <c r="D68" t="n">
-        <v>316.36</v>
+        <v>316.33</v>
       </c>
       <c r="E68" t="n">
         <v>324.88</v>
@@ -2465,7 +2465,7 @@
         <v>324.36</v>
       </c>
       <c r="D69" t="n">
-        <v>339.24</v>
+        <v>339.08</v>
       </c>
       <c r="E69" t="n">
         <v>341.75</v>
@@ -2517,7 +2517,7 @@
         <v>316.32</v>
       </c>
       <c r="D71" t="n">
-        <v>319.26</v>
+        <v>319.07</v>
       </c>
       <c r="E71" t="n">
         <v>327.35</v>
@@ -2547,7 +2547,7 @@
         <v>324.88</v>
       </c>
       <c r="D72" t="n">
-        <v>323.12</v>
+        <v>323.2</v>
       </c>
       <c r="E72" t="n">
         <v>331.99</v>
@@ -2577,7 +2577,7 @@
         <v>308.74</v>
       </c>
       <c r="D73" t="n">
-        <v>313.75</v>
+        <v>313.68</v>
       </c>
       <c r="E73" t="n">
         <v>322.45</v>
@@ -2607,7 +2607,7 @@
         <v>320.21</v>
       </c>
       <c r="D74" t="n">
-        <v>324.92</v>
+        <v>324.96</v>
       </c>
       <c r="E74" t="n">
         <v>326.48</v>
@@ -2637,7 +2637,7 @@
         <v>323.28</v>
       </c>
       <c r="D75" t="n">
-        <v>328.94</v>
+        <v>329.1</v>
       </c>
       <c r="E75" t="n">
         <v>329.33</v>
@@ -2661,7 +2661,7 @@
         <v>327.45</v>
       </c>
       <c r="D76" t="n">
-        <v>329.46</v>
+        <v>329.34</v>
       </c>
       <c r="E76" t="n">
         <v>334.01</v>
@@ -2691,7 +2691,7 @@
         <v>330.73</v>
       </c>
       <c r="D77" t="n">
-        <v>331.13</v>
+        <v>331.06</v>
       </c>
       <c r="E77" t="n">
         <v>336.65</v>
@@ -2717,7 +2717,7 @@
         <v>325.02</v>
       </c>
       <c r="D78" t="n">
-        <v>326.77</v>
+        <v>326.8</v>
       </c>
       <c r="E78" t="n">
         <v>328.19</v>
@@ -2747,7 +2747,7 @@
         <v>324.49</v>
       </c>
       <c r="D79" t="n">
-        <v>330.5</v>
+        <v>330.53</v>
       </c>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
@@ -2773,7 +2773,7 @@
         <v>323.91</v>
       </c>
       <c r="D80" t="n">
-        <v>325.6</v>
+        <v>325.7</v>
       </c>
       <c r="E80" t="n">
         <v>333.19</v>
@@ -2801,7 +2801,7 @@
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="n">
-        <v>333.52</v>
+        <v>333.33</v>
       </c>
       <c r="E81" t="n">
         <v>337.61</v>
@@ -2829,7 +2829,7 @@
         <v>316.21</v>
       </c>
       <c r="D82" t="n">
-        <v>318.91</v>
+        <v>319</v>
       </c>
       <c r="E82" t="n">
         <v>320.68</v>
@@ -2857,7 +2857,7 @@
         <v>325.43</v>
       </c>
       <c r="D83" t="n">
-        <v>327</v>
+        <v>326.99</v>
       </c>
       <c r="E83" t="n">
         <v>331.37</v>
@@ -2887,7 +2887,7 @@
         <v>325.18</v>
       </c>
       <c r="D84" t="n">
-        <v>331.57</v>
+        <v>331.49</v>
       </c>
       <c r="E84" t="n">
         <v>332.82</v>
@@ -2917,7 +2917,7 @@
         <v>336.55</v>
       </c>
       <c r="D85" t="n">
-        <v>338.21</v>
+        <v>338.22</v>
       </c>
       <c r="E85" t="n">
         <v>343.48</v>
@@ -2947,7 +2947,7 @@
         <v>328.44</v>
       </c>
       <c r="D86" t="n">
-        <v>327.79</v>
+        <v>327.92</v>
       </c>
       <c r="E86" t="n">
         <v>324.9</v>
@@ -3003,7 +3003,7 @@
         <v>327.54</v>
       </c>
       <c r="D88" t="n">
-        <v>327.35</v>
+        <v>327.46</v>
       </c>
       <c r="E88" t="n">
         <v>329.16</v>
@@ -3029,7 +3029,7 @@
         <v>328.13</v>
       </c>
       <c r="D89" t="n">
-        <v>315.19</v>
+        <v>315.16</v>
       </c>
       <c r="E89" t="n">
         <v>327.53</v>
@@ -3057,7 +3057,7 @@
         <v>328.16</v>
       </c>
       <c r="D90" t="n">
-        <v>329.85</v>
+        <v>329.72</v>
       </c>
       <c r="E90" t="n">
         <v>330.97</v>
@@ -3087,7 +3087,7 @@
         <v>310.96</v>
       </c>
       <c r="D91" t="n">
-        <v>319.64</v>
+        <v>319.71</v>
       </c>
       <c r="E91" t="n">
         <v>325.29</v>
@@ -3117,7 +3117,7 @@
         <v>319.43</v>
       </c>
       <c r="D92" t="n">
-        <v>325.66</v>
+        <v>325.8</v>
       </c>
       <c r="E92" t="n">
         <v>328.21</v>
@@ -3147,7 +3147,7 @@
         <v>329.64</v>
       </c>
       <c r="D93" t="n">
-        <v>325.14</v>
+        <v>325.22</v>
       </c>
       <c r="E93" t="n">
         <v>331.38</v>
@@ -3175,7 +3175,7 @@
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="n">
-        <v>329.64</v>
+        <v>329.6</v>
       </c>
       <c r="E94" t="n">
         <v>335.61</v>
@@ -3221,7 +3221,7 @@
         <v>300.26</v>
       </c>
       <c r="D96" t="n">
-        <v>302.94</v>
+        <v>303.02</v>
       </c>
       <c r="E96" t="n">
         <v>308.52</v>
@@ -3249,7 +3249,7 @@
         <v>306.35</v>
       </c>
       <c r="D97" t="n">
-        <v>313.57</v>
+        <v>313.64</v>
       </c>
       <c r="E97" t="n">
         <v>315.1</v>
@@ -3299,7 +3299,7 @@
         <v>317.3</v>
       </c>
       <c r="D99" t="n">
-        <v>321</v>
+        <v>321.13</v>
       </c>
       <c r="E99" t="n">
         <v>321.21</v>
@@ -3325,7 +3325,7 @@
         <v>337.02</v>
       </c>
       <c r="D100" t="n">
-        <v>335.87</v>
+        <v>335.67</v>
       </c>
       <c r="E100" t="n">
         <v>343.54</v>
@@ -3355,7 +3355,7 @@
         <v>319.05</v>
       </c>
       <c r="D101" t="n">
-        <v>331.9</v>
+        <v>332</v>
       </c>
       <c r="E101" t="n">
         <v>330.72</v>
@@ -3383,7 +3383,7 @@
         <v>314.36</v>
       </c>
       <c r="D102" t="n">
-        <v>322.89</v>
+        <v>322.9</v>
       </c>
       <c r="E102" t="n">
         <v>322.48</v>
@@ -3413,7 +3413,7 @@
         <v>311.05</v>
       </c>
       <c r="D103" t="n">
-        <v>322.67</v>
+        <v>322.8</v>
       </c>
       <c r="E103" t="n">
         <v>321.55</v>
@@ -3443,7 +3443,7 @@
         <v>327.27</v>
       </c>
       <c r="D104" t="n">
-        <v>322.22</v>
+        <v>322.08</v>
       </c>
       <c r="E104" t="n">
         <v>329.9</v>
@@ -3521,7 +3521,7 @@
         <v>320.58</v>
       </c>
       <c r="D107" t="n">
-        <v>325.33</v>
+        <v>325.29</v>
       </c>
       <c r="E107" t="n">
         <v>330.38</v>
@@ -3551,7 +3551,7 @@
         <v>324.62</v>
       </c>
       <c r="D108" t="n">
-        <v>322.47</v>
+        <v>322.61</v>
       </c>
       <c r="E108" t="n">
         <v>329.24</v>
@@ -3625,7 +3625,7 @@
         <v>332.54</v>
       </c>
       <c r="D111" t="n">
-        <v>327.63</v>
+        <v>327.49</v>
       </c>
       <c r="E111" t="n">
         <v>335.94</v>
@@ -3655,7 +3655,7 @@
         <v>323.69</v>
       </c>
       <c r="D112" t="n">
-        <v>326.96</v>
+        <v>327.1</v>
       </c>
       <c r="E112" t="n">
         <v>325.69</v>
@@ -3679,7 +3679,7 @@
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="n">
-        <v>327.33</v>
+        <v>327.43</v>
       </c>
       <c r="E113" t="n">
         <v>335.14</v>
@@ -3709,7 +3709,7 @@
         <v>319.9</v>
       </c>
       <c r="D114" t="n">
-        <v>326.21</v>
+        <v>326.33</v>
       </c>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr"/>
@@ -3761,7 +3761,7 @@
         <v>320.81</v>
       </c>
       <c r="D116" t="n">
-        <v>326.61</v>
+        <v>326.73</v>
       </c>
       <c r="E116" t="n">
         <v>328.03</v>
@@ -3811,7 +3811,7 @@
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="n">
-        <v>325.29</v>
+        <v>325.36</v>
       </c>
       <c r="E118" t="n">
         <v>331.62</v>
@@ -3861,7 +3861,7 @@
         <v>303.06</v>
       </c>
       <c r="D120" t="n">
-        <v>295.38</v>
+        <v>295.47</v>
       </c>
       <c r="E120" t="n">
         <v>314.29</v>
@@ -3891,7 +3891,7 @@
         <v>327.53</v>
       </c>
       <c r="D121" t="n">
-        <v>319.69</v>
+        <v>319.64</v>
       </c>
       <c r="E121" t="n">
         <v>336.42</v>
@@ -3921,7 +3921,7 @@
         <v>315.33</v>
       </c>
       <c r="D122" t="n">
-        <v>319</v>
+        <v>318.92</v>
       </c>
       <c r="E122" t="n">
         <v>319.05</v>
@@ -3951,7 +3951,7 @@
         <v>318.63</v>
       </c>
       <c r="D123" t="n">
-        <v>319.61</v>
+        <v>319.68</v>
       </c>
       <c r="E123" t="n">
         <v>319.8</v>
@@ -3977,7 +3977,7 @@
         <v>326.84</v>
       </c>
       <c r="D124" t="n">
-        <v>331.29</v>
+        <v>331.24</v>
       </c>
       <c r="E124" t="n">
         <v>334.18</v>
@@ -4007,7 +4007,7 @@
         <v>315.44</v>
       </c>
       <c r="D125" t="n">
-        <v>318.52</v>
+        <v>318.54</v>
       </c>
       <c r="E125" t="n">
         <v>320.12</v>
@@ -4035,7 +4035,7 @@
         <v>325.88</v>
       </c>
       <c r="D126" t="n">
-        <v>320.26</v>
+        <v>320.08</v>
       </c>
       <c r="E126" t="n">
         <v>322.44</v>
@@ -4065,7 +4065,7 @@
         <v>321.48</v>
       </c>
       <c r="D127" t="n">
-        <v>328.86</v>
+        <v>328.98</v>
       </c>
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr"/>
@@ -4091,7 +4091,7 @@
         <v>324.93</v>
       </c>
       <c r="D128" t="n">
-        <v>328.26</v>
+        <v>328.09</v>
       </c>
       <c r="E128" t="n">
         <v>328.47</v>
@@ -4121,7 +4121,7 @@
         <v>310.18</v>
       </c>
       <c r="D129" t="n">
-        <v>315.15</v>
+        <v>315.14</v>
       </c>
       <c r="E129" t="n">
         <v>313.84</v>
@@ -4149,7 +4149,7 @@
         <v>320.48</v>
       </c>
       <c r="D130" t="n">
-        <v>328.61</v>
+        <v>328.53</v>
       </c>
       <c r="E130" t="n">
         <v>332.46</v>
@@ -4179,7 +4179,7 @@
         <v>324.59</v>
       </c>
       <c r="D131" t="n">
-        <v>332.86</v>
+        <v>332.89</v>
       </c>
       <c r="E131" t="n">
         <v>335.7</v>
@@ -4207,7 +4207,7 @@
         <v>324.88</v>
       </c>
       <c r="D132" t="n">
-        <v>330.35</v>
+        <v>330.25</v>
       </c>
       <c r="E132" t="n">
         <v>335.45</v>
@@ -4237,7 +4237,7 @@
         <v>315.08</v>
       </c>
       <c r="D133" t="n">
-        <v>323.67</v>
+        <v>323.75</v>
       </c>
       <c r="E133" t="n">
         <v>330.48</v>
@@ -4267,7 +4267,7 @@
         <v>309.75</v>
       </c>
       <c r="D134" t="n">
-        <v>320.6</v>
+        <v>320.72</v>
       </c>
       <c r="E134" t="n">
         <v>320.45</v>
@@ -4295,7 +4295,7 @@
         <v>309.78</v>
       </c>
       <c r="D135" t="n">
-        <v>322.15</v>
+        <v>322.23</v>
       </c>
       <c r="E135" t="n">
         <v>325.67</v>
@@ -4325,7 +4325,7 @@
         <v>318.35</v>
       </c>
       <c r="D136" t="n">
-        <v>324.66</v>
+        <v>324.54</v>
       </c>
       <c r="E136" t="n">
         <v>329.23</v>
@@ -4377,7 +4377,7 @@
         <v>318.83</v>
       </c>
       <c r="D138" t="n">
-        <v>325.35</v>
+        <v>325.45</v>
       </c>
       <c r="E138" t="n">
         <v>330.16</v>
@@ -4405,7 +4405,7 @@
         <v>306.53</v>
       </c>
       <c r="D139" t="n">
-        <v>312.25</v>
+        <v>312.19</v>
       </c>
       <c r="E139" t="n">
         <v>319.09</v>
@@ -4433,7 +4433,7 @@
         <v>317.99</v>
       </c>
       <c r="D140" t="n">
-        <v>319.09</v>
+        <v>319.21</v>
       </c>
       <c r="E140" t="n">
         <v>327.72</v>
@@ -4485,7 +4485,7 @@
         <v>322.13</v>
       </c>
       <c r="D142" t="n">
-        <v>319.85</v>
+        <v>319.99</v>
       </c>
       <c r="E142" t="n">
         <v>318.13</v>
@@ -4515,7 +4515,7 @@
         <v>311.16</v>
       </c>
       <c r="D143" t="n">
-        <v>326</v>
+        <v>325.86</v>
       </c>
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr"/>
@@ -4539,7 +4539,7 @@
         <v>312.56</v>
       </c>
       <c r="D144" t="n">
-        <v>323.74</v>
+        <v>323.81</v>
       </c>
       <c r="E144" t="n">
         <v>325</v>
@@ -4569,7 +4569,7 @@
         <v>314.79</v>
       </c>
       <c r="D145" t="n">
-        <v>328.38</v>
+        <v>328.37</v>
       </c>
       <c r="E145" t="n">
         <v>332.25</v>
@@ -4597,7 +4597,7 @@
         <v>336.68</v>
       </c>
       <c r="D146" t="n">
-        <v>337.5</v>
+        <v>337.35</v>
       </c>
       <c r="E146" t="n">
         <v>342.46</v>
@@ -4625,7 +4625,7 @@
         <v>319.82</v>
       </c>
       <c r="D147" t="n">
-        <v>325.58</v>
+        <v>325.67</v>
       </c>
       <c r="E147" t="n">
         <v>332.36</v>
@@ -4655,7 +4655,7 @@
         <v>335.48</v>
       </c>
       <c r="D148" t="n">
-        <v>337.06</v>
+        <v>337.05</v>
       </c>
       <c r="E148" t="n">
         <v>333.74</v>
@@ -4705,7 +4705,7 @@
         <v>334.34</v>
       </c>
       <c r="D150" t="n">
-        <v>332.51</v>
+        <v>332.43</v>
       </c>
       <c r="E150" t="n">
         <v>340.07</v>
@@ -4733,7 +4733,7 @@
         <v>318.18</v>
       </c>
       <c r="D151" t="n">
-        <v>319.92</v>
+        <v>320</v>
       </c>
       <c r="E151" t="n">
         <v>322.61</v>
@@ -4763,7 +4763,7 @@
         <v>325.02</v>
       </c>
       <c r="D152" t="n">
-        <v>330.23</v>
+        <v>330.16</v>
       </c>
       <c r="E152" t="n">
         <v>335.06</v>
@@ -4813,7 +4813,7 @@
         <v>298.87</v>
       </c>
       <c r="D154" t="n">
-        <v>310.09</v>
+        <v>310.24</v>
       </c>
       <c r="E154" t="n">
         <v>319.09</v>
@@ -4915,7 +4915,7 @@
         <v>320.2</v>
       </c>
       <c r="D158" t="n">
-        <v>323.36</v>
+        <v>323.37</v>
       </c>
       <c r="E158" t="inlineStr"/>
       <c r="F158" t="inlineStr"/>
@@ -4941,7 +4941,7 @@
         <v>314.99</v>
       </c>
       <c r="D159" t="n">
-        <v>318.54</v>
+        <v>318.4</v>
       </c>
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr"/>
@@ -4965,7 +4965,7 @@
         <v>317.89</v>
       </c>
       <c r="D160" t="n">
-        <v>320.3</v>
+        <v>320.35</v>
       </c>
       <c r="E160" t="n">
         <v>322.09</v>
@@ -5017,7 +5017,7 @@
         <v>316.81</v>
       </c>
       <c r="D162" t="n">
-        <v>323.76</v>
+        <v>323.92</v>
       </c>
       <c r="E162" t="n">
         <v>328.15</v>
@@ -5047,7 +5047,7 @@
         <v>310.24</v>
       </c>
       <c r="D163" t="n">
-        <v>316.13</v>
+        <v>315.98</v>
       </c>
       <c r="E163" t="n">
         <v>322.93</v>
@@ -5093,7 +5093,7 @@
       <c r="B165" t="inlineStr"/>
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="n">
-        <v>320.41</v>
+        <v>320.45</v>
       </c>
       <c r="E165" t="n">
         <v>321.33</v>
@@ -5143,7 +5143,7 @@
         <v>312.65</v>
       </c>
       <c r="D167" t="n">
-        <v>312.34</v>
+        <v>312.33</v>
       </c>
       <c r="E167" t="n">
         <v>321.26</v>
@@ -5173,7 +5173,7 @@
         <v>319.26</v>
       </c>
       <c r="D168" t="n">
-        <v>321.26</v>
+        <v>321.33</v>
       </c>
       <c r="E168" t="n">
         <v>324.58</v>
@@ -5203,7 +5203,7 @@
         <v>316.51</v>
       </c>
       <c r="D169" t="n">
-        <v>316.1</v>
+        <v>315.97</v>
       </c>
       <c r="E169" t="n">
         <v>326.24</v>
@@ -5231,7 +5231,7 @@
         <v>318.5</v>
       </c>
       <c r="D170" t="n">
-        <v>323.24</v>
+        <v>323.05</v>
       </c>
       <c r="E170" t="n">
         <v>339.32</v>
@@ -5261,7 +5261,7 @@
         <v>311.84</v>
       </c>
       <c r="D171" t="n">
-        <v>314.63</v>
+        <v>314.53</v>
       </c>
       <c r="E171" t="n">
         <v>314.73</v>
@@ -5291,7 +5291,7 @@
         <v>310.5</v>
       </c>
       <c r="D172" t="n">
-        <v>322.23</v>
+        <v>322.31</v>
       </c>
       <c r="E172" t="n">
         <v>320.88</v>
@@ -5321,7 +5321,7 @@
         <v>321</v>
       </c>
       <c r="D173" t="n">
-        <v>325.55</v>
+        <v>325.49</v>
       </c>
       <c r="E173" t="n">
         <v>330.26</v>
@@ -5351,7 +5351,7 @@
         <v>306.34</v>
       </c>
       <c r="D174" t="n">
-        <v>318</v>
+        <v>318.08</v>
       </c>
       <c r="E174" t="n">
         <v>318.17</v>
@@ -5381,7 +5381,7 @@
         <v>301.04</v>
       </c>
       <c r="D175" t="n">
-        <v>310.89</v>
+        <v>310.87</v>
       </c>
       <c r="E175" t="n">
         <v>311.52</v>
@@ -5435,7 +5435,7 @@
         <v>319.52</v>
       </c>
       <c r="D177" t="n">
-        <v>322.62</v>
+        <v>322.77</v>
       </c>
       <c r="E177" t="n">
         <v>321.9</v>
@@ -5485,7 +5485,7 @@
         <v>315.81</v>
       </c>
       <c r="D179" t="n">
-        <v>323.16</v>
+        <v>323.29</v>
       </c>
       <c r="E179" t="n">
         <v>322.51</v>
@@ -5511,7 +5511,7 @@
       <c r="B180" t="inlineStr"/>
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="n">
-        <v>334.04</v>
+        <v>333.85</v>
       </c>
       <c r="E180" t="n">
         <v>336.79</v>
@@ -5541,7 +5541,7 @@
         <v>325.33</v>
       </c>
       <c r="D181" t="n">
-        <v>332.7</v>
+        <v>332.56</v>
       </c>
       <c r="E181" t="n">
         <v>336.9</v>
@@ -5571,7 +5571,7 @@
         <v>330.78</v>
       </c>
       <c r="D182" t="n">
-        <v>314.41</v>
+        <v>314.25</v>
       </c>
       <c r="E182" t="n">
         <v>304.36</v>
@@ -5599,7 +5599,7 @@
         <v>317.25</v>
       </c>
       <c r="D183" t="n">
-        <v>320.96</v>
+        <v>321</v>
       </c>
       <c r="E183" t="inlineStr"/>
       <c r="F183" t="inlineStr"/>
@@ -5623,7 +5623,7 @@
         <v>323.45</v>
       </c>
       <c r="D184" t="n">
-        <v>325.14</v>
+        <v>325.15</v>
       </c>
       <c r="E184" t="n">
         <v>327.65</v>
@@ -5653,7 +5653,7 @@
         <v>310.33</v>
       </c>
       <c r="D185" t="n">
-        <v>319.07</v>
+        <v>319.01</v>
       </c>
       <c r="E185" t="n">
         <v>318.08</v>
@@ -5683,7 +5683,7 @@
         <v>315.22</v>
       </c>
       <c r="D186" t="n">
-        <v>315.88</v>
+        <v>316.02</v>
       </c>
       <c r="E186" t="n">
         <v>318.99</v>
@@ -5713,7 +5713,7 @@
         <v>313.69</v>
       </c>
       <c r="D187" t="n">
-        <v>317.84</v>
+        <v>317.89</v>
       </c>
       <c r="E187" t="n">
         <v>320.01</v>
@@ -5743,7 +5743,7 @@
         <v>324.81</v>
       </c>
       <c r="D188" t="n">
-        <v>334.73</v>
+        <v>334.83</v>
       </c>
       <c r="E188" t="n">
         <v>337.96</v>
@@ -5773,7 +5773,7 @@
         <v>321.59</v>
       </c>
       <c r="D189" t="n">
-        <v>323.45</v>
+        <v>323.59</v>
       </c>
       <c r="E189" t="n">
         <v>325.56</v>
@@ -5803,7 +5803,7 @@
         <v>326.21</v>
       </c>
       <c r="D190" t="n">
-        <v>322.57</v>
+        <v>322.63</v>
       </c>
       <c r="E190" t="n">
         <v>327.57</v>
@@ -5833,7 +5833,7 @@
         <v>319.6</v>
       </c>
       <c r="D191" t="n">
-        <v>329.9</v>
+        <v>329.84</v>
       </c>
       <c r="E191" t="n">
         <v>324.04</v>
@@ -5863,7 +5863,7 @@
         <v>314.76</v>
       </c>
       <c r="D192" t="n">
-        <v>321.05</v>
+        <v>321.08</v>
       </c>
       <c r="E192" t="n">
         <v>321.86</v>
@@ -5891,7 +5891,7 @@
         <v>330.4</v>
       </c>
       <c r="D193" t="n">
-        <v>330.5</v>
+        <v>330.4</v>
       </c>
       <c r="E193" t="n">
         <v>334.9</v>
@@ -5947,7 +5947,7 @@
         <v>320.67</v>
       </c>
       <c r="D195" t="n">
-        <v>324.64</v>
+        <v>324.45</v>
       </c>
       <c r="E195" t="n">
         <v>334.3</v>
@@ -5973,7 +5973,7 @@
         <v>314.19</v>
       </c>
       <c r="D196" t="n">
-        <v>315.96</v>
+        <v>316.09</v>
       </c>
       <c r="E196" t="n">
         <v>323.77</v>
@@ -6003,7 +6003,7 @@
         <v>313.05</v>
       </c>
       <c r="D197" t="n">
-        <v>324.63</v>
+        <v>324.47</v>
       </c>
       <c r="E197" t="n">
         <v>329.28</v>
@@ -6033,7 +6033,7 @@
         <v>314.2</v>
       </c>
       <c r="D198" t="n">
-        <v>314.07</v>
+        <v>314.02</v>
       </c>
       <c r="E198" t="n">
         <v>318.9</v>
@@ -6063,7 +6063,7 @@
         <v>314.48</v>
       </c>
       <c r="D199" t="n">
-        <v>314.4</v>
+        <v>314.41</v>
       </c>
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="inlineStr"/>
@@ -6089,7 +6089,7 @@
         <v>313.64</v>
       </c>
       <c r="D200" t="n">
-        <v>317.84</v>
+        <v>317.91</v>
       </c>
       <c r="E200" t="n">
         <v>321.09</v>
@@ -6119,7 +6119,7 @@
         <v>320.63</v>
       </c>
       <c r="D201" t="n">
-        <v>319.14</v>
+        <v>319.25</v>
       </c>
       <c r="E201" t="n">
         <v>329.82</v>
@@ -6169,7 +6169,7 @@
         <v>326.1</v>
       </c>
       <c r="D203" t="n">
-        <v>328.47</v>
+        <v>328.23</v>
       </c>
       <c r="E203" t="n">
         <v>333.93</v>
@@ -6199,7 +6199,7 @@
         <v>316.46</v>
       </c>
       <c r="D204" t="n">
-        <v>320.48</v>
+        <v>320.6</v>
       </c>
       <c r="E204" t="n">
         <v>329.24</v>
@@ -6253,7 +6253,7 @@
         <v>312.57</v>
       </c>
       <c r="D206" t="n">
-        <v>334.25</v>
+        <v>334.11</v>
       </c>
       <c r="E206" t="n">
         <v>338.97</v>
@@ -6283,7 +6283,7 @@
         <v>312.75</v>
       </c>
       <c r="D207" t="n">
-        <v>328.64</v>
+        <v>328.81</v>
       </c>
       <c r="E207" t="n">
         <v>326.69</v>
@@ -6313,7 +6313,7 @@
         <v>323.32</v>
       </c>
       <c r="D208" t="n">
-        <v>331.11</v>
+        <v>330.93</v>
       </c>
       <c r="E208" t="n">
         <v>335.27</v>
@@ -6343,7 +6343,7 @@
         <v>315.56</v>
       </c>
       <c r="D209" t="n">
-        <v>317.17</v>
+        <v>317.25</v>
       </c>
       <c r="E209" t="n">
         <v>320.82</v>
@@ -6373,7 +6373,7 @@
         <v>318.58</v>
       </c>
       <c r="D210" t="n">
-        <v>326.04</v>
+        <v>326</v>
       </c>
       <c r="E210" t="n">
         <v>335.88</v>
@@ -6403,7 +6403,7 @@
         <v>321.01</v>
       </c>
       <c r="D211" t="n">
-        <v>325.78</v>
+        <v>325.72</v>
       </c>
       <c r="E211" t="n">
         <v>331.98</v>
@@ -6433,7 +6433,7 @@
         <v>314.29</v>
       </c>
       <c r="D212" t="n">
-        <v>324.42</v>
+        <v>324.38</v>
       </c>
       <c r="E212" t="n">
         <v>326.31</v>
@@ -6463,7 +6463,7 @@
         <v>303.05</v>
       </c>
       <c r="D213" t="n">
-        <v>313.75</v>
+        <v>313.82</v>
       </c>
       <c r="E213" t="n">
         <v>316.02</v>
@@ -6493,7 +6493,7 @@
         <v>329.87</v>
       </c>
       <c r="D214" t="n">
-        <v>336.78</v>
+        <v>336.61</v>
       </c>
       <c r="E214" t="n">
         <v>340.62</v>
@@ -6543,7 +6543,7 @@
         <v>296.31</v>
       </c>
       <c r="D216" t="n">
-        <v>301.01</v>
+        <v>300.86</v>
       </c>
       <c r="E216" t="n">
         <v>304</v>
@@ -6573,7 +6573,7 @@
         <v>316.46</v>
       </c>
       <c r="D217" t="n">
-        <v>325.51</v>
+        <v>325.66</v>
       </c>
       <c r="E217" t="n">
         <v>322.54</v>
@@ -6603,7 +6603,7 @@
         <v>329.92</v>
       </c>
       <c r="D218" t="n">
-        <v>326.46</v>
+        <v>326.4</v>
       </c>
       <c r="E218" t="n">
         <v>331.18</v>
@@ -6633,7 +6633,7 @@
         <v>322.39</v>
       </c>
       <c r="D219" t="n">
-        <v>324.01</v>
+        <v>324.03</v>
       </c>
       <c r="E219" t="n">
         <v>326.38</v>
@@ -6663,7 +6663,7 @@
         <v>317.31</v>
       </c>
       <c r="D220" t="n">
-        <v>320.4</v>
+        <v>320.32</v>
       </c>
       <c r="E220" t="n">
         <v>323.13</v>
@@ -6693,7 +6693,7 @@
         <v>314.09</v>
       </c>
       <c r="D221" t="n">
-        <v>321.2</v>
+        <v>321.25</v>
       </c>
       <c r="E221" t="n">
         <v>324.79</v>
@@ -6723,7 +6723,7 @@
         <v>326.1</v>
       </c>
       <c r="D222" t="n">
-        <v>336.8</v>
+        <v>336.56</v>
       </c>
       <c r="E222" t="n">
         <v>340.87</v>
@@ -6753,7 +6753,7 @@
         <v>316.36</v>
       </c>
       <c r="D223" t="n">
-        <v>322.99</v>
+        <v>323.13</v>
       </c>
       <c r="E223" t="n">
         <v>326.57</v>
@@ -6783,7 +6783,7 @@
         <v>320.96</v>
       </c>
       <c r="D224" t="n">
-        <v>321.51</v>
+        <v>321.64</v>
       </c>
       <c r="E224" t="n">
         <v>325.49</v>
@@ -6811,7 +6811,7 @@
         <v>326.65</v>
       </c>
       <c r="D225" t="n">
-        <v>323.1</v>
+        <v>323.09</v>
       </c>
       <c r="E225" t="n">
         <v>328.63</v>
@@ -6841,7 +6841,7 @@
         <v>304.47</v>
       </c>
       <c r="D226" t="n">
-        <v>314.75</v>
+        <v>314.8</v>
       </c>
       <c r="E226" t="n">
         <v>317.19</v>
@@ -6871,7 +6871,7 @@
         <v>313</v>
       </c>
       <c r="D227" t="n">
-        <v>317.89</v>
+        <v>317.98</v>
       </c>
       <c r="E227" t="n">
         <v>321.86</v>
@@ -6901,7 +6901,7 @@
         <v>313.53</v>
       </c>
       <c r="D228" t="n">
-        <v>318.89</v>
+        <v>318.83</v>
       </c>
       <c r="E228" t="n">
         <v>321.66</v>
@@ -6931,7 +6931,7 @@
         <v>319.83</v>
       </c>
       <c r="D229" t="n">
-        <v>327.63</v>
+        <v>327.51</v>
       </c>
       <c r="E229" t="inlineStr"/>
       <c r="F229" t="inlineStr"/>
@@ -6955,7 +6955,7 @@
         <v>314.24</v>
       </c>
       <c r="D230" t="n">
-        <v>319.84</v>
+        <v>319.87</v>
       </c>
       <c r="E230" t="n">
         <v>322.24</v>
@@ -6983,7 +6983,7 @@
         <v>315.54</v>
       </c>
       <c r="D231" t="n">
-        <v>317.93</v>
+        <v>317.72</v>
       </c>
       <c r="E231" t="n">
         <v>324.11</v>
@@ -7013,7 +7013,7 @@
         <v>325.43</v>
       </c>
       <c r="D232" t="n">
-        <v>321.28</v>
+        <v>321.43</v>
       </c>
       <c r="E232" t="n">
         <v>326.11</v>
@@ -7043,7 +7043,7 @@
         <v>317.16</v>
       </c>
       <c r="D233" t="n">
-        <v>313.25</v>
+        <v>313.14</v>
       </c>
       <c r="E233" t="n">
         <v>316.19</v>
@@ -7073,7 +7073,7 @@
         <v>320.68</v>
       </c>
       <c r="D234" t="n">
-        <v>319.6</v>
+        <v>319.67</v>
       </c>
       <c r="E234" t="n">
         <v>324.22</v>
@@ -7125,7 +7125,7 @@
         <v>323.4</v>
       </c>
       <c r="D236" t="n">
-        <v>322.81</v>
+        <v>322.73</v>
       </c>
       <c r="E236" t="n">
         <v>319.97</v>
@@ -7177,7 +7177,7 @@
         <v>322.44</v>
       </c>
       <c r="D238" t="n">
-        <v>320.27</v>
+        <v>320.31</v>
       </c>
       <c r="E238" t="n">
         <v>322.07</v>
@@ -7227,7 +7227,7 @@
         <v>320.95</v>
       </c>
       <c r="D240" t="n">
-        <v>315.44</v>
+        <v>315.38</v>
       </c>
       <c r="E240" t="n">
         <v>319.89</v>
@@ -7257,7 +7257,7 @@
         <v>302.92</v>
       </c>
       <c r="D241" t="n">
-        <v>310.9</v>
+        <v>310.96</v>
       </c>
       <c r="E241" t="n">
         <v>313.39</v>
@@ -7287,7 +7287,7 @@
         <v>322.45</v>
       </c>
       <c r="D242" t="n">
-        <v>320.75</v>
+        <v>320.83</v>
       </c>
       <c r="E242" t="n">
         <v>321.11</v>
@@ -7317,7 +7317,7 @@
         <v>327.24</v>
       </c>
       <c r="D243" t="n">
-        <v>323.71</v>
+        <v>323.82</v>
       </c>
       <c r="E243" t="n">
         <v>328.98</v>
@@ -7343,7 +7343,7 @@
         <v>306.89</v>
       </c>
       <c r="D244" t="n">
-        <v>320.59</v>
+        <v>320.72</v>
       </c>
       <c r="E244" t="n">
         <v>319.44</v>
@@ -7373,7 +7373,7 @@
         <v>321.55</v>
       </c>
       <c r="D245" t="n">
-        <v>320.56</v>
+        <v>320.62</v>
       </c>
       <c r="E245" t="n">
         <v>323.37</v>
@@ -7433,7 +7433,7 @@
         <v>322.68</v>
       </c>
       <c r="D247" t="n">
-        <v>322.45</v>
+        <v>322.52</v>
       </c>
       <c r="E247" t="n">
         <v>329.14</v>
@@ -7463,7 +7463,7 @@
         <v>324</v>
       </c>
       <c r="D248" t="n">
-        <v>329.68</v>
+        <v>329.63</v>
       </c>
       <c r="E248" t="n">
         <v>335.01</v>
@@ -7493,7 +7493,7 @@
         <v>309.52</v>
       </c>
       <c r="D249" t="n">
-        <v>312.21</v>
+        <v>312.15</v>
       </c>
       <c r="E249" t="n">
         <v>316</v>
@@ -7523,7 +7523,7 @@
         <v>322.11</v>
       </c>
       <c r="D250" t="n">
-        <v>320.04</v>
+        <v>319.92</v>
       </c>
       <c r="E250" t="n">
         <v>321.64</v>
@@ -7553,7 +7553,7 @@
         <v>318.13</v>
       </c>
       <c r="D251" t="n">
-        <v>316.46</v>
+        <v>316.59</v>
       </c>
       <c r="E251" t="n">
         <v>321.77</v>
@@ -7583,7 +7583,7 @@
         <v>326.41</v>
       </c>
       <c r="D252" t="n">
-        <v>327.9</v>
+        <v>327.73</v>
       </c>
       <c r="E252" t="n">
         <v>329.81</v>
@@ -7613,7 +7613,7 @@
         <v>308.01</v>
       </c>
       <c r="D253" t="n">
-        <v>312.14</v>
+        <v>312.28</v>
       </c>
       <c r="E253" t="n">
         <v>318.48</v>
@@ -7643,7 +7643,7 @@
         <v>322.09</v>
       </c>
       <c r="D254" t="n">
-        <v>319.17</v>
+        <v>319.22</v>
       </c>
       <c r="E254" t="n">
         <v>324.06</v>
@@ -7673,7 +7673,7 @@
         <v>328.89</v>
       </c>
       <c r="D255" t="n">
-        <v>331.75</v>
+        <v>331.67</v>
       </c>
       <c r="E255" t="n">
         <v>335.34</v>
@@ -7703,7 +7703,7 @@
         <v>323.39</v>
       </c>
       <c r="D256" t="n">
-        <v>322.04</v>
+        <v>321.98</v>
       </c>
       <c r="E256" t="n">
         <v>330.32</v>
@@ -7733,7 +7733,7 @@
         <v>334.68</v>
       </c>
       <c r="D257" t="n">
-        <v>332.52</v>
+        <v>332.64</v>
       </c>
       <c r="E257" t="n">
         <v>337.57</v>
@@ -7763,7 +7763,7 @@
         <v>315.31</v>
       </c>
       <c r="D258" t="n">
-        <v>319.14</v>
+        <v>319.21</v>
       </c>
       <c r="E258" t="n">
         <v>321.28</v>
@@ -7793,7 +7793,7 @@
         <v>327.73</v>
       </c>
       <c r="D259" t="n">
-        <v>328.06</v>
+        <v>327.88</v>
       </c>
       <c r="E259" t="n">
         <v>331.39</v>
@@ -7823,7 +7823,7 @@
         <v>319.08</v>
       </c>
       <c r="D260" t="n">
-        <v>327.53</v>
+        <v>327.68</v>
       </c>
       <c r="E260" t="n">
         <v>333.02</v>
@@ -7853,7 +7853,7 @@
         <v>316.89</v>
       </c>
       <c r="D261" t="n">
-        <v>326.5</v>
+        <v>326.62</v>
       </c>
       <c r="E261" t="n">
         <v>328.61</v>
@@ -7905,7 +7905,7 @@
         <v>317.94</v>
       </c>
       <c r="D263" t="n">
-        <v>320.99</v>
+        <v>321.03</v>
       </c>
       <c r="E263" t="n">
         <v>324.11</v>
@@ -7935,7 +7935,7 @@
         <v>324.31</v>
       </c>
       <c r="D264" t="n">
-        <v>322.12</v>
+        <v>322.1</v>
       </c>
       <c r="E264" t="inlineStr"/>
       <c r="F264" t="inlineStr"/>
@@ -7961,7 +7961,7 @@
         <v>317.57</v>
       </c>
       <c r="D265" t="n">
-        <v>317.66</v>
+        <v>317.77</v>
       </c>
       <c r="E265" t="n">
         <v>321.93</v>
@@ -7991,7 +7991,7 @@
         <v>316.55</v>
       </c>
       <c r="D266" t="n">
-        <v>318.41</v>
+        <v>318.33</v>
       </c>
       <c r="E266" t="n">
         <v>325.47</v>
@@ -8021,7 +8021,7 @@
         <v>319.83</v>
       </c>
       <c r="D267" t="n">
-        <v>318.96</v>
+        <v>318.78</v>
       </c>
       <c r="E267" t="n">
         <v>324</v>
@@ -8049,7 +8049,7 @@
         <v>321.22</v>
       </c>
       <c r="D268" t="n">
-        <v>328.56</v>
+        <v>328.35</v>
       </c>
       <c r="E268" t="n">
         <v>344.16</v>
@@ -8103,7 +8103,7 @@
         <v>328.97</v>
       </c>
       <c r="D270" t="n">
-        <v>328.28</v>
+        <v>328.45</v>
       </c>
       <c r="E270" t="n">
         <v>328.23</v>
@@ -8133,7 +8133,7 @@
         <v>323.12</v>
       </c>
       <c r="D271" t="n">
-        <v>318.69</v>
+        <v>318.85</v>
       </c>
       <c r="E271" t="n">
         <v>326.11</v>
@@ -8163,7 +8163,7 @@
         <v>324.22</v>
       </c>
       <c r="D272" t="n">
-        <v>318.83</v>
+        <v>318.66</v>
       </c>
       <c r="E272" t="n">
         <v>325.11</v>
@@ -8191,7 +8191,7 @@
         <v>322.47</v>
       </c>
       <c r="D273" t="n">
-        <v>312.17</v>
+        <v>312.26</v>
       </c>
       <c r="E273" t="n">
         <v>312.51</v>
@@ -8221,7 +8221,7 @@
         <v>316.85</v>
       </c>
       <c r="D274" t="n">
-        <v>322.74</v>
+        <v>322.59</v>
       </c>
       <c r="E274" t="n">
         <v>325.79</v>
@@ -8251,7 +8251,7 @@
         <v>319.21</v>
       </c>
       <c r="D275" t="n">
-        <v>321.47</v>
+        <v>321.53</v>
       </c>
       <c r="E275" t="n">
         <v>325.37</v>
@@ -8277,7 +8277,7 @@
         <v>316.69</v>
       </c>
       <c r="D276" t="n">
-        <v>317.12</v>
+        <v>317.17</v>
       </c>
       <c r="E276" t="n">
         <v>320.83</v>
@@ -8331,7 +8331,7 @@
         <v>320.29</v>
       </c>
       <c r="D278" t="n">
-        <v>316.42</v>
+        <v>316.34</v>
       </c>
       <c r="E278" t="n">
         <v>326.03</v>
@@ -8361,7 +8361,7 @@
         <v>318.37</v>
       </c>
       <c r="D279" t="n">
-        <v>325.01</v>
+        <v>324.84</v>
       </c>
       <c r="E279" t="n">
         <v>328.32</v>
@@ -8391,7 +8391,7 @@
         <v>309.03</v>
       </c>
       <c r="D280" t="n">
-        <v>315.22</v>
+        <v>315.32</v>
       </c>
       <c r="E280" t="n">
         <v>316.81</v>
@@ -8421,7 +8421,7 @@
         <v>306.55</v>
       </c>
       <c r="D281" t="n">
-        <v>316.11</v>
+        <v>316.23</v>
       </c>
       <c r="E281" t="n">
         <v>318.95</v>
@@ -8447,7 +8447,7 @@
         <v>324.91</v>
       </c>
       <c r="D282" t="n">
-        <v>323.65</v>
+        <v>323.48</v>
       </c>
       <c r="E282" t="n">
         <v>328.59</v>
@@ -8523,7 +8523,7 @@
         <v>319.31</v>
       </c>
       <c r="D285" t="n">
-        <v>321.89</v>
+        <v>321.83</v>
       </c>
       <c r="E285" t="n">
         <v>321.97</v>
@@ -8553,7 +8553,7 @@
         <v>306.35</v>
       </c>
       <c r="D286" t="n">
-        <v>318.06</v>
+        <v>318.14</v>
       </c>
       <c r="E286" t="n">
         <v>323.12</v>
@@ -8581,7 +8581,7 @@
         <v>311.58</v>
       </c>
       <c r="D287" t="n">
-        <v>311.76</v>
+        <v>311.68</v>
       </c>
       <c r="E287" t="n">
         <v>318.17</v>
@@ -8611,7 +8611,7 @@
         <v>337.51</v>
       </c>
       <c r="D288" t="n">
-        <v>338.79</v>
+        <v>338.57</v>
       </c>
       <c r="E288" t="n">
         <v>340.12</v>
@@ -8637,7 +8637,7 @@
         <v>306.09</v>
       </c>
       <c r="D289" t="n">
-        <v>317.56</v>
+        <v>317.42</v>
       </c>
       <c r="E289" t="n">
         <v>328.25</v>
@@ -8667,7 +8667,7 @@
         <v>320.92</v>
       </c>
       <c r="D290" t="n">
-        <v>325.79</v>
+        <v>325.62</v>
       </c>
       <c r="E290" t="n">
         <v>327.54</v>
@@ -8717,7 +8717,7 @@
         <v>312.75</v>
       </c>
       <c r="D292" t="n">
-        <v>320.29</v>
+        <v>320.16</v>
       </c>
       <c r="E292" t="n">
         <v>326.15</v>
@@ -8747,7 +8747,7 @@
         <v>320.7</v>
       </c>
       <c r="D293" t="n">
-        <v>326.69</v>
+        <v>326.63</v>
       </c>
       <c r="E293" t="n">
         <v>334.57</v>
@@ -8829,7 +8829,7 @@
         <v>321.97</v>
       </c>
       <c r="D296" t="n">
-        <v>325.48</v>
+        <v>325.31</v>
       </c>
       <c r="E296" t="n">
         <v>327.83</v>
@@ -8857,7 +8857,7 @@
         <v>309.56</v>
       </c>
       <c r="D297" t="n">
-        <v>317.83</v>
+        <v>317.93</v>
       </c>
       <c r="E297" t="n">
         <v>320.51</v>
@@ -8887,7 +8887,7 @@
         <v>321.68</v>
       </c>
       <c r="D298" t="n">
-        <v>323.91</v>
+        <v>324.01</v>
       </c>
       <c r="E298" t="n">
         <v>331.89</v>
@@ -8917,7 +8917,7 @@
         <v>319.55</v>
       </c>
       <c r="D299" t="n">
-        <v>323.06</v>
+        <v>323.1</v>
       </c>
       <c r="E299" t="n">
         <v>328.19</v>
@@ -8947,7 +8947,7 @@
         <v>320.79</v>
       </c>
       <c r="D300" t="n">
-        <v>320.92</v>
+        <v>320.9</v>
       </c>
       <c r="E300" t="n">
         <v>330.83</v>
@@ -9001,7 +9001,7 @@
         <v>319.43</v>
       </c>
       <c r="D302" t="n">
-        <v>322.82</v>
+        <v>322.88</v>
       </c>
       <c r="E302" t="n">
         <v>323.99</v>
@@ -9051,7 +9051,7 @@
         <v>317.96</v>
       </c>
       <c r="D304" t="n">
-        <v>318.26</v>
+        <v>318.17</v>
       </c>
       <c r="E304" t="n">
         <v>326.09</v>
@@ -9081,7 +9081,7 @@
         <v>317.43</v>
       </c>
       <c r="D305" t="n">
-        <v>322.28</v>
+        <v>322.15</v>
       </c>
       <c r="E305" t="n">
         <v>331.21</v>
@@ -9111,7 +9111,7 @@
         <v>307.62</v>
       </c>
       <c r="D306" t="n">
-        <v>312.9</v>
+        <v>312.93</v>
       </c>
       <c r="E306" t="n">
         <v>315.74</v>
@@ -9139,7 +9139,7 @@
         <v>303.55</v>
       </c>
       <c r="D307" t="n">
-        <v>315.98</v>
+        <v>315.81</v>
       </c>
       <c r="E307" t="n">
         <v>319.19</v>
@@ -9167,7 +9167,7 @@
       </c>
       <c r="C308" t="inlineStr"/>
       <c r="D308" t="n">
-        <v>312.45</v>
+        <v>312.23</v>
       </c>
       <c r="E308" t="n">
         <v>325.76</v>
@@ -9197,7 +9197,7 @@
         <v>316.62</v>
       </c>
       <c r="D309" t="n">
-        <v>318.53</v>
+        <v>318.65</v>
       </c>
       <c r="E309" t="n">
         <v>321.35</v>
@@ -9227,7 +9227,7 @@
         <v>317.89</v>
       </c>
       <c r="D310" t="n">
-        <v>316.7</v>
+        <v>316.56</v>
       </c>
       <c r="E310" t="n">
         <v>320.89</v>
@@ -9279,7 +9279,7 @@
         <v>308.95</v>
       </c>
       <c r="D312" t="n">
-        <v>317.13</v>
+        <v>317.21</v>
       </c>
       <c r="E312" t="n">
         <v>324.28</v>
@@ -9309,7 +9309,7 @@
         <v>316.31</v>
       </c>
       <c r="D313" t="n">
-        <v>319.35</v>
+        <v>319.38</v>
       </c>
       <c r="E313" t="n">
         <v>324.78</v>
@@ -9339,7 +9339,7 @@
         <v>314.06</v>
       </c>
       <c r="D314" t="n">
-        <v>317.84</v>
+        <v>317.76</v>
       </c>
       <c r="E314" t="inlineStr"/>
       <c r="F314" t="inlineStr"/>
@@ -9395,7 +9395,7 @@
         <v>321.55</v>
       </c>
       <c r="D316" t="n">
-        <v>326.4</v>
+        <v>326.52</v>
       </c>
       <c r="E316" t="n">
         <v>324.91</v>
@@ -9423,7 +9423,7 @@
         <v>325.53</v>
       </c>
       <c r="D317" t="n">
-        <v>327.13</v>
+        <v>326.97</v>
       </c>
       <c r="E317" t="n">
         <v>330.01</v>
@@ -9453,7 +9453,7 @@
         <v>322.14</v>
       </c>
       <c r="D318" t="n">
-        <v>331.5</v>
+        <v>331.63</v>
       </c>
       <c r="E318" t="n">
         <v>331.96</v>
@@ -9483,7 +9483,7 @@
         <v>320.98</v>
       </c>
       <c r="D319" t="n">
-        <v>320.28</v>
+        <v>320.2</v>
       </c>
       <c r="E319" t="n">
         <v>326.71</v>
@@ -9513,7 +9513,7 @@
         <v>330.34</v>
       </c>
       <c r="D320" t="n">
-        <v>326.37</v>
+        <v>326.43</v>
       </c>
       <c r="E320" t="n">
         <v>334.4</v>
@@ -9543,7 +9543,7 @@
         <v>331.94</v>
       </c>
       <c r="D321" t="n">
-        <v>336.13</v>
+        <v>336.1</v>
       </c>
       <c r="E321" t="n">
         <v>343.65</v>
@@ -9569,7 +9569,7 @@
         <v>327.46</v>
       </c>
       <c r="D322" t="n">
-        <v>327.15</v>
+        <v>327.05</v>
       </c>
       <c r="E322" t="n">
         <v>327.27</v>
@@ -9599,7 +9599,7 @@
         <v>320.42</v>
       </c>
       <c r="D323" t="n">
-        <v>317.9</v>
+        <v>317.75</v>
       </c>
       <c r="E323" t="n">
         <v>318.9</v>
@@ -9629,7 +9629,7 @@
         <v>318.04</v>
       </c>
       <c r="D324" t="n">
-        <v>322.3</v>
+        <v>322.44</v>
       </c>
       <c r="E324" t="n">
         <v>323.41</v>
@@ -9659,7 +9659,7 @@
         <v>313.93</v>
       </c>
       <c r="D325" t="n">
-        <v>319.79</v>
+        <v>319.73</v>
       </c>
       <c r="E325" t="n">
         <v>327.5</v>
@@ -9719,7 +9719,7 @@
         <v>306.17</v>
       </c>
       <c r="D327" t="n">
-        <v>313.98</v>
+        <v>314</v>
       </c>
       <c r="E327" t="n">
         <v>315.25</v>
@@ -9749,7 +9749,7 @@
         <v>316.87</v>
       </c>
       <c r="D328" t="n">
-        <v>320.04</v>
+        <v>319.84</v>
       </c>
       <c r="E328" t="n">
         <v>325.92</v>
@@ -9779,7 +9779,7 @@
         <v>305.24</v>
       </c>
       <c r="D329" t="n">
-        <v>314.36</v>
+        <v>314.17</v>
       </c>
       <c r="E329" t="n">
         <v>315.94</v>
@@ -9833,7 +9833,7 @@
         <v>325.67</v>
       </c>
       <c r="D331" t="n">
-        <v>326.88</v>
+        <v>326.71</v>
       </c>
       <c r="E331" t="n">
         <v>334.89</v>
@@ -9863,7 +9863,7 @@
         <v>303.31</v>
       </c>
       <c r="D332" t="n">
-        <v>319.09</v>
+        <v>319.19</v>
       </c>
       <c r="E332" t="n">
         <v>320.62</v>
@@ -9893,7 +9893,7 @@
         <v>312.1</v>
       </c>
       <c r="D333" t="n">
-        <v>315.26</v>
+        <v>315.16</v>
       </c>
       <c r="E333" t="n">
         <v>321.42</v>
@@ -9923,7 +9923,7 @@
         <v>308.12</v>
       </c>
       <c r="D334" t="n">
-        <v>320.01</v>
+        <v>320.06</v>
       </c>
       <c r="E334" t="n">
         <v>320.57</v>
@@ -9997,7 +9997,7 @@
         <v>309.81</v>
       </c>
       <c r="D337" t="n">
-        <v>310.99</v>
+        <v>311.04</v>
       </c>
       <c r="E337" t="n">
         <v>317.11</v>
@@ -10025,7 +10025,7 @@
         <v>350.9</v>
       </c>
       <c r="D338" t="n">
-        <v>344.29</v>
+        <v>344.19</v>
       </c>
       <c r="E338" t="inlineStr"/>
       <c r="F338" t="inlineStr"/>
@@ -10049,7 +10049,7 @@
         <v>315.22</v>
       </c>
       <c r="D339" t="n">
-        <v>311.24</v>
+        <v>311.1</v>
       </c>
       <c r="E339" t="n">
         <v>336.72</v>
@@ -10079,7 +10079,7 @@
         <v>317.13</v>
       </c>
       <c r="D340" t="n">
-        <v>320.62</v>
+        <v>320.45</v>
       </c>
       <c r="E340" t="n">
         <v>332.61</v>
@@ -10109,7 +10109,7 @@
         <v>324.31</v>
       </c>
       <c r="D341" t="n">
-        <v>325.69</v>
+        <v>325.46</v>
       </c>
       <c r="E341" t="n">
         <v>344.04</v>
@@ -10139,7 +10139,7 @@
         <v>317.32</v>
       </c>
       <c r="D342" t="n">
-        <v>319.17</v>
+        <v>319.3</v>
       </c>
       <c r="E342" t="n">
         <v>322.71</v>
@@ -10169,7 +10169,7 @@
         <v>319.75</v>
       </c>
       <c r="D343" t="n">
-        <v>324.62</v>
+        <v>324.48</v>
       </c>
       <c r="E343" t="inlineStr"/>
       <c r="F343" t="inlineStr"/>
@@ -10195,7 +10195,7 @@
         <v>306.72</v>
       </c>
       <c r="D344" t="n">
-        <v>319.69</v>
+        <v>319.49</v>
       </c>
       <c r="E344" t="n">
         <v>322.99</v>
@@ -10225,7 +10225,7 @@
         <v>314.03</v>
       </c>
       <c r="D345" t="n">
-        <v>317.92</v>
+        <v>317.82</v>
       </c>
       <c r="E345" t="n">
         <v>321.17</v>
@@ -10253,7 +10253,7 @@
         <v>311.75</v>
       </c>
       <c r="D346" t="n">
-        <v>312.81</v>
+        <v>312.7</v>
       </c>
       <c r="E346" t="n">
         <v>314.38</v>
@@ -10283,7 +10283,7 @@
         <v>316.34</v>
       </c>
       <c r="D347" t="n">
-        <v>322.43</v>
+        <v>322.45</v>
       </c>
       <c r="E347" t="n">
         <v>326.41</v>
@@ -10337,7 +10337,7 @@
         <v>316.54</v>
       </c>
       <c r="D349" t="n">
-        <v>331.3</v>
+        <v>331.44</v>
       </c>
       <c r="E349" t="n">
         <v>331.8</v>
@@ -10367,7 +10367,7 @@
         <v>302.64</v>
       </c>
       <c r="D350" t="n">
-        <v>311.44</v>
+        <v>311.63</v>
       </c>
       <c r="E350" t="n">
         <v>313.32</v>
@@ -10397,7 +10397,7 @@
         <v>322.69</v>
       </c>
       <c r="D351" t="n">
-        <v>328.45</v>
+        <v>328.35</v>
       </c>
       <c r="E351" t="n">
         <v>326.04</v>
@@ -10427,7 +10427,7 @@
         <v>304.08</v>
       </c>
       <c r="D352" t="n">
-        <v>309.59</v>
+        <v>309.64</v>
       </c>
       <c r="E352" t="n">
         <v>316.06</v>
@@ -10457,7 +10457,7 @@
         <v>309.36</v>
       </c>
       <c r="D353" t="n">
-        <v>315.08</v>
+        <v>314.97</v>
       </c>
       <c r="E353" t="n">
         <v>316.25</v>
@@ -10487,7 +10487,7 @@
         <v>316.16</v>
       </c>
       <c r="D354" t="n">
-        <v>321.67</v>
+        <v>321.5</v>
       </c>
       <c r="E354" t="n">
         <v>324.87</v>
@@ -10517,7 +10517,7 @@
         <v>323.49</v>
       </c>
       <c r="D355" t="n">
-        <v>325.92</v>
+        <v>325.7</v>
       </c>
       <c r="E355" t="n">
         <v>334.87</v>
@@ -10567,7 +10567,7 @@
         <v>323.02</v>
       </c>
       <c r="D357" t="n">
-        <v>327.73</v>
+        <v>327.58</v>
       </c>
       <c r="E357" t="n">
         <v>334.36</v>
@@ -10597,7 +10597,7 @@
         <v>284.84</v>
       </c>
       <c r="D358" t="n">
-        <v>301.07</v>
+        <v>301.19</v>
       </c>
       <c r="E358" t="n">
         <v>304.22</v>
@@ -10627,7 +10627,7 @@
         <v>325.63</v>
       </c>
       <c r="D359" t="n">
-        <v>322.4</v>
+        <v>322.2</v>
       </c>
       <c r="E359" t="n">
         <v>322.95</v>
@@ -10657,7 +10657,7 @@
         <v>328.2</v>
       </c>
       <c r="D360" t="n">
-        <v>326.61</v>
+        <v>326.51</v>
       </c>
       <c r="E360" t="n">
         <v>327.18</v>
@@ -10683,7 +10683,7 @@
         <v>324.34</v>
       </c>
       <c r="D361" t="n">
-        <v>324.09</v>
+        <v>324.08</v>
       </c>
       <c r="E361" t="n">
         <v>328.22</v>
@@ -10759,7 +10759,7 @@
         <v>314.86</v>
       </c>
       <c r="D364" t="n">
-        <v>321.14</v>
+        <v>321.3</v>
       </c>
       <c r="E364" t="n">
         <v>323.53</v>
@@ -10813,7 +10813,7 @@
         <v>313.07</v>
       </c>
       <c r="D366" t="n">
-        <v>314.42</v>
+        <v>314.47</v>
       </c>
       <c r="E366" t="n">
         <v>320.8</v>
@@ -10843,7 +10843,7 @@
         <v>317.01</v>
       </c>
       <c r="D367" t="n">
-        <v>321.19</v>
+        <v>321.1</v>
       </c>
       <c r="E367" t="n">
         <v>329.33</v>
@@ -10871,7 +10871,7 @@
         <v>311.37</v>
       </c>
       <c r="D368" t="n">
-        <v>317.23</v>
+        <v>317.29</v>
       </c>
       <c r="E368" t="n">
         <v>318.24</v>
@@ -10921,7 +10921,7 @@
         <v>322.95</v>
       </c>
       <c r="D370" t="n">
-        <v>318.93</v>
+        <v>318.96</v>
       </c>
       <c r="E370" t="n">
         <v>328.95</v>
@@ -10951,7 +10951,7 @@
         <v>318.92</v>
       </c>
       <c r="D371" t="n">
-        <v>314.96</v>
+        <v>314.99</v>
       </c>
       <c r="E371" t="n">
         <v>318.04</v>
@@ -10981,7 +10981,7 @@
         <v>323.79</v>
       </c>
       <c r="D372" t="n">
-        <v>324.54</v>
+        <v>324.43</v>
       </c>
       <c r="E372" t="n">
         <v>336.24</v>
@@ -11011,7 +11011,7 @@
         <v>310.74</v>
       </c>
       <c r="D373" t="n">
-        <v>313.76</v>
+        <v>313.6</v>
       </c>
       <c r="E373" t="n">
         <v>317.18</v>
@@ -11037,7 +11037,7 @@
       <c r="B374" t="inlineStr"/>
       <c r="C374" t="inlineStr"/>
       <c r="D374" t="n">
-        <v>333.46</v>
+        <v>333.63</v>
       </c>
       <c r="E374" t="n">
         <v>330.23</v>
@@ -11067,7 +11067,7 @@
         <v>314.71</v>
       </c>
       <c r="D375" t="n">
-        <v>324.06</v>
+        <v>323.94</v>
       </c>
       <c r="E375" t="n">
         <v>329.44</v>
@@ -11121,7 +11121,7 @@
         <v>319.42</v>
       </c>
       <c r="D377" t="n">
-        <v>326.91</v>
+        <v>326.7</v>
       </c>
       <c r="E377" t="n">
         <v>329.34</v>
@@ -11151,7 +11151,7 @@
         <v>313.71</v>
       </c>
       <c r="D378" t="n">
-        <v>320.43</v>
+        <v>320.33</v>
       </c>
       <c r="E378" t="n">
         <v>325.48</v>
@@ -11179,7 +11179,7 @@
         <v>309.32</v>
       </c>
       <c r="D379" t="n">
-        <v>318.13</v>
+        <v>318.18</v>
       </c>
       <c r="E379" t="n">
         <v>320.16</v>
@@ -11207,7 +11207,7 @@
         <v>302.7</v>
       </c>
       <c r="D380" t="n">
-        <v>314.6</v>
+        <v>314.51</v>
       </c>
       <c r="E380" t="n">
         <v>318.42</v>
@@ -11237,7 +11237,7 @@
         <v>306.97</v>
       </c>
       <c r="D381" t="n">
-        <v>315.51</v>
+        <v>315.48</v>
       </c>
       <c r="E381" t="n">
         <v>320.28</v>
@@ -11267,7 +11267,7 @@
         <v>309.68</v>
       </c>
       <c r="D382" t="n">
-        <v>323.07</v>
+        <v>323.11</v>
       </c>
       <c r="E382" t="n">
         <v>327.32</v>
@@ -11293,7 +11293,7 @@
       <c r="B383" t="inlineStr"/>
       <c r="C383" t="inlineStr"/>
       <c r="D383" t="n">
-        <v>310.78</v>
+        <v>310.82</v>
       </c>
       <c r="E383" t="n">
         <v>306.55</v>
@@ -11323,7 +11323,7 @@
         <v>329.44</v>
       </c>
       <c r="D384" t="n">
-        <v>334.69</v>
+        <v>334.51</v>
       </c>
       <c r="E384" t="n">
         <v>340.54</v>
@@ -11349,7 +11349,7 @@
         <v>321.63</v>
       </c>
       <c r="D385" t="n">
-        <v>330.88</v>
+        <v>330.73</v>
       </c>
       <c r="E385" t="n">
         <v>333.99</v>
@@ -11379,7 +11379,7 @@
         <v>304.13</v>
       </c>
       <c r="D386" t="n">
-        <v>313.99</v>
+        <v>314.1</v>
       </c>
       <c r="E386" t="n">
         <v>317.3</v>
@@ -11409,7 +11409,7 @@
         <v>301.31</v>
       </c>
       <c r="D387" t="n">
-        <v>312.36</v>
+        <v>312.42</v>
       </c>
       <c r="E387" t="n">
         <v>315.57</v>
@@ -11439,7 +11439,7 @@
         <v>304.73</v>
       </c>
       <c r="D388" t="n">
-        <v>315.14</v>
+        <v>315.15</v>
       </c>
       <c r="E388" t="n">
         <v>320.47</v>
@@ -11465,7 +11465,7 @@
       <c r="B389" t="inlineStr"/>
       <c r="C389" t="inlineStr"/>
       <c r="D389" t="n">
-        <v>328.9</v>
+        <v>328.82</v>
       </c>
       <c r="E389" t="n">
         <v>334.28</v>
@@ -11495,7 +11495,7 @@
         <v>326.86</v>
       </c>
       <c r="D390" t="n">
-        <v>328.42</v>
+        <v>328.25</v>
       </c>
       <c r="E390" t="n">
         <v>336.49</v>
@@ -11525,7 +11525,7 @@
         <v>326.47</v>
       </c>
       <c r="D391" t="n">
-        <v>333.67</v>
+        <v>333.46</v>
       </c>
       <c r="E391" t="n">
         <v>339.47</v>
@@ -11555,7 +11555,7 @@
         <v>326.95</v>
       </c>
       <c r="D392" t="n">
-        <v>327.48</v>
+        <v>327.32</v>
       </c>
       <c r="E392" t="n">
         <v>340.08</v>
@@ -11585,7 +11585,7 @@
         <v>308.71</v>
       </c>
       <c r="D393" t="n">
-        <v>315.4</v>
+        <v>315.5</v>
       </c>
       <c r="E393" t="inlineStr"/>
       <c r="F393" t="inlineStr"/>
@@ -11609,7 +11609,7 @@
         <v>318.44</v>
       </c>
       <c r="D394" t="n">
-        <v>322.26</v>
+        <v>322.35</v>
       </c>
       <c r="E394" t="n">
         <v>326.26</v>
@@ -11639,7 +11639,7 @@
         <v>326.3</v>
       </c>
       <c r="D395" t="n">
-        <v>329.34</v>
+        <v>329.14</v>
       </c>
       <c r="E395" t="n">
         <v>333.53</v>
@@ -11669,7 +11669,7 @@
         <v>310.55</v>
       </c>
       <c r="D396" t="n">
-        <v>313.25</v>
+        <v>313.26</v>
       </c>
       <c r="E396" t="n">
         <v>316.07</v>
@@ -11699,7 +11699,7 @@
         <v>315.29</v>
       </c>
       <c r="D397" t="n">
-        <v>313.96</v>
+        <v>314.08</v>
       </c>
       <c r="E397" t="n">
         <v>320.9</v>
@@ -11729,7 +11729,7 @@
         <v>311.09</v>
       </c>
       <c r="D398" t="n">
-        <v>319.3</v>
+        <v>319.31</v>
       </c>
       <c r="E398" t="n">
         <v>319.48</v>
@@ -11759,7 +11759,7 @@
         <v>315.68</v>
       </c>
       <c r="D399" t="n">
-        <v>323.74</v>
+        <v>323.84</v>
       </c>
       <c r="E399" t="inlineStr"/>
       <c r="F399" t="inlineStr"/>
@@ -11783,7 +11783,7 @@
         <v>311.22</v>
       </c>
       <c r="D400" t="n">
-        <v>315.65</v>
+        <v>315.51</v>
       </c>
       <c r="E400" t="n">
         <v>319.23</v>
@@ -11813,7 +11813,7 @@
         <v>321.62</v>
       </c>
       <c r="D401" t="n">
-        <v>321.6</v>
+        <v>321.75</v>
       </c>
       <c r="E401" t="n">
         <v>325.39</v>
@@ -11863,7 +11863,7 @@
         <v>319.39</v>
       </c>
       <c r="D403" t="n">
-        <v>317.17</v>
+        <v>317.06</v>
       </c>
       <c r="E403" t="n">
         <v>328.31</v>
@@ -11893,7 +11893,7 @@
         <v>301.28</v>
       </c>
       <c r="D404" t="n">
-        <v>314.38</v>
+        <v>314.47</v>
       </c>
       <c r="E404" t="n">
         <v>315.6</v>
@@ -11945,7 +11945,7 @@
         <v>318.38</v>
       </c>
       <c r="D406" t="n">
-        <v>324.9</v>
+        <v>324.97</v>
       </c>
       <c r="E406" t="inlineStr"/>
       <c r="F406" t="inlineStr"/>
@@ -11967,7 +11967,7 @@
       </c>
       <c r="C407" t="inlineStr"/>
       <c r="D407" t="n">
-        <v>324.53</v>
+        <v>324.46</v>
       </c>
       <c r="E407" t="n">
         <v>333.13</v>
@@ -11997,7 +11997,7 @@
         <v>333.42</v>
       </c>
       <c r="D408" t="n">
-        <v>327.45</v>
+        <v>327.46</v>
       </c>
       <c r="E408" t="n">
         <v>327.32</v>
@@ -12027,7 +12027,7 @@
         <v>319.33</v>
       </c>
       <c r="D409" t="n">
-        <v>319.86</v>
+        <v>319.91</v>
       </c>
       <c r="E409" t="n">
         <v>321.92</v>
@@ -12057,7 +12057,7 @@
         <v>321.05</v>
       </c>
       <c r="D410" t="n">
-        <v>327.75</v>
+        <v>327.76</v>
       </c>
       <c r="E410" t="n">
         <v>324.84</v>
@@ -12111,7 +12111,7 @@
         <v>318.52</v>
       </c>
       <c r="D412" t="n">
-        <v>322.24</v>
+        <v>322.36</v>
       </c>
       <c r="E412" t="n">
         <v>325.29</v>
@@ -12137,7 +12137,7 @@
       <c r="B413" t="inlineStr"/>
       <c r="C413" t="inlineStr"/>
       <c r="D413" t="n">
-        <v>326.48</v>
+        <v>326.3</v>
       </c>
       <c r="E413" t="n">
         <v>314.22</v>
@@ -12167,7 +12167,7 @@
         <v>319.85</v>
       </c>
       <c r="D414" t="n">
-        <v>321.69</v>
+        <v>321.79</v>
       </c>
       <c r="E414" t="n">
         <v>316.84</v>
@@ -12197,7 +12197,7 @@
         <v>326.2</v>
       </c>
       <c r="D415" t="n">
-        <v>316.81</v>
+        <v>316.66</v>
       </c>
       <c r="E415" t="n">
         <v>323.7</v>
@@ -12249,7 +12249,7 @@
         <v>321.35</v>
       </c>
       <c r="D417" t="n">
-        <v>323.72</v>
+        <v>323.61</v>
       </c>
       <c r="E417" t="n">
         <v>332.55</v>
@@ -12279,7 +12279,7 @@
         <v>324.98</v>
       </c>
       <c r="D418" t="n">
-        <v>340.76</v>
+        <v>340.56</v>
       </c>
       <c r="E418" t="n">
         <v>339.9</v>
@@ -12309,7 +12309,7 @@
         <v>303.46</v>
       </c>
       <c r="D419" t="n">
-        <v>317.6</v>
+        <v>317.59</v>
       </c>
       <c r="E419" t="n">
         <v>318.82</v>
@@ -12339,7 +12339,7 @@
         <v>309.88</v>
       </c>
       <c r="D420" t="n">
-        <v>322.14</v>
+        <v>322.07</v>
       </c>
       <c r="E420" t="n">
         <v>325.21</v>
@@ -12369,7 +12369,7 @@
         <v>312.44</v>
       </c>
       <c r="D421" t="n">
-        <v>320.82</v>
+        <v>320.8</v>
       </c>
       <c r="E421" t="n">
         <v>322.58</v>
@@ -12399,7 +12399,7 @@
         <v>317.94</v>
       </c>
       <c r="D422" t="n">
-        <v>321.32</v>
+        <v>321.2</v>
       </c>
       <c r="E422" t="n">
         <v>322.65</v>
@@ -12429,7 +12429,7 @@
         <v>311.83</v>
       </c>
       <c r="D423" t="n">
-        <v>317.59</v>
+        <v>317.75</v>
       </c>
       <c r="E423" t="n">
         <v>320.2</v>
@@ -12457,7 +12457,7 @@
         <v>317.85</v>
       </c>
       <c r="D424" t="n">
-        <v>323.39</v>
+        <v>323.25</v>
       </c>
       <c r="E424" t="n">
         <v>323.83</v>
@@ -12487,7 +12487,7 @@
         <v>309.08</v>
       </c>
       <c r="D425" t="n">
-        <v>317.66</v>
+        <v>317.83</v>
       </c>
       <c r="E425" t="n">
         <v>322.01</v>
@@ -12541,7 +12541,7 @@
         <v>326.08</v>
       </c>
       <c r="D427" t="n">
-        <v>325.97</v>
+        <v>325.96</v>
       </c>
       <c r="E427" t="n">
         <v>325.25</v>
@@ -12567,7 +12567,7 @@
         <v>318.73</v>
       </c>
       <c r="D428" t="n">
-        <v>318.56</v>
+        <v>318.5</v>
       </c>
       <c r="E428" t="n">
         <v>318.12</v>
@@ -12597,7 +12597,7 @@
         <v>321.23</v>
       </c>
       <c r="D429" t="n">
-        <v>331.43</v>
+        <v>331.53</v>
       </c>
       <c r="E429" t="n">
         <v>329.2</v>
@@ -12671,7 +12671,7 @@
         <v>318.13</v>
       </c>
       <c r="D432" t="n">
-        <v>322.27</v>
+        <v>322.24</v>
       </c>
       <c r="E432" t="n">
         <v>326.2</v>
@@ -12695,7 +12695,7 @@
         <v>324.63</v>
       </c>
       <c r="D433" t="n">
-        <v>328.48</v>
+        <v>328.51</v>
       </c>
       <c r="E433" t="n">
         <v>327.6</v>
@@ -12725,7 +12725,7 @@
         <v>318.94</v>
       </c>
       <c r="D434" t="n">
-        <v>325.17</v>
+        <v>325.19</v>
       </c>
       <c r="E434" t="n">
         <v>331.11</v>
@@ -12753,7 +12753,7 @@
       </c>
       <c r="C435" t="inlineStr"/>
       <c r="D435" t="n">
-        <v>315.85</v>
+        <v>315.71</v>
       </c>
       <c r="E435" t="n">
         <v>324</v>
@@ -12823,7 +12823,7 @@
         <v>290.97</v>
       </c>
       <c r="D438" t="n">
-        <v>313.62</v>
+        <v>313.68</v>
       </c>
       <c r="E438" t="n">
         <v>316.5</v>
@@ -12853,7 +12853,7 @@
         <v>308.04</v>
       </c>
       <c r="D439" t="n">
-        <v>316.49</v>
+        <v>316.48</v>
       </c>
       <c r="E439" t="n">
         <v>316.32</v>
@@ -12881,7 +12881,7 @@
       </c>
       <c r="C440" t="inlineStr"/>
       <c r="D440" t="n">
-        <v>324.84</v>
+        <v>324.72</v>
       </c>
       <c r="E440" t="inlineStr"/>
       <c r="F440" t="inlineStr"/>
@@ -12905,7 +12905,7 @@
         <v>307</v>
       </c>
       <c r="D441" t="n">
-        <v>316.56</v>
+        <v>316.68</v>
       </c>
       <c r="E441" t="n">
         <v>318.56</v>
@@ -12935,7 +12935,7 @@
         <v>311.13</v>
       </c>
       <c r="D442" t="n">
-        <v>316.61</v>
+        <v>316.47</v>
       </c>
       <c r="E442" t="n">
         <v>325</v>
@@ -12965,7 +12965,7 @@
         <v>325.51</v>
       </c>
       <c r="D443" t="n">
-        <v>325.62</v>
+        <v>325.44</v>
       </c>
       <c r="E443" t="n">
         <v>329.82</v>
@@ -12995,7 +12995,7 @@
         <v>312.01</v>
       </c>
       <c r="D444" t="n">
-        <v>317.14</v>
+        <v>317.3</v>
       </c>
       <c r="E444" t="inlineStr"/>
       <c r="F444" t="inlineStr"/>
@@ -13019,7 +13019,7 @@
         <v>325.7</v>
       </c>
       <c r="D445" t="n">
-        <v>337.54</v>
+        <v>337.38</v>
       </c>
       <c r="E445" t="n">
         <v>328.51</v>
@@ -13049,7 +13049,7 @@
         <v>325.09</v>
       </c>
       <c r="D446" t="n">
-        <v>324.29</v>
+        <v>324.22</v>
       </c>
       <c r="E446" t="n">
         <v>329.21</v>
@@ -13075,7 +13075,7 @@
       <c r="B447" t="inlineStr"/>
       <c r="C447" t="inlineStr"/>
       <c r="D447" t="n">
-        <v>327.12</v>
+        <v>327.2</v>
       </c>
       <c r="E447" t="n">
         <v>330.11</v>
@@ -13105,7 +13105,7 @@
         <v>326.69</v>
       </c>
       <c r="D448" t="n">
-        <v>327.99</v>
+        <v>327.97</v>
       </c>
       <c r="E448" t="n">
         <v>333.75</v>
@@ -13135,7 +13135,7 @@
         <v>316.69</v>
       </c>
       <c r="D449" t="n">
-        <v>329.85</v>
+        <v>329.8</v>
       </c>
       <c r="E449" t="n">
         <v>354.27</v>
@@ -13183,7 +13183,7 @@
         <v>324.93</v>
       </c>
       <c r="D451" t="n">
-        <v>330.5</v>
+        <v>330.37</v>
       </c>
       <c r="E451" t="n">
         <v>330.84</v>
@@ -13213,7 +13213,7 @@
         <v>323.87</v>
       </c>
       <c r="D452" t="n">
-        <v>334.19</v>
+        <v>334.27</v>
       </c>
       <c r="E452" t="n">
         <v>333.48</v>
@@ -13241,7 +13241,7 @@
         <v>317.99</v>
       </c>
       <c r="D453" t="n">
-        <v>327.33</v>
+        <v>327.2</v>
       </c>
       <c r="E453" t="n">
         <v>329.19</v>
@@ -13293,7 +13293,7 @@
         <v>324.04</v>
       </c>
       <c r="D455" t="n">
-        <v>331</v>
+        <v>330.81</v>
       </c>
       <c r="E455" t="n">
         <v>326.52</v>
@@ -13323,7 +13323,7 @@
         <v>294.61</v>
       </c>
       <c r="D456" t="n">
-        <v>305.89</v>
+        <v>305.96</v>
       </c>
       <c r="E456" t="n">
         <v>313.44</v>
@@ -13349,7 +13349,7 @@
         <v>332.36</v>
       </c>
       <c r="D457" t="n">
-        <v>335.95</v>
+        <v>335.89</v>
       </c>
       <c r="E457" t="n">
         <v>339.14</v>
@@ -13377,7 +13377,7 @@
         <v>318.08</v>
       </c>
       <c r="D458" t="n">
-        <v>327.34</v>
+        <v>327.35</v>
       </c>
       <c r="E458" t="n">
         <v>328.61</v>
@@ -13407,7 +13407,7 @@
         <v>311.45</v>
       </c>
       <c r="D459" t="n">
-        <v>321.05</v>
+        <v>320.95</v>
       </c>
       <c r="E459" t="n">
         <v>324.63</v>
@@ -13437,7 +13437,7 @@
         <v>314.14</v>
       </c>
       <c r="D460" t="n">
-        <v>320.96</v>
+        <v>321.03</v>
       </c>
       <c r="E460" t="n">
         <v>325.21</v>
@@ -13467,7 +13467,7 @@
         <v>316.69</v>
       </c>
       <c r="D461" t="n">
-        <v>320.38</v>
+        <v>320.46</v>
       </c>
       <c r="E461" t="n">
         <v>319.19</v>
@@ -13497,7 +13497,7 @@
         <v>316.61</v>
       </c>
       <c r="D462" t="n">
-        <v>321.78</v>
+        <v>321.73</v>
       </c>
       <c r="E462" t="n">
         <v>331.63</v>
@@ -13527,7 +13527,7 @@
         <v>326.24</v>
       </c>
       <c r="D463" t="n">
-        <v>337.32</v>
+        <v>337.13</v>
       </c>
       <c r="E463" t="n">
         <v>348.91</v>
@@ -13557,7 +13557,7 @@
         <v>327.43</v>
       </c>
       <c r="D464" t="n">
-        <v>335.97</v>
+        <v>335.78</v>
       </c>
       <c r="E464" t="n">
         <v>340.95</v>
@@ -13583,7 +13583,7 @@
       <c r="B465" t="inlineStr"/>
       <c r="C465" t="inlineStr"/>
       <c r="D465" t="n">
-        <v>317.57</v>
+        <v>317.69</v>
       </c>
       <c r="E465" t="n">
         <v>322.41</v>
@@ -13613,7 +13613,7 @@
         <v>304.77</v>
       </c>
       <c r="D466" t="n">
-        <v>315.85</v>
+        <v>315.99</v>
       </c>
       <c r="E466" t="n">
         <v>317.43</v>
@@ -13643,7 +13643,7 @@
         <v>320.05</v>
       </c>
       <c r="D467" t="n">
-        <v>321.98</v>
+        <v>321.8</v>
       </c>
       <c r="E467" t="n">
         <v>323.34</v>
@@ -13673,7 +13673,7 @@
         <v>311.45</v>
       </c>
       <c r="D468" t="n">
-        <v>321.03</v>
+        <v>321.11</v>
       </c>
       <c r="E468" t="n">
         <v>325.89</v>
@@ -13703,7 +13703,7 @@
         <v>306.58</v>
       </c>
       <c r="D469" t="n">
-        <v>316.51</v>
+        <v>316.48</v>
       </c>
       <c r="E469" t="n">
         <v>323.83</v>
@@ -13779,7 +13779,7 @@
         <v>310.65</v>
       </c>
       <c r="D472" t="n">
-        <v>321.17</v>
+        <v>321.19</v>
       </c>
       <c r="E472" t="n">
         <v>320.97</v>
@@ -13809,7 +13809,7 @@
         <v>314.2</v>
       </c>
       <c r="D473" t="n">
-        <v>317.16</v>
+        <v>317.26</v>
       </c>
       <c r="E473" t="n">
         <v>316.67</v>
@@ -13837,7 +13837,7 @@
         <v>316.06</v>
       </c>
       <c r="D474" t="n">
-        <v>332.54</v>
+        <v>332.63</v>
       </c>
       <c r="E474" t="n">
         <v>327.95</v>
@@ -13863,7 +13863,7 @@
       <c r="B475" t="inlineStr"/>
       <c r="C475" t="inlineStr"/>
       <c r="D475" t="n">
-        <v>316.25</v>
+        <v>316.09</v>
       </c>
       <c r="E475" t="n">
         <v>334.86</v>
@@ -13887,7 +13887,7 @@
         <v>310.1</v>
       </c>
       <c r="D476" t="n">
-        <v>319.32</v>
+        <v>319.36</v>
       </c>
       <c r="E476" t="n">
         <v>320.39</v>
@@ -13917,7 +13917,7 @@
         <v>313.22</v>
       </c>
       <c r="D477" t="n">
-        <v>316.81</v>
+        <v>316.89</v>
       </c>
       <c r="E477" t="n">
         <v>320.35</v>
@@ -13947,7 +13947,7 @@
         <v>314.08</v>
       </c>
       <c r="D478" t="n">
-        <v>322.3</v>
+        <v>322.17</v>
       </c>
       <c r="E478" t="n">
         <v>328.29</v>
@@ -13977,7 +13977,7 @@
         <v>317.24</v>
       </c>
       <c r="D479" t="n">
-        <v>320.89</v>
+        <v>320.68</v>
       </c>
       <c r="E479" t="n">
         <v>326.99</v>
@@ -14007,7 +14007,7 @@
         <v>315.88</v>
       </c>
       <c r="D480" t="n">
-        <v>323.4</v>
+        <v>323.48</v>
       </c>
       <c r="E480" t="n">
         <v>328.27</v>
@@ -14057,7 +14057,7 @@
         <v>313</v>
       </c>
       <c r="D482" t="n">
-        <v>317.36</v>
+        <v>317.29</v>
       </c>
       <c r="E482" t="n">
         <v>322.25</v>
@@ -14117,7 +14117,7 @@
         <v>323.61</v>
       </c>
       <c r="D484" t="n">
-        <v>321.55</v>
+        <v>321.47</v>
       </c>
       <c r="E484" t="n">
         <v>320.7</v>
@@ -14147,7 +14147,7 @@
         <v>300.27</v>
       </c>
       <c r="D485" t="n">
-        <v>311.77</v>
+        <v>311.85</v>
       </c>
       <c r="E485" t="n">
         <v>314.15</v>
@@ -14177,7 +14177,7 @@
         <v>302.64</v>
       </c>
       <c r="D486" t="n">
-        <v>317.45</v>
+        <v>317.63</v>
       </c>
       <c r="E486" t="n">
         <v>319.11</v>
@@ -14207,7 +14207,7 @@
         <v>319.22</v>
       </c>
       <c r="D487" t="n">
-        <v>328.91</v>
+        <v>328.81</v>
       </c>
       <c r="E487" t="n">
         <v>329.01</v>
@@ -14259,7 +14259,7 @@
         <v>304.63</v>
       </c>
       <c r="D489" t="n">
-        <v>315.07</v>
+        <v>315.12</v>
       </c>
       <c r="E489" t="n">
         <v>317.02</v>
@@ -14313,7 +14313,7 @@
         <v>324.85</v>
       </c>
       <c r="D491" t="n">
-        <v>328.69</v>
+        <v>328.49</v>
       </c>
       <c r="E491" t="n">
         <v>328.21</v>
@@ -14343,7 +14343,7 @@
         <v>300.51</v>
       </c>
       <c r="D492" t="n">
-        <v>305.39</v>
+        <v>305.56</v>
       </c>
       <c r="E492" t="inlineStr"/>
       <c r="F492" t="inlineStr"/>
@@ -14367,7 +14367,7 @@
         <v>304.81</v>
       </c>
       <c r="D493" t="n">
-        <v>316.89</v>
+        <v>316.75</v>
       </c>
       <c r="E493" t="n">
         <v>316.83</v>
@@ -14397,7 +14397,7 @@
         <v>313.11</v>
       </c>
       <c r="D494" t="n">
-        <v>322.18</v>
+        <v>322.05</v>
       </c>
       <c r="E494" t="n">
         <v>329.87</v>
@@ -14427,7 +14427,7 @@
         <v>310</v>
       </c>
       <c r="D495" t="n">
-        <v>319.37</v>
+        <v>319.49</v>
       </c>
       <c r="E495" t="n">
         <v>323.67</v>
@@ -14457,7 +14457,7 @@
         <v>331.15</v>
       </c>
       <c r="D496" t="n">
-        <v>345.14</v>
+        <v>344.96</v>
       </c>
       <c r="E496" t="inlineStr"/>
       <c r="F496" t="n">
@@ -14485,7 +14485,7 @@
         <v>311.96</v>
       </c>
       <c r="D497" t="n">
-        <v>312.48</v>
+        <v>312.49</v>
       </c>
       <c r="E497" t="n">
         <v>316.54</v>
@@ -14515,7 +14515,7 @@
         <v>341.72</v>
       </c>
       <c r="D498" t="n">
-        <v>348.37</v>
+        <v>348.36</v>
       </c>
       <c r="E498" t="n">
         <v>350.74</v>
@@ -14541,7 +14541,7 @@
         <v>323.67</v>
       </c>
       <c r="D499" t="n">
-        <v>333.71</v>
+        <v>333.83</v>
       </c>
       <c r="E499" t="n">
         <v>329.64</v>
@@ -14571,7 +14571,7 @@
         <v>305.38</v>
       </c>
       <c r="D500" t="n">
-        <v>314.09</v>
+        <v>314.15</v>
       </c>
       <c r="E500" t="n">
         <v>316.29</v>
@@ -14601,7 +14601,7 @@
         <v>312.23</v>
       </c>
       <c r="D501" t="n">
-        <v>316.19</v>
+        <v>316.18</v>
       </c>
       <c r="E501" t="n">
         <v>318.16</v>
@@ -14629,7 +14629,7 @@
         <v>329.67</v>
       </c>
       <c r="D502" t="n">
-        <v>324.37</v>
+        <v>324.51</v>
       </c>
       <c r="E502" t="n">
         <v>329.27</v>
@@ -14689,7 +14689,7 @@
         <v>313.11</v>
       </c>
       <c r="D504" t="n">
-        <v>320.96</v>
+        <v>321.04</v>
       </c>
       <c r="E504" t="n">
         <v>324.58</v>
@@ -14719,7 +14719,7 @@
         <v>325.25</v>
       </c>
       <c r="D505" t="n">
-        <v>334.76</v>
+        <v>334.72</v>
       </c>
       <c r="E505" t="n">
         <v>329.4</v>
@@ -14769,7 +14769,7 @@
         <v>303.79</v>
       </c>
       <c r="D507" t="n">
-        <v>313.49</v>
+        <v>313.48</v>
       </c>
       <c r="E507" t="n">
         <v>315.08</v>
@@ -14799,7 +14799,7 @@
         <v>311.76</v>
       </c>
       <c r="D508" t="n">
-        <v>319.89</v>
+        <v>319.95</v>
       </c>
       <c r="E508" t="n">
         <v>320.12</v>
@@ -14829,7 +14829,7 @@
         <v>344.47</v>
       </c>
       <c r="D509" t="n">
-        <v>336.02</v>
+        <v>335.87</v>
       </c>
       <c r="E509" t="n">
         <v>345.94</v>
@@ -14859,7 +14859,7 @@
         <v>325.95</v>
       </c>
       <c r="D510" t="n">
-        <v>324.8</v>
+        <v>324.77</v>
       </c>
       <c r="E510" t="n">
         <v>331.8</v>
@@ -14889,7 +14889,7 @@
         <v>311.43</v>
       </c>
       <c r="D511" t="n">
-        <v>320.1</v>
+        <v>319.94</v>
       </c>
       <c r="E511" t="n">
         <v>327.87</v>
@@ -14917,7 +14917,7 @@
       </c>
       <c r="C512" t="inlineStr"/>
       <c r="D512" t="n">
-        <v>359.47</v>
+        <v>359.49</v>
       </c>
       <c r="E512" t="inlineStr"/>
       <c r="F512" t="inlineStr"/>
@@ -14943,7 +14943,7 @@
         <v>319.25</v>
       </c>
       <c r="D513" t="n">
-        <v>321.27</v>
+        <v>321.4</v>
       </c>
       <c r="E513" t="n">
         <v>323.03</v>
@@ -14973,7 +14973,7 @@
         <v>324.42</v>
       </c>
       <c r="D514" t="n">
-        <v>325.6</v>
+        <v>325.41</v>
       </c>
       <c r="E514" t="n">
         <v>331.45</v>
@@ -15003,7 +15003,7 @@
         <v>313.82</v>
       </c>
       <c r="D515" t="n">
-        <v>319.34</v>
+        <v>319.21</v>
       </c>
       <c r="E515" t="n">
         <v>325.14</v>
@@ -15033,7 +15033,7 @@
         <v>312.74</v>
       </c>
       <c r="D516" t="n">
-        <v>320.77</v>
+        <v>320.85</v>
       </c>
       <c r="E516" t="n">
         <v>321.7</v>
@@ -15063,7 +15063,7 @@
         <v>317.19</v>
       </c>
       <c r="D517" t="n">
-        <v>322.4</v>
+        <v>322.48</v>
       </c>
       <c r="E517" t="n">
         <v>325.44</v>
@@ -15093,7 +15093,7 @@
         <v>315.57</v>
       </c>
       <c r="D518" t="n">
-        <v>320.08</v>
+        <v>320.09</v>
       </c>
       <c r="E518" t="n">
         <v>322.07</v>
@@ -15123,7 +15123,7 @@
         <v>312.9</v>
       </c>
       <c r="D519" t="n">
-        <v>316.02</v>
+        <v>315.99</v>
       </c>
       <c r="E519" t="n">
         <v>320.28</v>
@@ -15183,7 +15183,7 @@
         <v>319.43</v>
       </c>
       <c r="D521" t="n">
-        <v>317.8</v>
+        <v>317.9</v>
       </c>
       <c r="E521" t="n">
         <v>320.96</v>
@@ -15235,7 +15235,7 @@
         <v>311.77</v>
       </c>
       <c r="D523" t="n">
-        <v>311.69</v>
+        <v>311.5</v>
       </c>
       <c r="E523" t="n">
         <v>321.52</v>
@@ -15265,7 +15265,7 @@
         <v>298.21</v>
       </c>
       <c r="D524" t="n">
-        <v>308.51</v>
+        <v>308.65</v>
       </c>
       <c r="E524" t="n">
         <v>306.37</v>
@@ -15317,7 +15317,7 @@
         <v>311.19</v>
       </c>
       <c r="D526" t="n">
-        <v>319.26</v>
+        <v>319.38</v>
       </c>
       <c r="E526" t="n">
         <v>318.12</v>
@@ -15347,7 +15347,7 @@
         <v>307.83</v>
       </c>
       <c r="D527" t="n">
-        <v>315.03</v>
+        <v>315.11</v>
       </c>
       <c r="E527" t="n">
         <v>320.56</v>
@@ -15377,7 +15377,7 @@
         <v>317.23</v>
       </c>
       <c r="D528" t="n">
-        <v>322.06</v>
+        <v>322.08</v>
       </c>
       <c r="E528" t="n">
         <v>327.77</v>
@@ -15407,7 +15407,7 @@
         <v>324.58</v>
       </c>
       <c r="D529" t="n">
-        <v>319.85</v>
+        <v>319.8</v>
       </c>
       <c r="E529" t="n">
         <v>320.99</v>
@@ -15459,7 +15459,7 @@
         <v>305.78</v>
       </c>
       <c r="D531" t="n">
-        <v>320.25</v>
+        <v>320.35</v>
       </c>
       <c r="E531" t="n">
         <v>319.04</v>
@@ -15485,7 +15485,7 @@
       <c r="B532" t="inlineStr"/>
       <c r="C532" t="inlineStr"/>
       <c r="D532" t="n">
-        <v>335.77</v>
+        <v>335.55</v>
       </c>
       <c r="E532" t="n">
         <v>334.69</v>
@@ -15511,7 +15511,7 @@
         <v>313.08</v>
       </c>
       <c r="D533" t="n">
-        <v>321.51</v>
+        <v>321.46</v>
       </c>
       <c r="E533" t="n">
         <v>319.66</v>
@@ -15541,7 +15541,7 @@
         <v>324.27</v>
       </c>
       <c r="D534" t="n">
-        <v>337.42</v>
+        <v>337.34</v>
       </c>
       <c r="E534" t="n">
         <v>334.46</v>
@@ -15571,7 +15571,7 @@
         <v>316.63</v>
       </c>
       <c r="D535" t="n">
-        <v>318.95</v>
+        <v>318.81</v>
       </c>
       <c r="E535" t="n">
         <v>318.01</v>
@@ -15601,7 +15601,7 @@
         <v>302.62</v>
       </c>
       <c r="D536" t="n">
-        <v>310.93</v>
+        <v>310.72</v>
       </c>
       <c r="E536" t="n">
         <v>327.11</v>
@@ -15631,7 +15631,7 @@
         <v>297.02</v>
       </c>
       <c r="D537" t="n">
-        <v>307.51</v>
+        <v>307.39</v>
       </c>
       <c r="E537" t="n">
         <v>310.03</v>
@@ -15661,7 +15661,7 @@
         <v>323.37</v>
       </c>
       <c r="D538" t="n">
-        <v>334.37</v>
+        <v>334.22</v>
       </c>
       <c r="E538" t="n">
         <v>335.17</v>
@@ -15691,7 +15691,7 @@
         <v>323.29</v>
       </c>
       <c r="D539" t="n">
-        <v>328.61</v>
+        <v>328.66</v>
       </c>
       <c r="E539" t="n">
         <v>330.93</v>
@@ -15747,7 +15747,7 @@
         <v>328.88</v>
       </c>
       <c r="D541" t="n">
-        <v>333.08</v>
+        <v>332.9</v>
       </c>
       <c r="E541" t="n">
         <v>333.13</v>
@@ -15777,7 +15777,7 @@
         <v>309.85</v>
       </c>
       <c r="D542" t="n">
-        <v>315.62</v>
+        <v>315.48</v>
       </c>
       <c r="E542" t="n">
         <v>321.01</v>
@@ -15837,7 +15837,7 @@
         <v>305.08</v>
       </c>
       <c r="D544" t="n">
-        <v>312.24</v>
+        <v>312.27</v>
       </c>
       <c r="E544" t="n">
         <v>316.63</v>
@@ -15889,7 +15889,7 @@
         <v>325.56</v>
       </c>
       <c r="D546" t="n">
-        <v>324.11</v>
+        <v>324.08</v>
       </c>
       <c r="E546" t="n">
         <v>330.01</v>
@@ -15919,7 +15919,7 @@
         <v>319.44</v>
       </c>
       <c r="D547" t="n">
-        <v>320.14</v>
+        <v>320.26</v>
       </c>
       <c r="E547" t="n">
         <v>325.4</v>
@@ -15945,7 +15945,7 @@
       <c r="B548" t="inlineStr"/>
       <c r="C548" t="inlineStr"/>
       <c r="D548" t="n">
-        <v>321.61</v>
+        <v>321.48</v>
       </c>
       <c r="E548" t="inlineStr"/>
       <c r="F548" t="inlineStr"/>
@@ -15971,7 +15971,7 @@
         <v>340.35</v>
       </c>
       <c r="D549" t="n">
-        <v>340.14</v>
+        <v>340.34</v>
       </c>
       <c r="E549" t="n">
         <v>348.84</v>
@@ -16001,7 +16001,7 @@
         <v>317.58</v>
       </c>
       <c r="D550" t="n">
-        <v>324.96</v>
+        <v>325.1</v>
       </c>
       <c r="E550" t="n">
         <v>327.41</v>
@@ -16031,7 +16031,7 @@
         <v>313.78</v>
       </c>
       <c r="D551" t="n">
-        <v>321.51</v>
+        <v>321.35</v>
       </c>
       <c r="E551" t="n">
         <v>321.47</v>
@@ -16061,7 +16061,7 @@
         <v>310.19</v>
       </c>
       <c r="D552" t="n">
-        <v>314.96</v>
+        <v>315.06</v>
       </c>
       <c r="E552" t="n">
         <v>317.05</v>
@@ -16091,7 +16091,7 @@
         <v>306.01</v>
       </c>
       <c r="D553" t="n">
-        <v>321.96</v>
+        <v>322.05</v>
       </c>
       <c r="E553" t="n">
         <v>318.69</v>
@@ -16121,7 +16121,7 @@
         <v>316.79</v>
       </c>
       <c r="D554" t="n">
-        <v>327.21</v>
+        <v>327.08</v>
       </c>
       <c r="E554" t="n">
         <v>329.19</v>
@@ -16151,7 +16151,7 @@
         <v>310.21</v>
       </c>
       <c r="D555" t="n">
-        <v>317.67</v>
+        <v>317.72</v>
       </c>
       <c r="E555" t="n">
         <v>319.56</v>
@@ -16181,7 +16181,7 @@
         <v>321.22</v>
       </c>
       <c r="D556" t="n">
-        <v>325.94</v>
+        <v>325.93</v>
       </c>
       <c r="E556" t="n">
         <v>332.48</v>
@@ -16211,7 +16211,7 @@
         <v>305.85</v>
       </c>
       <c r="D557" t="n">
-        <v>319.06</v>
+        <v>319.12</v>
       </c>
       <c r="E557" t="n">
         <v>320.56</v>
@@ -16241,7 +16241,7 @@
         <v>313.66</v>
       </c>
       <c r="D558" t="n">
-        <v>322.3</v>
+        <v>322.28</v>
       </c>
       <c r="E558" t="n">
         <v>329.46</v>
@@ -16271,7 +16271,7 @@
         <v>311.68</v>
       </c>
       <c r="D559" t="n">
-        <v>319.58</v>
+        <v>319.5</v>
       </c>
       <c r="E559" t="n">
         <v>322.16</v>
@@ -16301,7 +16301,7 @@
         <v>316.49</v>
       </c>
       <c r="D560" t="n">
-        <v>320.91</v>
+        <v>321.01</v>
       </c>
       <c r="E560" t="n">
         <v>317.12</v>
@@ -16331,7 +16331,7 @@
         <v>314.22</v>
       </c>
       <c r="D561" t="n">
-        <v>324.56</v>
+        <v>324.41</v>
       </c>
       <c r="E561" t="n">
         <v>328.75</v>
@@ -16361,7 +16361,7 @@
         <v>319.69</v>
       </c>
       <c r="D562" t="n">
-        <v>323.63</v>
+        <v>323.76</v>
       </c>
       <c r="E562" t="n">
         <v>326.29</v>
@@ -16391,7 +16391,7 @@
         <v>307.68</v>
       </c>
       <c r="D563" t="n">
-        <v>316.61</v>
+        <v>316.75</v>
       </c>
       <c r="E563" t="n">
         <v>319.32</v>
@@ -16421,7 +16421,7 @@
         <v>315.21</v>
       </c>
       <c r="D564" t="n">
-        <v>324.59</v>
+        <v>324.45</v>
       </c>
       <c r="E564" t="n">
         <v>327.92</v>
@@ -16451,7 +16451,7 @@
         <v>312.12</v>
       </c>
       <c r="D565" t="n">
-        <v>313.65</v>
+        <v>313.51</v>
       </c>
       <c r="E565" t="n">
         <v>314.05</v>
@@ -16481,7 +16481,7 @@
         <v>317.87</v>
       </c>
       <c r="D566" t="n">
-        <v>321.58</v>
+        <v>321.68</v>
       </c>
       <c r="E566" t="n">
         <v>328.56</v>
@@ -16511,7 +16511,7 @@
         <v>317.25</v>
       </c>
       <c r="D567" t="n">
-        <v>324.81</v>
+        <v>324.82</v>
       </c>
       <c r="E567" t="n">
         <v>330.77</v>
@@ -16541,7 +16541,7 @@
         <v>316.6</v>
       </c>
       <c r="D568" t="n">
-        <v>323.1</v>
+        <v>323.06</v>
       </c>
       <c r="E568" t="n">
         <v>331.08</v>
@@ -16571,7 +16571,7 @@
         <v>314.67</v>
       </c>
       <c r="D569" t="n">
-        <v>319.3</v>
+        <v>319.4</v>
       </c>
       <c r="E569" t="n">
         <v>316.54</v>
@@ -16601,7 +16601,7 @@
         <v>307.39</v>
       </c>
       <c r="D570" t="n">
-        <v>320.27</v>
+        <v>320.39</v>
       </c>
       <c r="E570" t="n">
         <v>319.89</v>
@@ -16631,7 +16631,7 @@
         <v>313.72</v>
       </c>
       <c r="D571" t="n">
-        <v>320.46</v>
+        <v>320.54</v>
       </c>
       <c r="E571" t="n">
         <v>322.87</v>
@@ -16661,7 +16661,7 @@
         <v>315.37</v>
       </c>
       <c r="D572" t="n">
-        <v>318.05</v>
+        <v>318.06</v>
       </c>
       <c r="E572" t="n">
         <v>321.55</v>
@@ -16687,7 +16687,7 @@
       <c r="B573" t="inlineStr"/>
       <c r="C573" t="inlineStr"/>
       <c r="D573" t="n">
-        <v>329.86</v>
+        <v>329.77</v>
       </c>
       <c r="E573" t="inlineStr"/>
       <c r="F573" t="inlineStr"/>
@@ -16711,7 +16711,7 @@
         <v>315.83</v>
       </c>
       <c r="D574" t="n">
-        <v>317.85</v>
+        <v>317.82</v>
       </c>
       <c r="E574" t="n">
         <v>321.21</v>
@@ -16741,7 +16741,7 @@
         <v>316.28</v>
       </c>
       <c r="D575" t="n">
-        <v>317.49</v>
+        <v>317.5</v>
       </c>
       <c r="E575" t="n">
         <v>321.67</v>
@@ -16771,7 +16771,7 @@
         <v>314.63</v>
       </c>
       <c r="D576" t="n">
-        <v>319.98</v>
+        <v>319.99</v>
       </c>
       <c r="E576" t="n">
         <v>323.36</v>
@@ -16801,7 +16801,7 @@
         <v>313.18</v>
       </c>
       <c r="D577" t="n">
-        <v>319.95</v>
+        <v>320.06</v>
       </c>
       <c r="E577" t="n">
         <v>323.34</v>
@@ -16831,7 +16831,7 @@
         <v>315.98</v>
       </c>
       <c r="D578" t="n">
-        <v>320.23</v>
+        <v>320.32</v>
       </c>
       <c r="E578" t="n">
         <v>321.43</v>
@@ -16861,7 +16861,7 @@
         <v>331.38</v>
       </c>
       <c r="D579" t="n">
-        <v>333.79</v>
+        <v>333.58</v>
       </c>
       <c r="E579" t="n">
         <v>345.51</v>
@@ -16891,7 +16891,7 @@
         <v>310.38</v>
       </c>
       <c r="D580" t="n">
-        <v>312.95</v>
+        <v>312.76</v>
       </c>
       <c r="E580" t="n">
         <v>318.7</v>
@@ -16921,7 +16921,7 @@
         <v>309.88</v>
       </c>
       <c r="D581" t="n">
-        <v>319.34</v>
+        <v>319.22</v>
       </c>
       <c r="E581" t="n">
         <v>317.6</v>
@@ -16951,7 +16951,7 @@
         <v>315.24</v>
       </c>
       <c r="D582" t="n">
-        <v>327.32</v>
+        <v>327.25</v>
       </c>
       <c r="E582" t="n">
         <v>330.31</v>
@@ -17011,7 +17011,7 @@
         <v>303.21</v>
       </c>
       <c r="D584" t="n">
-        <v>312.29</v>
+        <v>312.3</v>
       </c>
       <c r="E584" t="n">
         <v>315.02</v>
@@ -17041,7 +17041,7 @@
         <v>309.64</v>
       </c>
       <c r="D585" t="n">
-        <v>317.99</v>
+        <v>318.09</v>
       </c>
       <c r="E585" t="n">
         <v>319.67</v>
@@ -17071,7 +17071,7 @@
         <v>309.06</v>
       </c>
       <c r="D586" t="n">
-        <v>311.28</v>
+        <v>311.16</v>
       </c>
       <c r="E586" t="n">
         <v>314.88</v>
@@ -17101,7 +17101,7 @@
         <v>322.99</v>
       </c>
       <c r="D587" t="n">
-        <v>318.67</v>
+        <v>318.75</v>
       </c>
       <c r="E587" t="n">
         <v>320.03</v>
@@ -17131,7 +17131,7 @@
         <v>333.57</v>
       </c>
       <c r="D588" t="n">
-        <v>331.87</v>
+        <v>331.97</v>
       </c>
       <c r="E588" t="n">
         <v>328.75</v>
@@ -17157,7 +17157,7 @@
       <c r="B589" t="inlineStr"/>
       <c r="C589" t="inlineStr"/>
       <c r="D589" t="n">
-        <v>366.67</v>
+        <v>366.81</v>
       </c>
       <c r="E589" t="n">
         <v>332.8</v>
@@ -17185,7 +17185,7 @@
         <v>320.97</v>
       </c>
       <c r="D590" t="n">
-        <v>327.42</v>
+        <v>327.21</v>
       </c>
       <c r="E590" t="n">
         <v>332.47</v>
@@ -17215,7 +17215,7 @@
         <v>314.55</v>
       </c>
       <c r="D591" t="n">
-        <v>311.75</v>
+        <v>311.8</v>
       </c>
       <c r="E591" t="n">
         <v>312.86</v>
@@ -17245,7 +17245,7 @@
         <v>309.6</v>
       </c>
       <c r="D592" t="n">
-        <v>320.14</v>
+        <v>320.22</v>
       </c>
       <c r="E592" t="n">
         <v>319.2</v>
@@ -17275,7 +17275,7 @@
         <v>317.63</v>
       </c>
       <c r="D593" t="n">
-        <v>321.92</v>
+        <v>321.85</v>
       </c>
       <c r="E593" t="n">
         <v>326.98</v>
@@ -17305,7 +17305,7 @@
         <v>311.27</v>
       </c>
       <c r="D594" t="n">
-        <v>318.6</v>
+        <v>318.61</v>
       </c>
       <c r="E594" t="n">
         <v>318.48</v>
@@ -17335,7 +17335,7 @@
         <v>318.64</v>
       </c>
       <c r="D595" t="n">
-        <v>321.39</v>
+        <v>321.51</v>
       </c>
       <c r="E595" t="n">
         <v>321.79</v>
@@ -17365,7 +17365,7 @@
         <v>325.78</v>
       </c>
       <c r="D596" t="n">
-        <v>321.62</v>
+        <v>321.74</v>
       </c>
       <c r="E596" t="n">
         <v>325.93</v>
@@ -17395,7 +17395,7 @@
         <v>316.72</v>
       </c>
       <c r="D597" t="n">
-        <v>318.35</v>
+        <v>318.47</v>
       </c>
       <c r="E597" t="n">
         <v>323.26</v>
@@ -17425,7 +17425,7 @@
         <v>318.34</v>
       </c>
       <c r="D598" t="n">
-        <v>320.18</v>
+        <v>320.32</v>
       </c>
       <c r="E598" t="n">
         <v>323.88</v>
@@ -17475,7 +17475,7 @@
         <v>308.74</v>
       </c>
       <c r="D600" t="n">
-        <v>314.75</v>
+        <v>314.79</v>
       </c>
       <c r="E600" t="n">
         <v>318.25</v>
@@ -17529,7 +17529,7 @@
         <v>303.36</v>
       </c>
       <c r="D602" t="n">
-        <v>310.39</v>
+        <v>310.42</v>
       </c>
       <c r="E602" t="inlineStr"/>
       <c r="F602" t="inlineStr"/>
@@ -17553,7 +17553,7 @@
         <v>318.91</v>
       </c>
       <c r="D603" t="n">
-        <v>313.46</v>
+        <v>313.51</v>
       </c>
       <c r="E603" t="n">
         <v>322.1</v>
@@ -17583,7 +17583,7 @@
         <v>309.73</v>
       </c>
       <c r="D604" t="n">
-        <v>315.77</v>
+        <v>315.75</v>
       </c>
       <c r="E604" t="n">
         <v>317.17</v>
@@ -17613,7 +17613,7 @@
         <v>304.49</v>
       </c>
       <c r="D605" t="n">
-        <v>317.89</v>
+        <v>317.95</v>
       </c>
       <c r="E605" t="n">
         <v>319.83</v>
@@ -17643,7 +17643,7 @@
         <v>314.57</v>
       </c>
       <c r="D606" t="n">
-        <v>322.27</v>
+        <v>322.38</v>
       </c>
       <c r="E606" t="n">
         <v>321.58</v>
@@ -17673,7 +17673,7 @@
         <v>309.09</v>
       </c>
       <c r="D607" t="n">
-        <v>309.67</v>
+        <v>309.83</v>
       </c>
       <c r="E607" t="n">
         <v>311.02</v>
@@ -17703,7 +17703,7 @@
         <v>325.34</v>
       </c>
       <c r="D608" t="n">
-        <v>337.07</v>
+        <v>336.92</v>
       </c>
       <c r="E608" t="n">
         <v>340.32</v>
@@ -17733,7 +17733,7 @@
         <v>307.2</v>
       </c>
       <c r="D609" t="n">
-        <v>317.75</v>
+        <v>317.85</v>
       </c>
       <c r="E609" t="n">
         <v>320.08</v>
@@ -17763,7 +17763,7 @@
         <v>326.16</v>
       </c>
       <c r="D610" t="n">
-        <v>326.74</v>
+        <v>326.6</v>
       </c>
       <c r="E610" t="n">
         <v>332.48</v>
@@ -17793,7 +17793,7 @@
         <v>308.06</v>
       </c>
       <c r="D611" t="n">
-        <v>323.19</v>
+        <v>323.2</v>
       </c>
       <c r="E611" t="n">
         <v>322.3</v>
@@ -17843,7 +17843,7 @@
         <v>309.72</v>
       </c>
       <c r="D613" t="n">
-        <v>318.36</v>
+        <v>318.41</v>
       </c>
       <c r="E613" t="n">
         <v>320.72</v>
@@ -17873,7 +17873,7 @@
         <v>311.14</v>
       </c>
       <c r="D614" t="n">
-        <v>322.54</v>
+        <v>322.64</v>
       </c>
       <c r="E614" t="n">
         <v>325.43</v>
@@ -17901,7 +17901,7 @@
         <v>336.15</v>
       </c>
       <c r="D615" t="n">
-        <v>358.48</v>
+        <v>358.37</v>
       </c>
       <c r="E615" t="n">
         <v>310</v>
@@ -25472,7 +25472,7 @@
         <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1499472665885156</v>
+        <v>-0.1502922050262578</v>
       </c>
       <c r="J4" t="n">
         <v>614</v>
@@ -25481,19 +25481,19 @@
         <v>535</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01853672812777185</v>
+        <v>0.01872990735694213</v>
       </c>
       <c r="M4" t="n">
-        <v>5.407139451043217</v>
+        <v>5.383256714986844</v>
       </c>
       <c r="N4" t="n">
-        <v>55.7477770354805</v>
+        <v>55.41601877080658</v>
       </c>
       <c r="O4" t="n">
-        <v>7.46644339933549</v>
+        <v>7.444193627976544</v>
       </c>
       <c r="P4" t="n">
-        <v>325.0944349820826</v>
+        <v>325.0877384610949</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -25849,7 +25849,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-45.16754019337475,170.90927540312543</t>
+          <t>-45.16753929486873,170.90927397917696</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -25891,7 +25891,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-45.16741739739272,170.90908079725102</t>
+          <t>-45.1674171577905,170.90908041753303</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -25933,7 +25933,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-45.16751689211294,170.90923847540964</t>
+          <t>-45.16751737131639,170.9092392348482</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -25975,7 +25975,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-45.16749604675844,170.9092054398437</t>
+          <t>-45.167497124966665,170.90920714857927</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -26017,7 +26017,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-45.1675386359643,170.90927293494812</t>
+          <t>-45.167537497856635,170.90927113128018</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -26047,7 +26047,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-45.16750616993462,170.90922148297471</t>
+          <t>-45.16750634963596,170.90922176776408</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -26089,7 +26089,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-45.167453816917266,170.90913851441795</t>
+          <t>-45.167454535723394,170.90913965357328</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -26131,7 +26131,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-45.167486282982914,170.90918996629674</t>
+          <t>-45.16748676218667,170.9091907257345</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -26173,7 +26173,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-45.1674786157222,170.90917781529424</t>
+          <t>-45.16747819641883,170.90917715078638</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -26215,7 +26215,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-45.16748232955177,170.90918370093567</t>
+          <t>-45.16748203004939,170.90918322628713</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -26257,7 +26257,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-45.16751204017781,170.90923078609472</t>
+          <t>-45.16751287878391,170.90923211511202</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -26299,7 +26299,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-45.16753905526711,170.90927359945738</t>
+          <t>-45.167540133474354,170.90927530819553</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -26341,7 +26341,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-45.16751838962369,170.90924084865526</t>
+          <t>-45.16751779061939,170.90923989935698</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -26383,7 +26383,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-45.16755283235772,170.90929543333868</t>
+          <t>-45.167551694250385,170.90929362966983</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -26425,7 +26425,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-45.16751257928174,170.90923164046296</t>
+          <t>-45.16751144117343,170.90922983679667</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -26467,7 +26467,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>-45.16748718148995,170.90919139024254</t>
+          <t>-45.16748819979791,170.90919300404786</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -26509,7 +26509,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-45.1674794543289,170.90917914430997</t>
+          <t>-45.16748017313463,170.90918028346636</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -26551,7 +26551,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-45.16750676893907,170.90922243227257</t>
+          <t>-45.16750718824217,170.90922309678112</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -26593,7 +26593,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-45.16748143104463,170.9091822769901</t>
+          <t>-45.16748083203987,170.90918132769306</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -26635,7 +26635,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-45.16744872537358,170.90913044540167</t>
+          <t>-45.167447647164266,170.909128736669</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -26677,7 +26677,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>-45.16750041949162,170.90921236971616</t>
+          <t>-45.16749952098483,170.90921094576967</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -26719,7 +26719,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>-45.167485144873986,170.9091881626321</t>
+          <t>-45.16748442606831,170.9091870234755</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -26761,7 +26761,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>-45.16748244935271,170.90918389079508</t>
+          <t>-45.16748238945224,170.90918379586537</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -26803,7 +26803,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>-45.167490715617454,170.90919699109654</t>
+          <t>-45.16749077551792,170.90919708602627</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -26845,7 +26845,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>-45.16745633273866,170.9091425014618</t>
+          <t>-45.16745693174373,170.909143450758</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -26887,7 +26887,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>-45.16750323481275,170.90921683141542</t>
+          <t>-45.16750263580827,170.90921588211768</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -26929,7 +26929,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>-45.16742117112766,170.90908677780928</t>
+          <t>-45.16742135082932,170.9090870625978</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -26971,7 +26971,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>-45.16748993691142,170.90919575701</t>
+          <t>-45.167490176513276,170.90919613672895</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -27013,7 +27013,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>-45.16749209332811,170.90919917448048</t>
+          <t>-45.16749305173549,170.90920069335633</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -27055,7 +27055,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>-45.16755834319283,170.90930416689417</t>
+          <t>-45.16755732488639,170.9093025530849</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -27097,7 +27097,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>-45.167477178110666,170.90917553698162</t>
+          <t>-45.16747615980248,170.90917392317692</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -27139,7 +27139,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>-45.16747981373175,170.90917971388816</t>
+          <t>-45.16747957412986,170.90917933416938</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -27181,7 +27181,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>-45.16745818965435,170.9091454442801</t>
+          <t>-45.16745848915688,170.90914591892823</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -27223,7 +27223,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>-45.167497963573034,170.90920847759588</t>
+          <t>-45.167498442776676,170.90920923703396</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -27265,7 +27265,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>-45.16744387343145,170.90912275610518</t>
+          <t>-45.167444712038765,170.9091240851193</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -27307,7 +27307,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>-45.16747562069813,170.90917306880976</t>
+          <t>-45.16747580039959,170.90917335359882</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -27383,7 +27383,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>-45.16756289562136,170.9093113815717</t>
+          <t>-45.16756193721539,170.9093098626921</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -27425,7 +27425,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>-45.16747663900633,170.90917468261443</t>
+          <t>-45.16747657910585,170.90917458768476</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -27467,7 +27467,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>-45.167509704060706,170.90922708383246</t>
+          <t>-45.16750976396116,170.90922717876225</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -27509,7 +27509,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>-45.16750461252305,170.90921901480033</t>
+          <t>-45.1675037739168,170.90921768578343</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -27551,7 +27551,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>-45.1674730449773,170.90916898683352</t>
+          <t>-45.16747214646999,170.90916756288843</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -27593,7 +27593,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>-45.16748280875555,170.90918446037333</t>
+          <t>-45.167483228058884,170.90918512488128</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -27635,7 +27635,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>-45.16747753751356,170.90917610655978</t>
+          <t>-45.167478076617876,170.909176960927</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -27673,7 +27673,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>-45.16747112816169,170.909165949084</t>
+          <t>-45.16747118806218,170.9091660440137</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -27715,7 +27715,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>-45.1675171916151,170.90923895005875</t>
+          <t>-45.167516353009056,170.90923762104123</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -27757,7 +27757,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>-45.16746609652037,170.9091579749925</t>
+          <t>-45.16746525791343,170.90915664597736</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -27799,7 +27799,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>-45.167536838952174,170.90927008705137</t>
+          <t>-45.16753743795623,170.90927103635028</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -27841,7 +27841,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>-45.16751078226861,170.90922879256883</t>
+          <t>-45.16750988376202,170.90922736862183</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -27883,7 +27883,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>-45.16749466904791,170.90920325645945</t>
+          <t>-45.16749514825157,170.90920401589744</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -27925,7 +27925,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>-45.1675064095364,170.90922186269387</t>
+          <t>-45.16750652933729,170.90922205255345</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -27967,7 +27967,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>-45.1675592416985,170.9093055908436</t>
+          <t>-45.16755942139963,170.90930587563346</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -28009,7 +28009,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>-45.167527434587576,170.90925518306136</t>
+          <t>-45.16752815339258,170.90925632221968</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -28051,7 +28051,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>-45.16750646943684,170.90922195762366</t>
+          <t>-45.16750622983506,170.9092215779045</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -28093,7 +28093,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>-45.167515274801275,170.90923591230452</t>
+          <t>-45.16751521490085,170.9092358173747</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -28131,7 +28131,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>-45.16746981035093,170.90916386063134</t>
+          <t>-45.16746957074896,170.90916348091267</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -28203,7 +28203,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>-45.16747873552316,170.90917800515362</t>
+          <t>-45.16747753751356,170.90917610655978</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -28245,7 +28245,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>-45.16751952773183,170.90924265232198</t>
+          <t>-45.1675190485284,170.90924189288336</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -28287,7 +28287,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>-45.16746759403272,170.90916034823388</t>
+          <t>-45.16746849254012,170.90916177217875</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -28329,7 +28329,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>-45.16751401689218,170.9092339187784</t>
+          <t>-45.16751461589652,170.90923486807657</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -28371,7 +28371,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>-45.16749808337396,170.9092086674554</t>
+          <t>-45.16749730466803,170.90920743336855</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -28413,7 +28413,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>-45.167604885763765,170.90937792753343</t>
+          <t>-45.167605484766966,170.90937887683455</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -28455,7 +28455,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>-45.16751281888348,170.9092320201822</t>
+          <t>-45.16751215997867,170.90923097595433</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -28507,7 +28507,7 @@
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
-          <t>-45.16748394686455,170.9091862640378</t>
+          <t>-45.167484545869264,170.90918721333495</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -28549,7 +28549,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>-45.16744411303354,170.90912313582348</t>
+          <t>-45.167443933331974,170.90912285103474</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -28591,7 +28591,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>-45.16758116523141,170.90934033522342</t>
+          <t>-45.16758020682583,170.9093388163429</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -28659,7 +28659,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>-45.16746148418202,170.90915066540984</t>
+          <t>-45.167460346072495,170.9091488617468</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -28701,7 +28701,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>-45.167484605769744,170.90918730826465</t>
+          <t>-45.16748508497351,170.9091880677024</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -28743,7 +28743,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>-45.16742847899445,170.9090983592101</t>
+          <t>-45.16742805969065,170.9090976947034</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -28785,7 +28785,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>-45.16749538785341,170.90920439561646</t>
+          <t>-45.167495627455246,170.90920477533547</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -28827,7 +28827,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>-45.1675194678314,170.90924255739213</t>
+          <t>-45.16752042623822,170.90924407626946</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -28857,7 +28857,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>-45.16752258265352,170.9092474937436</t>
+          <t>-45.167521863848435,170.90924635458555</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -28899,7 +28899,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>-45.16753258602319,170.9092633470298</t>
+          <t>-45.167532166720314,170.90926268252068</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -28933,7 +28933,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>-45.16750646943684,170.90922195762366</t>
+          <t>-45.16750664913818,170.909222242413</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -28975,7 +28975,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>-45.167528812297164,170.90925736644814</t>
+          <t>-45.16752899199842,170.90925765123774</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -29009,7 +29009,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>-45.16749946108439,170.9092108508399</t>
+          <t>-45.1675000600889,170.90921180013757</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -29047,7 +29047,7 @@
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
         <is>
-          <t>-45.16754690221921,170.90928603527544</t>
+          <t>-45.167545764111736,170.90928423160696</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -29085,7 +29085,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>-45.16745938766443,170.90914734287267</t>
+          <t>-45.16745992676898,170.90914819723935</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -29123,7 +29123,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>-45.167507847147036,170.90922414100882</t>
+          <t>-45.167507787246585,170.909224046079</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -29165,7 +29165,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>-45.1675352216412,170.90926752394446</t>
+          <t>-45.16753474243793,170.9092667645054</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -29207,7 +29207,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>-45.16757499549505,170.9093305574308</t>
+          <t>-45.167575055395396,170.9093306523608</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -29249,7 +29249,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>-45.16751257928174,170.90923164046296</t>
+          <t>-45.16751335798739,170.90923287455047</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -29325,7 +29325,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>-45.167509943662466,170.90922746355164</t>
+          <t>-45.1675106025673,170.90922850777943</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -29359,7 +29359,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>-45.16743710467183,170.90911202906406</t>
+          <t>-45.16743692497023,170.9091117442754</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -29397,7 +29397,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>-45.16752491876998,170.90925119600755</t>
+          <t>-45.167524140064515,170.90924996191953</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -29439,7 +29439,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>-45.16746376040099,170.9091542727362</t>
+          <t>-45.16746417970449,170.90915493724373</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -29481,7 +29481,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>-45.167499820487095,170.9092114204185</t>
+          <t>-45.16750065909342,170.90921274943523</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -29523,7 +29523,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>-45.16749670566347,170.909206484071</t>
+          <t>-45.167497184867116,170.90920724350903</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -29561,7 +29561,7 @@
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
-          <t>-45.167523660861136,170.90924920248077</t>
+          <t>-45.167523421259446,170.90924882276138</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -29617,7 +29617,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>-45.1673637264633,170.908995740508</t>
+          <t>-45.1673642056683,170.90899649994248</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -29655,7 +29655,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>-45.16742740078467,170.90909665047863</t>
+          <t>-45.16742782008848,170.9090973149853</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -29719,7 +29719,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>-45.16747190686804,170.90916718316973</t>
+          <t>-45.167472685574374,170.9091684172555</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -29753,7 +29753,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>-45.1675609788094,170.9093083438126</t>
+          <t>-45.167559780801895,170.90930644521328</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -29795,7 +29795,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>-45.167537198354594,170.90927065663072</t>
+          <t>-45.16753779735865,170.9092716059296</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -29833,7 +29833,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>-45.167483228058884,170.90918512488128</t>
+          <t>-45.16748328795934,170.909185219811</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -29875,7 +29875,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>-45.16748191024844,170.90918303642772</t>
+          <t>-45.16748268895461,170.9091842705139</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -29917,7 +29917,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>-45.167479214726974,170.9091787645912</t>
+          <t>-45.16747837612028,170.90917743557546</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -30019,7 +30019,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>-45.167497843772125,170.90920828773636</t>
+          <t>-45.16749760417031,170.90920790801735</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -30061,7 +30061,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>-45.16748071223893,170.90918113783366</t>
+          <t>-45.16748155084559,170.9091824668495</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -30155,7 +30155,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>-45.16751162087475,170.9092301215861</t>
+          <t>-45.16751078226861,170.90922879256883</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -30197,7 +30197,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>-45.16750760754527,170.90922376128964</t>
+          <t>-45.16750844615145,170.90922509030673</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -30227,7 +30227,7 @@
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr">
         <is>
-          <t>-45.16750982386159,170.90922727369204</t>
+          <t>-45.16751042286598,170.90922822299004</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -30269,7 +30269,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>-45.167503115011854,170.90921664155587</t>
+          <t>-45.16750383381724,170.90921778071322</t>
         </is>
       </c>
       <c r="E114" t="inlineStr"/>
@@ -30337,7 +30337,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>-45.16750551102974,170.9092204387471</t>
+          <t>-45.16750622983506,170.9092215779045</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -30401,7 +30401,7 @@
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr">
         <is>
-          <t>-45.16749760417031,170.90920790801735</t>
+          <t>-45.16749802347349,170.90920857252564</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -30465,7 +30465,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>-45.16731844156917,170.9089239740058</t>
+          <t>-45.16731898067531,170.90892482836824</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -30507,7 +30507,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>-45.16746405990349,170.90915474738443</t>
+          <t>-45.16746376040099,170.9091542727362</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -30549,7 +30549,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>-45.16745992676898,170.90914819723935</t>
+          <t>-45.167459447564944,170.9091474378023</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -30591,7 +30591,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>-45.16746358069951,170.90915398794726</t>
+          <t>-45.167464000003,170.9091546524548</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -30625,7 +30625,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>-45.16753354442975,170.9092648659078</t>
+          <t>-45.16753324492771,170.90926439125846</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -30667,7 +30667,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>-45.16745705154474,170.90914364061726</t>
+          <t>-45.16745717134575,170.9091438304765</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -30705,7 +30705,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>-45.167467474231735,170.90916015837456</t>
+          <t>-45.167466396022846,170.90915844964078</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -30747,7 +30747,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>-45.16751898862797,170.9092417979535</t>
+          <t>-45.1675197074331,170.90924293711146</t>
         </is>
       </c>
       <c r="E127" t="inlineStr"/>
@@ -30781,7 +30781,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>-45.167515394602155,170.90923610216413</t>
+          <t>-45.167514376294776,170.90923448835727</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -30823,7 +30823,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>-45.1674368650697,170.90911164934587</t>
+          <t>-45.16743680516917,170.9091115544163</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -30861,7 +30861,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>-45.16751749111725,170.90923942470786</t>
+          <t>-45.1675170119138,170.90923866526927</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -30903,7 +30903,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>-45.16754294879314,170.90927976990102</t>
+          <t>-45.16754312849432,170.90928005469075</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -30941,7 +30941,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>-45.16752791379091,170.90925594250024</t>
+          <t>-45.167527314786746,170.90925499320167</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -30983,7 +30983,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>-45.16748790029557,170.90919252939923</t>
+          <t>-45.167488379499304,170.90919328883706</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -31025,7 +31025,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>-45.16746951084846,170.90916338598302</t>
+          <t>-45.16747022965436,170.909164525139</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -31063,7 +31063,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>-45.167478795423634,170.90917810008332</t>
+          <t>-45.16747927462747,170.90917885952086</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -31105,7 +31105,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>-45.16749383044148,170.909201927443</t>
+          <t>-45.167493111635956,170.90920078828609</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -31173,7 +31173,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>-45.167497963573034,170.90920847759588</t>
+          <t>-45.167498562577585,170.90920942689348</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -31211,7 +31211,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>-45.16741949391217,170.9090841197833</t>
+          <t>-45.16741913450885,170.9090835502063</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -31249,7 +31249,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>-45.167460465873496,170.90914905160605</t>
+          <t>-45.16746118467952,170.90915019076166</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -31317,7 +31317,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>-45.16746501831144,170.90915626625878</t>
+          <t>-45.16746585691838,170.90915759527388</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -31359,7 +31359,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>-45.16750185710243,170.90921464803063</t>
+          <t>-45.167501018496125,170.90921331901384</t>
         </is>
       </c>
       <c r="E143" t="inlineStr"/>
@@ -31389,7 +31389,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>-45.16748831959884,170.90919319390733</t>
+          <t>-45.1674887389021,170.90919385841542</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -31431,7 +31431,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>-45.16751611340734,170.90923724132196</t>
+          <t>-45.16751605350691,170.90923714639214</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -31469,7 +31469,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>-45.1675707425695,170.90932381740018</t>
+          <t>-45.16756984406405,170.90932239345017</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -31507,7 +31507,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>-45.16749934128348,170.9092106609804</t>
+          <t>-45.16749988038755,170.90921151534826</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -31549,7 +31549,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>-45.16756810695347,170.9093196404803</t>
+          <t>-45.167568047053095,170.90931954555032</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -31613,7 +31613,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>-45.16754085227916,170.90927644735436</t>
+          <t>-45.16754037307596,170.90927568791514</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -31651,7 +31651,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>-45.16746543761492,170.90915693076633</t>
+          <t>-45.167465916818884,170.90915769020356</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -31693,7 +31693,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>-45.167527194985915,170.90925480334195</t>
+          <t>-45.16752677568298,170.90925413883295</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -31757,7 +31757,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>-45.167406555390684,170.90906361501658</t>
+          <t>-45.16740745389925,170.9090650389584</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -31889,7 +31889,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>-45.16748604338103,170.90918958657784</t>
+          <t>-45.167486103281504,170.90918968150757</t>
         </is>
       </c>
       <c r="E158" t="inlineStr"/>
@@ -31923,7 +31923,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>-45.16745717134575,170.9091438304765</t>
+          <t>-45.16745633273866,170.9091425014618</t>
         </is>
       </c>
       <c r="E159" t="inlineStr"/>
@@ -31953,7 +31953,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>-45.16746771383371,170.90916053809318</t>
+          <t>-45.167468013336176,170.90916101274146</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -32021,7 +32021,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>-45.16748843939977,170.90919338376676</t>
+          <t>-45.16748939780723,170.90919490264244</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -32063,7 +32063,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>-45.167442735321494,170.9091209524432</t>
+          <t>-45.16744183681361,170.90911952849962</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -32119,7 +32119,7 @@
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="inlineStr">
         <is>
-          <t>-45.16746837273914,170.90916158231943</t>
+          <t>-45.1674686123411,170.90916196203807</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -32183,7 +32183,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>-45.167420033017166,170.90908497414878</t>
+          <t>-45.16741997311661,170.90908487921928</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -32225,7 +32225,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>-45.167473464280704,170.90916965134127</t>
+          <t>-45.1674738835841,170.909170315849</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -32267,7 +32267,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>-45.167442555619914,170.9091206676545</t>
+          <t>-45.167441776913094,170.90911943357005</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -32305,7 +32305,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>-45.16748532457539,170.90918844742126</t>
+          <t>-45.16748418646644,170.90918664375664</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -32347,7 +32347,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>-45.16743375024192,170.90910671300927</t>
+          <t>-45.167433151236565,170.90910576371382</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -32389,7 +32389,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>-45.16747927462747,170.90917885952086</t>
+          <t>-45.16747975383128,170.90917961895846</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -32431,7 +32431,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>-45.16749916158211,170.9092103761911</t>
+          <t>-45.167498802179395,170.90920980661255</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -32473,7 +32473,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>-45.16745393671829,170.90913870427715</t>
+          <t>-45.16745441592237,170.90913946371407</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -32515,7 +32515,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>-45.1674113474361,170.9090712093735</t>
+          <t>-45.16741122763498,170.90907101951458</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -32587,7 +32587,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>-45.167481610746066,170.90918256177918</t>
+          <t>-45.16748250925318,170.90918398572478</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -32651,7 +32651,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>-45.167484845371625,170.90918768798352</t>
+          <t>-45.16748562407775,170.90918892206983</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -32685,7 +32685,7 @@
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="inlineStr">
         <is>
-          <t>-45.16755001703953,170.90929097163163</t>
+          <t>-45.16754887893213,170.90928916796298</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -32727,7 +32727,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>-45.167541990386766,170.9092782510225</t>
+          <t>-45.167541151781165,170.90927692200387</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -32769,7 +32769,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>-45.16743243243011,170.90910462455935</t>
+          <t>-45.1674314740215,170.9091031056867</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -32807,7 +32807,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>-45.16747166726609,170.90916680345106</t>
+          <t>-45.16747190686804,170.90916718316973</t>
         </is>
       </c>
       <c r="E183" t="inlineStr"/>
@@ -32837,7 +32837,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>-45.16749670566347,170.909206484071</t>
+          <t>-45.16749676556393,170.90920657900077</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -32879,7 +32879,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>-45.167460346072495,170.9091488617468</t>
+          <t>-45.16745998666946,170.909148292169</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -32921,7 +32921,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>-45.16744123780835,170.9091185792039</t>
+          <t>-45.16744207641571,170.90911990821792</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -32963,7 +32963,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>-45.167452978310116,170.90913718540338</t>
+          <t>-45.167453277812676,170.90913766005144</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -33005,7 +33005,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>-45.167554150166175,170.90929752179744</t>
+          <t>-45.16755474917001,170.90929847109692</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -33047,7 +33047,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>-45.167486582485274,170.90919044094534</t>
+          <t>-45.167487421091835,170.90919176996144</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -33089,7 +33089,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>-45.16748131124368,170.9091820871307</t>
+          <t>-45.16748167064654,170.9091826567089</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -33131,7 +33131,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>-45.167525218272075,170.9092516706568</t>
+          <t>-45.167524858869555,170.9092511010777</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -33173,7 +33173,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>-45.167472206370476,170.9091676578181</t>
+          <t>-45.16747238607194,170.90916794260713</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -33211,7 +33211,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>-45.167528812297164,170.90925736644814</t>
+          <t>-45.167528213293004,170.90925641714952</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -33287,7 +33287,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>-45.16749371064056,170.90920173758354</t>
+          <t>-45.1674925725318,170.9091999339184</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -33321,7 +33321,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>-45.16744171701255,170.90911933864047</t>
+          <t>-45.16744249571939,170.9091205727249</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -33363,7 +33363,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>-45.167493650740106,170.90920164265378</t>
+          <t>-45.167492692332715,170.9092001237779</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -33405,7 +33405,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>-45.16743039581179,170.90910139695507</t>
+          <t>-45.16743009630908,170.9091009223074</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -33447,7 +33447,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>-45.167432372529575,170.9091045296298</t>
+          <t>-45.16743243243011,170.90910462455935</t>
         </is>
       </c>
       <c r="E199" t="inlineStr"/>
@@ -33481,7 +33481,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>-45.167452978310116,170.90913718540338</t>
+          <t>-45.167453397613684,170.90913784991065</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -33523,7 +33523,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>-45.167460765376006,170.90914952625423</t>
+          <t>-45.16746142428153,170.90915057048022</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -33587,7 +33587,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>-45.16751665251122,170.90923809569034</t>
+          <t>-45.16751521490085,170.9092358173747</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -33629,7 +33629,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>-45.167468792042584,170.90916224682707</t>
+          <t>-45.16746951084846,170.90916338598302</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -33701,7 +33701,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>-45.16755127494768,170.90929296516026</t>
+          <t>-45.16755043634225,170.90929163614118</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -33743,7 +33743,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>-45.16751767081853,170.9092397094973</t>
+          <t>-45.167518689125835,170.90924132330437</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -33785,7 +33785,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>-45.16753246622236,170.90926315717005</t>
+          <t>-45.16753138801496,170.90926144843237</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -33827,7 +33827,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>-45.167448964975655,170.90913082512006</t>
+          <t>-45.16744944417979,170.90913158455683</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -33869,7 +33869,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>-45.167502096704226,170.90921502774972</t>
+          <t>-45.16750185710243,170.90921464803063</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -33911,7 +33911,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>-45.16750053929251,170.9092125595757</t>
+          <t>-45.1675001798898,170.9092119899971</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -33953,7 +33953,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>-45.16749239283042,170.9091996491292</t>
+          <t>-45.16749215322857,170.90919926941024</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -33995,7 +33995,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>-45.16742847899445,170.9090983592101</t>
+          <t>-45.16742889829825,170.90909902371678</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -34037,7 +34037,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>-45.16756642974319,170.9093169824406</t>
+          <t>-45.16756541143694,170.90931536863084</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -34101,7 +34101,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>-45.167352165641255,170.90897741915467</t>
+          <t>-45.16735126713167,170.90897599521557</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -34143,7 +34143,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>-45.1674989219803,170.90920999647207</t>
+          <t>-45.167499820487095,170.9092114204185</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -34185,7 +34185,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>-45.16750461252305,170.90921901480033</t>
+          <t>-45.16750425312036,170.90921844522168</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -34227,7 +34227,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>-45.16748993691142,170.90919575701</t>
+          <t>-45.16749005671235,170.9091959468695</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -34269,7 +34269,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>-45.16746831283863,170.90916148738978</t>
+          <t>-45.167467833634696,170.9091607279525</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -34311,7 +34311,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>-45.167473104877786,170.9091690817632</t>
+          <t>-45.1674734043802,170.90916955641157</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -34353,7 +34353,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>-45.16756654954393,170.90931717230058</t>
+          <t>-45.1675651119351,170.90931489398093</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -34395,7 +34395,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>-45.16748382706359,170.9091860741784</t>
+          <t>-45.167484665670216,170.90918740319435</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -34437,7 +34437,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>-45.16747496179281,170.90917202458326</t>
+          <t>-45.1674757404991,170.90917325866914</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -34475,7 +34475,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>-45.16748448596881,170.9091871184052</t>
+          <t>-45.16748442606831,170.9091870234755</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -34517,7 +34517,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>-45.16743446904836,170.9091078521638</t>
+          <t>-45.167434768551026,170.90910832681155</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -34559,7 +34559,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>-45.167453277812676,170.90913766005144</t>
+          <t>-45.167453816917266,170.90913851441795</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -34601,7 +34601,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>-45.16745926786344,170.90914715301344</t>
+          <t>-45.167458908460404,170.90914658343564</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -34643,7 +34643,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>-45.16751162087475,170.9092301215861</t>
+          <t>-45.16751090206949,170.90922898242843</t>
         </is>
       </c>
       <c r="E229" t="inlineStr"/>
@@ -34673,7 +34673,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>-45.167464958410946,170.90915617132913</t>
+          <t>-45.16746513811243,170.90915645611807</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -34711,7 +34711,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>-45.167453517414714,170.90913803976986</t>
+          <t>-45.167452259503975,170.90913604624808</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -34753,7 +34753,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>-45.16747358408166,170.90916984120062</t>
+          <t>-45.16747448258895,170.9091712651458</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -34795,7 +34795,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>-45.167425483967214,170.90909361273398</t>
+          <t>-45.167424825061204,170.90909256850932</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -34837,7 +34837,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>-45.167463520799004,170.90915389301765</t>
+          <t>-45.16746394010249,170.90915455752514</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -34905,7 +34905,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>-45.16748274885508,170.9091843654436</t>
+          <t>-45.167482269651295,170.90918360600594</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -34973,7 +34973,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>-45.16746753413223,170.90916025330424</t>
+          <t>-45.16746777373421,170.90916063302285</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -35037,7 +35037,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>-45.16743860218509,170.90911440230303</t>
+          <t>-45.16743824278191,170.9091138327257</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -35079,7 +35079,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>-45.16741140733666,170.909071304303</t>
+          <t>-45.167411766740045,170.9090718738798</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -35121,7 +35121,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>-45.16747040935582,170.909164809928</t>
+          <t>-45.167470888559734,170.90916556936534</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -35163,7 +35163,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>-45.16748813989744,170.90919290911813</t>
+          <t>-45.16748879880257,170.90919395334512</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -35197,7 +35197,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>-45.16746945094798,170.90916329105335</t>
+          <t>-45.16747022965436,170.909164525139</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -35239,7 +35239,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>-45.167469271246496,170.90916300626438</t>
+          <t>-45.16746963064945,170.90916357584234</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -35323,7 +35323,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>-45.16748059243796,170.90918094797425</t>
+          <t>-45.1674810117413,170.90918161248217</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -35365,7 +35365,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>-45.16752390046282,170.90924958220015</t>
+          <t>-45.167523600960706,170.90924910755092</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -35407,7 +35407,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>-45.16741925430995,170.90908374006528</t>
+          <t>-45.167418894906625,170.90908317048834</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -35449,7 +35449,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>-45.16746615642087,170.90915806992217</t>
+          <t>-45.16746543761492,170.90915693076633</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -35491,7 +35491,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>-45.167444712038765,170.9091240851193</t>
+          <t>-45.16744549074556,170.90912531920387</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -35533,7 +35533,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>-45.16751323818653,170.90923268469086</t>
+          <t>-45.167512219879114,170.90923107088412</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -35575,7 +35575,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>-45.167418835006075,170.90908307555884</t>
+          <t>-45.16741967361383,170.9090844045718</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -35617,7 +35617,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>-45.16746094507751,170.90914981104314</t>
+          <t>-45.16746124458001,170.90915028569128</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -35659,7 +35659,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>-45.16753629984851,170.9092692326824</t>
+          <t>-45.16753582064527,170.90926847324332</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -35701,7 +35701,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>-45.16747813651836,170.90917705585667</t>
+          <t>-45.16747777711547,170.90917648627854</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -35743,7 +35743,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>-45.167540912179575,170.90927654228426</t>
+          <t>-45.16754163098436,170.9092776814431</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
@@ -35785,7 +35785,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>-45.167460765376006,170.90914952625423</t>
+          <t>-45.16746118467952,170.90915019076166</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -35827,7 +35827,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>-45.16751419659349,170.90923420356785</t>
+          <t>-45.16751311838565,170.90923249483126</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -35869,7 +35869,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>-45.167511021870375,170.90922917228804</t>
+          <t>-45.16751192037693,170.90923059623512</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -35911,7 +35911,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>-45.16750485212482,170.90921939451945</t>
+          <t>-45.16750557093018,170.90922053367686</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
@@ -35979,7 +35979,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>-45.16747184696755,170.90916708824005</t>
+          <t>-45.16747208656951,170.90916746795875</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
@@ -36021,7 +36021,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>-45.1674786157222,170.90917781529424</t>
+          <t>-45.16747849592124,170.90917762543484</t>
         </is>
       </c>
       <c r="E264" t="inlineStr"/>
@@ -36055,7 +36055,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>-45.167451900100886,170.90913547667046</t>
+          <t>-45.167452559006534,170.90913652089614</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
@@ -36097,7 +36097,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>-45.16745639263916,170.9091425963914</t>
+          <t>-45.1674559134351,170.90914183695446</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
@@ -36139,7 +36139,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>-45.16745968716696,170.90914781752085</t>
+          <t>-45.16745860895788,170.9091461087875</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -36177,7 +36177,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>-45.1675171916151,170.90923895005875</t>
+          <t>-45.167515933706035,170.90923695653248</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -36249,7 +36249,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>-45.167515514403014,170.9092362920238</t>
+          <t>-45.16751653271035,170.90923790583068</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -36291,7 +36291,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>-45.167458069853346,170.90914525442085</t>
+          <t>-45.167459028261405,170.90914677329488</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
@@ -36333,7 +36333,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>-45.167458908460404,170.90914658343564</t>
+          <t>-45.16745789015183,170.90914496963197</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
@@ -36371,7 +36371,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>-45.16741901470773,170.90908336034732</t>
+          <t>-45.16741955381272,170.90908421471278</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -36413,7 +36413,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>-45.16748232955177,170.90918370093567</t>
+          <t>-45.16748143104463,170.9091822769901</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
@@ -36455,7 +36455,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>-45.16747472219088,170.90917164486453</t>
+          <t>-45.16747508159379,170.90917221444263</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
@@ -36489,7 +36489,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>-45.167448665473074,170.90913035047205</t>
+          <t>-45.167448964975655,170.90913082512006</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -36561,7 +36561,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>-45.16744447243667,170.90912370540096</t>
+          <t>-45.167443993232496,170.90912294596433</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
@@ -36603,7 +36603,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>-45.167495926957514,170.9092052499842</t>
+          <t>-45.167494908649736,170.90920363617846</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -36645,7 +36645,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>-45.16743728437342,170.90911231385275</t>
+          <t>-45.16743788337874,170.90911326314833</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
@@ -36687,7 +36687,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>-45.16744261552044,170.90912076258405</t>
+          <t>-45.16744333432674,170.90912190173898</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
@@ -36721,7 +36721,7 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>-45.16748778049463,170.9091923395398</t>
+          <t>-45.16748676218667,170.9091907257345</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
@@ -36819,7 +36819,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>-45.16747723801115,170.9091756319113</t>
+          <t>-45.16747687860826,170.90917506233316</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
@@ -36861,7 +36861,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>-45.16745429612136,170.90913927385483</t>
+          <t>-45.16745477532543,170.90914003329175</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
@@ -36899,7 +36899,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>-45.16741655878493,170.90907946823816</t>
+          <t>-45.16741607958046,170.90907870880227</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
@@ -36941,7 +36941,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>-45.16757846971562,170.90933606337202</t>
+          <t>-45.16757715190785,170.90933397491148</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
@@ -36975,7 +36975,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>-45.16745130109575,170.90913452737442</t>
+          <t>-45.16745046248855,170.90913319836</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
@@ -37017,7 +37017,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>-45.16750059919296,170.90921265450547</t>
+          <t>-45.167499580885284,170.90921104069946</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
@@ -37081,7 +37081,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>-45.167467653933215,170.90916044316356</t>
+          <t>-45.16746687522679,170.909159209078</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
@@ -37123,7 +37123,7 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>-45.16750599023329,170.90922119818535</t>
+          <t>-45.16750563083061,170.90922062860665</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
@@ -37233,7 +37233,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>-45.16749874227894,170.9092097116828</t>
+          <t>-45.16749772397122,170.90920809787687</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
@@ -37271,7 +37271,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>-45.1674529184096,170.9091370904738</t>
+          <t>-45.167453517414714,170.90913803976986</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
@@ -37313,7 +37313,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>-45.16748933790677,170.9091948077127</t>
+          <t>-45.16748993691142,170.90919575701</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
@@ -37355,7 +37355,7 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>-45.16748424636691,170.90918673868637</t>
+          <t>-45.16748448596881,170.9091871184052</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
@@ -37397,7 +37397,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>-45.16747142766414,170.90916642373236</t>
+          <t>-45.16747130786317,170.909166233873</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
@@ -37469,7 +37469,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>-45.16748280875555,170.90918446037333</t>
+          <t>-45.1674831681584,170.90918502995157</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
@@ -37533,7 +37533,7 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>-45.16745549413154,170.90914117244714</t>
+          <t>-45.16745495502696,170.9091403180806</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
@@ -37575,7 +37575,7 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>-45.16747957412986,170.90917933416938</t>
+          <t>-45.167478795423634,170.90917810008332</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
@@ -37617,7 +37617,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>-45.16742338744804,170.90909029020102</t>
+          <t>-45.16742356714968,170.90909057498956</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
@@ -37655,7 +37655,7 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>-45.16744183681361,170.90911952849962</t>
+          <t>-45.16744081850465,170.9091179146969</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
@@ -37693,7 +37693,7 @@
       <c r="C308" t="inlineStr"/>
       <c r="D308" t="inlineStr">
         <is>
-          <t>-45.16742069192324,170.90908601837327</t>
+          <t>-45.16741937411106,170.9090839299243</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
@@ -37735,7 +37735,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>-45.167457111445245,170.90914373554688</t>
+          <t>-45.16745783025131,170.90914487470235</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
@@ -37777,7 +37777,7 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>-45.167446149651276,170.9091263634293</t>
+          <t>-45.16744531104399,170.9091250344151</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
@@ -37845,7 +37845,7 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>-45.16744872537358,170.90913044540167</t>
+          <t>-45.16744920457772,170.90913120483845</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
@@ -37887,7 +37887,7 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>-45.167462023286525,170.90915151977657</t>
+          <t>-45.16746220298802,170.9091518045655</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
@@ -37929,7 +37929,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>-45.167452978310116,170.90913718540338</t>
+          <t>-45.16745249910602,170.90913642596652</t>
         </is>
       </c>
       <c r="E314" t="inlineStr"/>
@@ -38005,7 +38005,7 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>-45.16750425312036,170.90921844522168</t>
+          <t>-45.16750497192572,170.90921958437903</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
@@ -38043,7 +38043,7 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>-45.16750862585277,170.90922537509613</t>
+          <t>-45.1675076674457,170.90922385621943</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
@@ -38085,7 +38085,7 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>-45.16753480233835,170.9092668594353</t>
+          <t>-45.16753558104364,170.90926809352376</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
@@ -38127,7 +38127,7 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>-45.16746759403272,170.90916034823388</t>
+          <t>-45.16746711482879,170.9091595887966</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
@@ -38169,7 +38169,7 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>-45.16750407341903,170.90921816043235</t>
+          <t>-45.1675044328217,170.909218730011</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
@@ -38211,7 +38211,7 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>-45.16756253621914,170.90931081199187</t>
+          <t>-45.167562356518,170.90931052720194</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
@@ -38245,7 +38245,7 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>-45.167508745653656,170.9092255649557</t>
+          <t>-45.167508146649254,170.90922461565776</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
@@ -38287,7 +38287,7 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>-45.16745333771318,170.90913775498103</t>
+          <t>-45.16745243920551,170.9091363310369</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
@@ -38329,7 +38329,7 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>-45.16747969393081,170.90917952402876</t>
+          <t>-45.167480532537496,170.90918085304455</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
@@ -38371,7 +38371,7 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>-45.16746465890846,170.9091556966809</t>
+          <t>-45.16746429950548,170.909155127103</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
@@ -38455,7 +38455,7 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>-45.16742985670692,170.90910054258927</t>
+          <t>-45.16742997650799,170.90910073244834</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
@@ -38497,7 +38497,7 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>-45.16746615642087,170.90915806992217</t>
+          <t>-45.167464958410946,170.90915617132913</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
@@ -38539,7 +38539,7 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>-45.167432132927416,170.90910414991163</t>
+          <t>-45.167430994817174,170.90910234625042</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
@@ -38611,7 +38611,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>-45.16750712834172,170.90922300185133</t>
+          <t>-45.167506110034175,170.90922138804493</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
@@ -38653,7 +38653,7 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>-45.167460465873496,170.90914905160605</t>
+          <t>-45.167461064878516,170.9091500009024</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
@@ -38695,7 +38695,7 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>-45.16743752397555,170.90911269357096</t>
+          <t>-45.16743692497023,170.9091117442754</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
@@ -38737,7 +38737,7 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>-45.16746597671938,170.90915778513317</t>
+          <t>-45.16746627622185,170.90915825978146</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
@@ -38831,7 +38831,7 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>-45.16741194644174,170.90907215866824</t>
+          <t>-45.167412245944554,170.90907263331562</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
@@ -38869,7 +38869,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>-45.16761141489811,170.90938827491715</t>
+          <t>-45.167610815894996,170.9093873256158</t>
         </is>
       </c>
       <c r="E338" t="inlineStr"/>
@@ -38899,7 +38899,7 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>-45.16741344395581,170.9090745319051</t>
+          <t>-45.16741260534793,170.90907320289244</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
@@ -38941,7 +38941,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>-45.16746963064945,170.90916357584234</t>
+          <t>-45.1674686123411,170.90916196203807</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -38983,7 +38983,7 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>-45.167500000188454,170.9092117052078</t>
+          <t>-45.16749862247802,170.90920952182327</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
@@ -39025,7 +39025,7 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>-45.16746094507751,170.90914981104314</t>
+          <t>-45.16746172378403,170.9091510451284</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
@@ -39067,7 +39067,7 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>-45.167493590839634,170.90920154772402</t>
+          <t>-45.16749275223319,170.90920021870764</t>
         </is>
       </c>
       <c r="E343" t="inlineStr"/>
@@ -39101,7 +39101,7 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>-45.16746405990349,170.90915474738443</t>
+          <t>-45.16746286189352,170.90915284879156</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
@@ -39143,7 +39143,7 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>-45.167453457514206,170.90913794484027</t>
+          <t>-45.16745285850908,170.90913699554417</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
@@ -39181,7 +39181,7 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>-45.16742284834309,170.90908943583545</t>
+          <t>-45.16742218943703,170.90908839161088</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
@@ -39223,7 +39223,7 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>-45.167480472637024,170.90918075811484</t>
+          <t>-45.16748059243796,170.90918094797425</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
@@ -39295,7 +39295,7 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>-45.16753360433017,170.9092649608377</t>
+          <t>-45.167534442935896,170.90926628985602</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
@@ -39337,7 +39337,7 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>-45.16741464196703,170.90907643049468</t>
+          <t>-45.16741578007767,170.90907823415486</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
@@ -39379,7 +39379,7 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>-45.16751653271035,170.90923790583068</t>
+          <t>-45.167515933706035,170.90923695653248</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
@@ -39421,7 +39421,7 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>-45.16740356036206,170.90905886854412</t>
+          <t>-45.16740385986493,170.90905934319133</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
@@ -39463,7 +39463,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>-45.16743644576598,170.90911098483897</t>
+          <t>-45.1674357868601,170.9091099406139</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
@@ -39505,7 +39505,7 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>-45.16747592020055,170.9091735434582</t>
+          <t>-45.167474901892334,170.90917192965358</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
@@ -39547,7 +39547,7 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>-45.16750137789882,170.90921388859246</t>
+          <t>-45.1675000600889,170.90921180013757</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
@@ -39611,7 +39611,7 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>-45.167512219879114,170.90923107088412</t>
+          <t>-45.167511321372544,170.90922964693706</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
@@ -39653,7 +39653,7 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>-45.16735252504511,170.9089779887303</t>
+          <t>-45.16735324385278,170.9089791278816</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
@@ -39695,7 +39695,7 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>-45.167480292935586,170.90918047332573</t>
+          <t>-45.16747909492602,170.90917857473178</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
@@ -39737,7 +39737,7 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>-45.16750551102974,170.9092204387471</t>
+          <t>-45.16750491202527,170.90921948944924</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
@@ -39771,7 +39771,7 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>-45.16749041611514,170.90919651644788</t>
+          <t>-45.16749035621467,170.90919642151812</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
@@ -39869,7 +39869,7 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>-45.16747274547486,170.90916851218515</t>
+          <t>-45.167473703882635,170.90917003105997</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
@@ -39941,7 +39941,7 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>-45.167432492330654,170.90910471948888</t>
+          <t>-45.16743279183333,170.90910519413657</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
@@ -39983,7 +39983,7 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>-45.1674730449773,170.90916898683352</t>
+          <t>-45.16747250587291,170.90916813246645</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
@@ -40021,7 +40021,7 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>-45.167449324378744,170.90913139469762</t>
+          <t>-45.167449683781854,170.9091319642752</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
@@ -40085,7 +40085,7 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>-45.16745950746546,170.90914753273194</t>
+          <t>-45.16745968716696,170.90914781752085</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
@@ -40127,7 +40127,7 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>-45.167435726959575,170.90910984568436</t>
+          <t>-45.167435906661176,170.90911013047298</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
@@ -40169,7 +40169,7 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>-45.167493111635956,170.90920078828609</t>
+          <t>-45.16749245273088,170.90919974405892</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
@@ -40211,7 +40211,7 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>-45.16742853889499,170.9090984541396</t>
+          <t>-45.167427580486304,170.9090969352672</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
@@ -40245,7 +40245,7 @@
       <c r="C374" t="inlineStr"/>
       <c r="D374" t="inlineStr">
         <is>
-          <t>-45.16754654281686,170.90928546569592</t>
+          <t>-45.167547561123534,170.9092870795046</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
@@ -40287,7 +40287,7 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>-45.16749023641374,170.90919623165868</t>
+          <t>-45.16748951760816,170.90919509250188</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
@@ -40359,7 +40359,7 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>-45.16750730804306,170.9092232866407</t>
+          <t>-45.16750605013374,170.90922129311514</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
@@ -40401,7 +40401,7 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>-45.16746849254012,170.90916177217875</t>
+          <t>-45.16746789353518,170.90916082288214</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
@@ -40439,7 +40439,7 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>-45.167454715424924,170.90913993836213</t>
+          <t>-45.16745501492746,170.9091404130102</t>
         </is>
       </c>
       <c r="E379" t="inlineStr">
@@ -40477,7 +40477,7 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>-45.16743357054031,170.90910642822064</t>
+          <t>-45.167433031435486,170.90910557385473</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
@@ -40519,7 +40519,7 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>-45.16743902148882,170.90911506680996</t>
+          <t>-45.167438841787224,170.90911478202128</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
@@ -40561,7 +40561,7 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>-45.16748430626738,170.9091868336161</t>
+          <t>-45.167484545869264,170.90918721333495</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
@@ -40595,7 +40595,7 @@
       <c r="C383" t="inlineStr"/>
       <c r="D383" t="inlineStr">
         <is>
-          <t>-45.167410688529884,170.9090701651494</t>
+          <t>-45.16741092813214,170.90907054486726</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
@@ -40637,7 +40637,7 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>-45.16755391056464,170.90929714207766</t>
+          <t>-45.16755283235772,170.90929543333868</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
@@ -40671,7 +40671,7 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>-45.16753108851289,170.90926097378303</t>
+          <t>-45.16753019000671,170.909259549835</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
@@ -40713,7 +40713,7 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>-45.16742991660745,170.9091006375188</t>
+          <t>-45.16743057551341,170.90910168174366</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
@@ -40755,7 +40755,7 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>-45.16742015281827,170.90908516400776</t>
+          <t>-45.16742051222158,170.90908573358476</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
@@ -40797,7 +40797,7 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>-45.16743680516917,170.9091115544163</t>
+          <t>-45.1674368650697,170.90911164934587</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
@@ -40831,7 +40831,7 @@
       <c r="C389" t="inlineStr"/>
       <c r="D389" t="inlineStr">
         <is>
-          <t>-45.16751922822968,170.90924217767284</t>
+          <t>-45.16751874902626,170.9092414182342</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
@@ -40873,7 +40873,7 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>-45.167516353009056,170.90923762104123</t>
+          <t>-45.167515334701704,170.9092360072343</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
@@ -40915,7 +40915,7 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>-45.16754780072511,170.9092874592243</t>
+          <t>-45.16754654281686,170.90928546569592</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
@@ -40957,7 +40957,7 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>-45.16751072236817,170.90922869763904</t>
+          <t>-45.16750976396116,170.90922717876225</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
@@ -40999,7 +40999,7 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>-45.16743836258299,170.9091140225848</t>
+          <t>-45.16743896158829,170.9091149718804</t>
         </is>
       </c>
       <c r="E393" t="inlineStr"/>
@@ -41029,7 +41029,7 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>-45.1674794543289,170.90917914430997</t>
+          <t>-45.1674799934332,170.90917999867727</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
@@ -41071,7 +41071,7 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>-45.167521863848435,170.90924635458555</t>
+          <t>-45.16752066583992,170.9092444559888</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
@@ -41113,7 +41113,7 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>-45.167425483967214,170.90909361273398</t>
+          <t>-45.16742554386776,170.90909370766352</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
@@ -41155,7 +41155,7 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>-45.16742973690583,170.9091003527302</t>
+          <t>-45.16743045571233,170.9091014918846</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
@@ -41197,7 +41197,7 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>-45.16746172378403,170.9091510451284</t>
+          <t>-45.167461783684516,170.90915114005804</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
@@ -41239,7 +41239,7 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>-45.16748831959884,170.90919319390733</t>
+          <t>-45.16748891860351,170.9091941432046</t>
         </is>
       </c>
       <c r="E399" t="inlineStr"/>
@@ -41269,7 +41269,7 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>-45.167439860096216,170.90911639582387</t>
+          <t>-45.16743902148882,170.90911506680996</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
@@ -41311,7 +41311,7 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>-45.167475500897176,170.9091728789504</t>
+          <t>-45.1674763994044,170.9091743028957</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
@@ -41375,7 +41375,7 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>-45.167448964975655,170.90913082512006</t>
+          <t>-45.167448306069964,170.90912978089452</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
@@ -41417,7 +41417,7 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>-45.167432252728496,170.90910433977072</t>
+          <t>-45.16743279183333,170.90910519413657</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
@@ -41485,7 +41485,7 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>-45.1674952680525,170.90920420575694</t>
+          <t>-45.167495687355704,170.9092048702652</t>
         </is>
       </c>
       <c r="E406" t="inlineStr"/>
@@ -41511,7 +41511,7 @@
       <c r="C407" t="inlineStr"/>
       <c r="D407" t="inlineStr">
         <is>
-          <t>-45.16749305173549,170.90920069335633</t>
+          <t>-45.167492632432264,170.90920002884818</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
@@ -41553,7 +41553,7 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>-45.16751054266685,170.90922841284964</t>
+          <t>-45.1675106025673,170.90922850777943</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
@@ -41595,7 +41595,7 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>-45.16746507821194,170.90915636118845</t>
+          <t>-45.16746537771443,170.90915683583668</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
@@ -41637,7 +41637,7 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>-45.16751233967998,170.90923126074375</t>
+          <t>-45.16751239958042,170.90923135567357</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
@@ -41709,7 +41709,7 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>-45.16747933452795,170.90917895445057</t>
+          <t>-45.16748005333366,170.90918009360695</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
@@ -41743,7 +41743,7 @@
       <c r="C413" t="inlineStr"/>
       <c r="D413" t="inlineStr">
         <is>
-          <t>-45.16750473232394,170.9092192046599</t>
+          <t>-45.16750365411589,170.90921749592388</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
@@ -41785,7 +41785,7 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>-45.16747604000152,170.90917373331757</t>
+          <t>-45.16747663900633,170.90917468261443</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
@@ -41827,7 +41827,7 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>-45.16744680855701,170.90912740765472</t>
+          <t>-45.16744591004919,170.90912598371094</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
@@ -41895,7 +41895,7 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>-45.16748819979791,170.90919300404786</t>
+          <t>-45.167487540892765,170.90919195982087</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
@@ -41937,7 +41937,7 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>-45.16759027008363,170.90935476459126</t>
+          <t>-45.16758907207686,170.90935286598997</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
@@ -41979,7 +41979,7 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>-45.16745154069781,170.90913490709283</t>
+          <t>-45.167451480797304,170.90913481216322</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
@@ -42021,7 +42021,7 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>-45.16747873552316,170.90917800515362</t>
+          <t>-45.16747831621979,170.90917734064575</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
@@ -42063,7 +42063,7 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>-45.16747082865925,170.90916547443567</t>
+          <t>-45.16747070885827,170.90916528457632</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
@@ -42105,7 +42105,7 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>-45.167473823683615,170.90917022091932</t>
+          <t>-45.167473104877786,170.9091690817632</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
@@ -42147,7 +42147,7 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>-45.167451480797304,170.90913481216322</t>
+          <t>-45.16745243920551,170.9091363310369</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
@@ -42185,7 +42185,7 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>-45.167486223082456,170.909189871367</t>
+          <t>-45.167485384475874,170.90918854235096</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
@@ -42227,7 +42227,7 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>-45.167451900100886,170.90913547667046</t>
+          <t>-45.1674529184096,170.9091370904738</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
@@ -42299,7 +42299,7 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>-45.167501677401084,170.90921436324132</t>
+          <t>-45.16750161750062,170.90921426831153</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
@@ -42333,7 +42333,7 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>-45.167457291146775,170.90914402033573</t>
+          <t>-45.16745693174373,170.909143450758</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
@@ -42375,7 +42375,7 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>-45.16753438303549,170.90926619492612</t>
+          <t>-45.16753498203956,170.90926714422494</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
@@ -42469,7 +42469,7 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>-45.16747951422938,170.90917923923965</t>
+          <t>-45.16747933452795,170.90917895445057</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
@@ -42499,7 +42499,7 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>-45.167516712411654,170.90923819062016</t>
+          <t>-45.16751689211294,170.90923847540964</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
@@ -42541,7 +42541,7 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>-45.16749688536484,170.90920676886026</t>
+          <t>-45.16749700516574,170.90920695871978</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
@@ -42579,7 +42579,7 @@
       <c r="C435" t="inlineStr"/>
       <c r="D435" t="inlineStr">
         <is>
-          <t>-45.16744105810677,170.9091182944152</t>
+          <t>-45.167440219499376,170.90911696540127</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
@@ -42665,7 +42665,7 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>-45.167427700287384,170.90909712512627</t>
+          <t>-45.16742805969065,170.9090976947034</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
@@ -42707,7 +42707,7 @@
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>-45.16744489174033,170.90912436990803</t>
+          <t>-45.16744483183982,170.90912427497844</t>
         </is>
       </c>
       <c r="E439" t="inlineStr">
@@ -42745,7 +42745,7 @@
       <c r="C440" t="inlineStr"/>
       <c r="D440" t="inlineStr">
         <is>
-          <t>-45.167494908649736,170.90920363617846</t>
+          <t>-45.16749418984424,170.90920249702148</t>
         </is>
       </c>
       <c r="E440" t="inlineStr"/>
@@ -42775,7 +42775,7 @@
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>-45.16744531104399,170.9091250344151</t>
+          <t>-45.16744602985023,170.90912617357012</t>
         </is>
       </c>
       <c r="E441" t="inlineStr">
@@ -42817,7 +42817,7 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>-45.1674456105466,170.90912550906302</t>
+          <t>-45.167444771939294,170.90912418004885</t>
         </is>
       </c>
       <c r="E442" t="inlineStr">
@@ -42859,7 +42859,7 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>-45.167499580885284,170.90921104069946</t>
+          <t>-45.167498502677134,170.90920933196372</t>
         </is>
       </c>
       <c r="E443" t="inlineStr">
@@ -42901,7 +42901,7 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>-45.1674487852741,170.90913054033126</t>
+          <t>-45.16744974368236,170.9091320592048</t>
         </is>
       </c>
       <c r="E444" t="inlineStr"/>
@@ -42931,7 +42931,7 @@
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>-45.16757098217094,170.90932419712018</t>
+          <t>-45.167570023765144,170.9093226782402</t>
         </is>
       </c>
       <c r="E445" t="inlineStr">
@@ -42973,7 +42973,7 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>-45.16749161412441,170.90919841504257</t>
+          <t>-45.16749119482117,170.90919775053442</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
@@ -43007,7 +43007,7 @@
       <c r="C447" t="inlineStr"/>
       <c r="D447" t="inlineStr">
         <is>
-          <t>-45.16750856595234,170.90922528016634</t>
+          <t>-45.167509045155846,170.90922603960468</t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
@@ -43049,7 +43049,7 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>-45.167513777290445,170.90923353905916</t>
+          <t>-45.167513657489565,170.90923334919952</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
@@ -43091,7 +43091,7 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>-45.16752491876998,170.90925119600755</t>
+          <t>-45.167524619267866,170.90925072135832</t>
         </is>
       </c>
       <c r="E449" t="inlineStr">
@@ -43151,7 +43151,7 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>-45.167528812297164,170.90925736644814</t>
+          <t>-45.167528033591736,170.90925613235996</t>
         </is>
       </c>
       <c r="E451" t="inlineStr">
@@ -43193,7 +43193,7 @@
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>-45.167550915545355,170.90929239558065</t>
+          <t>-45.16755139474845,170.90929315502015</t>
         </is>
       </c>
       <c r="E452" t="inlineStr">
@@ -43231,7 +43231,7 @@
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>-45.16750982386159,170.90922727369204</t>
+          <t>-45.167509045155846,170.90922603960468</t>
         </is>
       </c>
       <c r="E453" t="inlineStr">
@@ -43299,7 +43299,7 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>-45.16753180731785,170.90926211294146</t>
+          <t>-45.16753066921,170.90926030927395</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
@@ -43341,7 +43341,7 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>-45.16738139714434,170.9090237446635</t>
+          <t>-45.16738181644856,170.9090244091691</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
@@ -43375,7 +43375,7 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>-45.16756145801241,170.90930910325235</t>
+          <t>-45.16756109861016,170.90930853367254</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
@@ -43413,7 +43413,7 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>-45.16750988376202,170.90922736862183</t>
+          <t>-45.167509943662466,170.90922746355164</t>
         </is>
       </c>
       <c r="E458" t="inlineStr">
@@ -43455,7 +43455,7 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>-45.167472206370476,170.9091676578181</t>
+          <t>-45.1674716073656,170.90916670852135</t>
         </is>
       </c>
       <c r="E459" t="inlineStr">
@@ -43497,7 +43497,7 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>-45.16747166726609,170.90916680345106</t>
+          <t>-45.16747208656951,170.90916746795875</t>
         </is>
       </c>
       <c r="E460" t="inlineStr">
@@ -43539,7 +43539,7 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>-45.16746819303766,170.90916129753046</t>
+          <t>-45.16746867224159,170.90916205696774</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
@@ -43581,7 +43581,7 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>-45.16747657910585,170.90917458768476</t>
+          <t>-45.16747627960344,170.9091741130363</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
@@ -43623,7 +43623,7 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>-45.16756966436295,170.90932210866018</t>
+          <t>-45.16756852625605,170.90932030499027</t>
         </is>
       </c>
       <c r="E463" t="inlineStr">
@@ -43665,7 +43665,7 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>-45.16756157781314,170.9093092931123</t>
+          <t>-45.16756043970602,170.9093074894429</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
@@ -43699,7 +43699,7 @@
       <c r="C465" t="inlineStr"/>
       <c r="D465" t="inlineStr">
         <is>
-          <t>-45.16745136099627,170.90913462230404</t>
+          <t>-45.16745207980242,170.90913576145928</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
@@ -43741,7 +43741,7 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>-45.16744105810677,170.9091182944152</t>
+          <t>-45.16744189671414,170.90911962342918</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
@@ -43783,7 +43783,7 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>-45.16747777711547,170.90917648627854</t>
+          <t>-45.16747669890682,170.9091747775441</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
@@ -43825,7 +43825,7 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>-45.16747208656951,170.90916746795875</t>
+          <t>-45.167472565773394,170.90916822739612</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
@@ -43867,7 +43867,7 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>-45.16744501154138,170.9091245597672</t>
+          <t>-45.16744483183982,170.90912427497844</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
@@ -43965,7 +43965,7 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>-45.16747292517631,170.90916879697417</t>
+          <t>-45.1674730449773,170.90916898683352</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
@@ -44007,7 +44007,7 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>-45.16744890507513,170.90913073019044</t>
+          <t>-45.1674495040803,170.90913167948642</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
@@ -44045,7 +44045,7 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>-45.16754103198038,170.90927673214406</t>
+          <t>-45.16754157108396,170.90927758651318</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
@@ -44079,7 +44079,7 @@
       <c r="C475" t="inlineStr"/>
       <c r="D475" t="inlineStr">
         <is>
-          <t>-45.167443454127785,170.9091220915981</t>
+          <t>-45.16744249571939,170.9091205727249</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
@@ -44109,7 +44109,7 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>-45.16746184358502,170.9091512349877</t>
+          <t>-45.167462083187026,170.90915161470625</t>
         </is>
       </c>
       <c r="E476" t="inlineStr">
@@ -44151,7 +44151,7 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>-45.16744680855701,170.90912740765472</t>
+          <t>-45.16744728776115,170.90912816709144</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
@@ -44193,7 +44193,7 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>-45.16747969393081,170.90917952402876</t>
+          <t>-45.16747891522459,170.9091782899427</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
@@ -44235,7 +44235,7 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>-45.16747124796267,170.90916613894336</t>
+          <t>-45.167469990052396,170.90916414542033</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
@@ -44277,7 +44277,7 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>-45.167486282982914,170.90918996629674</t>
+          <t>-45.16748676218667,170.9091907257345</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
@@ -44341,7 +44341,7 @@
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>-45.16745010308546,170.9091326287824</t>
+          <t>-45.167449683781854,170.9091319642752</t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
@@ -44425,7 +44425,7 @@
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>-45.167475201394744,170.90917240430198</t>
+          <t>-45.16747472219088,170.90917164486453</t>
         </is>
       </c>
       <c r="E484" t="inlineStr">
@@ -44467,7 +44467,7 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>-45.167416618685486,170.90907956316767</t>
+          <t>-45.167417097889945,170.90908032260356</t>
         </is>
       </c>
       <c r="E485" t="inlineStr">
@@ -44509,7 +44509,7 @@
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>-45.16745064219009,170.90913348314882</t>
+          <t>-45.16745172039934,170.90913519188166</t>
         </is>
       </c>
       <c r="E486" t="inlineStr">
@@ -44551,7 +44551,7 @@
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>-45.16751928813011,170.90924227260265</t>
+          <t>-45.167518689125835,170.90924132330437</t>
         </is>
       </c>
       <c r="E487" t="inlineStr">
@@ -44619,7 +44619,7 @@
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>-45.167436385865436,170.9091108899094</t>
+          <t>-45.16743668536811,170.9091113645572</t>
         </is>
       </c>
       <c r="E489" t="inlineStr">
@@ -44691,7 +44691,7 @@
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>-45.16751797032067,170.90924018414646</t>
+          <t>-45.16751677231208,170.90923828555</t>
         </is>
       </c>
       <c r="E491" t="inlineStr">
@@ -44733,7 +44733,7 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>-45.167378402114124,170.90901899819525</t>
+          <t>-45.16737942042441,170.90902061199438</t>
         </is>
       </c>
       <c r="E492" t="inlineStr"/>
@@ -44763,7 +44763,7 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>-45.16744728776115,170.90912816709144</t>
+          <t>-45.16744644915388,170.9091268380772</t>
         </is>
       </c>
       <c r="E493" t="inlineStr">
@@ -44805,7 +44805,7 @@
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>-45.16747897512506,170.9091783848724</t>
+          <t>-45.16747819641883,170.90917715078638</t>
         </is>
       </c>
       <c r="E494" t="inlineStr">
@@ -44847,7 +44847,7 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>-45.167462143087526,170.90915170963586</t>
+          <t>-45.16746286189352,170.90915284879156</t>
         </is>
       </c>
       <c r="E495" t="inlineStr">
@@ -44889,7 +44889,7 @@
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>-45.16761650642427,170.90939634397952</t>
+          <t>-45.167615428218774,170.9093946352368</t>
         </is>
       </c>
       <c r="E496" t="inlineStr"/>
@@ -44927,7 +44927,7 @@
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>-45.1674208716249,170.90908630316179</t>
+          <t>-45.167420931525456,170.9090863980913</t>
         </is>
       </c>
       <c r="E497" t="inlineStr">
@@ -44969,7 +44969,7 @@
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>-45.16763585421864,170.9094270064297</t>
+          <t>-45.16763579431837,170.90942691149948</t>
         </is>
       </c>
       <c r="E498" t="inlineStr">
@@ -45003,7 +45003,7 @@
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>-45.16754804032666,170.909287838944</t>
+          <t>-45.16754875913135,170.90928897810312</t>
         </is>
       </c>
       <c r="E499" t="inlineStr">
@@ -45045,7 +45045,7 @@
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>-45.16743051561286,170.90910158681413</t>
+          <t>-45.16743087501611,170.90910215639136</t>
         </is>
       </c>
       <c r="E500" t="inlineStr">
@@ -45087,7 +45087,7 @@
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>-45.16744309472463,170.90912152202065</t>
+          <t>-45.16744303482411,170.9091214270911</t>
         </is>
       </c>
       <c r="E501" t="inlineStr">
@@ -45125,7 +45125,7 @@
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>-45.16749209332811,170.90919917448048</t>
+          <t>-45.16749293193457,170.90920050349686</t>
         </is>
       </c>
       <c r="E502" t="inlineStr">
@@ -45209,7 +45209,7 @@
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>-45.16747166726609,170.90916680345106</t>
+          <t>-45.16747214646999,170.90916756288843</t>
         </is>
       </c>
       <c r="E504" t="inlineStr">
@@ -45251,7 +45251,7 @@
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>-45.16755432986732,170.9092978065873</t>
+          <t>-45.16755409026578,170.9092974268675</t>
         </is>
       </c>
       <c r="E505" t="inlineStr">
@@ -45315,7 +45315,7 @@
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>-45.16742692158031,170.90909589104245</t>
+          <t>-45.167426861679765,170.90909579611295</t>
         </is>
       </c>
       <c r="E507" t="inlineStr">
@@ -45357,7 +45357,7 @@
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>-45.16746525791343,170.90915664597736</t>
+          <t>-45.16746561731641,170.90915721555527</t>
         </is>
       </c>
       <c r="E508" t="inlineStr">
@@ -45399,7 +45399,7 @@
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>-45.167561877315016,170.90930976776215</t>
+          <t>-45.1675609788094,170.9093083438126</t>
         </is>
       </c>
       <c r="E509" t="inlineStr">
@@ -45441,7 +45441,7 @@
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>-45.16749466904791,170.90920325645945</t>
+          <t>-45.16749448934653,170.90920297167023</t>
         </is>
       </c>
       <c r="E510" t="inlineStr">
@@ -45483,7 +45483,7 @@
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>-45.167466515823826,170.90915863950008</t>
+          <t>-45.16746555741591,170.90915712062565</t>
         </is>
       </c>
       <c r="E511" t="inlineStr">
@@ -45521,7 +45521,7 @@
       <c r="C512" t="inlineStr"/>
       <c r="D512" t="inlineStr">
         <is>
-          <t>-45.16770234348261,170.9095323790952</t>
+          <t>-45.16770246328299,170.90953256895608</t>
         </is>
       </c>
       <c r="E512" t="inlineStr"/>
@@ -45555,7 +45555,7 @@
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>-45.167473524181176,170.90916974627095</t>
+          <t>-45.16747430288749,170.90917098035678</t>
         </is>
       </c>
       <c r="E513" t="inlineStr">
@@ -45597,7 +45597,7 @@
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>-45.16749946108439,170.9092108508399</t>
+          <t>-45.16749832297576,170.90920904717444</t>
         </is>
       </c>
       <c r="E514" t="inlineStr">
@@ -45639,7 +45639,7 @@
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>-45.167461963386025,170.90915142484695</t>
+          <t>-45.16746118467952,170.90915019076166</t>
         </is>
       </c>
       <c r="E515" t="inlineStr">
@@ -45681,7 +45681,7 @@
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>-45.1674705291568,170.90916499978732</t>
+          <t>-45.16747100836072,170.90916575922466</t>
         </is>
       </c>
       <c r="E516" t="inlineStr">
@@ -45723,7 +45723,7 @@
       </c>
       <c r="D517" t="inlineStr">
         <is>
-          <t>-45.167480292935586,170.90918047332573</t>
+          <t>-45.16748077213941,170.90918123276336</t>
         </is>
       </c>
       <c r="E517" t="inlineStr">
@@ -45765,7 +45765,7 @@
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>-45.167466396022846,170.90915844964078</t>
+          <t>-45.16746645592334,170.9091585445704</t>
         </is>
       </c>
       <c r="E518" t="inlineStr">
@@ -45807,7 +45807,7 @@
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>-45.16744207641571,170.90911990821792</t>
+          <t>-45.16744189671414,170.90911962342918</t>
         </is>
       </c>
       <c r="E519" t="inlineStr">
@@ -45891,7 +45891,7 @@
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>-45.167452738708064,170.90913680568497</t>
+          <t>-45.16745333771318,170.90913775498103</t>
         </is>
       </c>
       <c r="E521" t="inlineStr">
@@ -45959,7 +45959,7 @@
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>-45.16741613948103,170.90907880373177</t>
+          <t>-45.16741500137039,170.90907700007156</t>
         </is>
       </c>
       <c r="E523" t="inlineStr">
@@ -46001,7 +46001,7 @@
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>-45.16739709109959,170.90904861616534</t>
+          <t>-45.16739792970775,170.90904994517726</t>
         </is>
       </c>
       <c r="E524" t="inlineStr">
@@ -46069,7 +46069,7 @@
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>-45.16746148418202,170.90915066540984</t>
+          <t>-45.16746220298802,170.9091518045655</t>
         </is>
       </c>
       <c r="E526" t="inlineStr">
@@ -46111,7 +46111,7 @@
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>-45.16743614626331,170.90911051019123</t>
+          <t>-45.16743662546757,170.90911126962763</t>
         </is>
       </c>
       <c r="E527" t="inlineStr">
@@ -46153,7 +46153,7 @@
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>-45.16747825631931,170.90917724571608</t>
+          <t>-45.16747837612028,170.90917743557546</t>
         </is>
       </c>
       <c r="E528" t="inlineStr">
@@ -46195,7 +46195,7 @@
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>-45.16746501831144,170.90915626625878</t>
+          <t>-45.16746471880896,170.90915579161054</t>
         </is>
       </c>
       <c r="E529" t="inlineStr">
@@ -46263,7 +46263,7 @@
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>-45.16746741433124,170.90916006344492</t>
+          <t>-45.167468013336176,170.90916101274146</t>
         </is>
       </c>
       <c r="E531" t="inlineStr">
@@ -46297,7 +46297,7 @@
       <c r="C532" t="inlineStr"/>
       <c r="D532" t="inlineStr">
         <is>
-          <t>-45.16756037980564,170.90930739451295</t>
+          <t>-45.167559061997366,170.9093053060537</t>
         </is>
       </c>
       <c r="E532" t="inlineStr">
@@ -46331,7 +46331,7 @@
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>-45.16747496179281,170.90917202458326</t>
+          <t>-45.1674746622904,170.90917154993485</t>
         </is>
       </c>
       <c r="E533" t="inlineStr">
@@ -46373,7 +46373,7 @@
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>-45.16757026336659,170.90932305796017</t>
+          <t>-45.167569784163696,170.90932229852018</t>
         </is>
       </c>
       <c r="E534" t="inlineStr">
@@ -46415,7 +46415,7 @@
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>-45.16745962726645,170.9091477225912</t>
+          <t>-45.167458788659395,170.90914639357638</t>
         </is>
       </c>
       <c r="E535" t="inlineStr">
@@ -46457,7 +46457,7 @@
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>-45.16741158703835,170.9090715890914</t>
+          <t>-45.16741032912649,170.90906959557256</t>
         </is>
       </c>
       <c r="E536" t="inlineStr">
@@ -46499,7 +46499,7 @@
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>-45.16739110104095,170.90903912322406</t>
+          <t>-45.167390382233854,170.90903798407126</t>
         </is>
       </c>
       <c r="E537" t="inlineStr">
@@ -46541,7 +46541,7 @@
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>-45.16755199375232,170.90929410431954</t>
+          <t>-45.16755109524652,170.90929268037047</t>
         </is>
       </c>
       <c r="E538" t="inlineStr">
@@ -46583,7 +46583,7 @@
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>-45.16751749111725,170.90923942470786</t>
+          <t>-45.16751779061939,170.90923989935698</t>
         </is>
       </c>
       <c r="E539" t="inlineStr">
@@ -46659,7 +46659,7 @@
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>-45.167544266601865,170.90928185835907</t>
+          <t>-45.16754318839472,170.90928014962068</t>
         </is>
       </c>
       <c r="E541" t="inlineStr">
@@ -46701,7 +46701,7 @@
       </c>
       <c r="D542" t="inlineStr">
         <is>
-          <t>-45.167439680394644,170.90911611103516</t>
+          <t>-45.167438841787224,170.90911478202128</t>
         </is>
       </c>
       <c r="E542" t="inlineStr">
@@ -46785,7 +46785,7 @@
       </c>
       <c r="D544" t="inlineStr">
         <is>
-          <t>-45.167419434011606,170.9090840248538</t>
+          <t>-45.16741961371328,170.90908430964228</t>
         </is>
       </c>
       <c r="E544" t="inlineStr">
@@ -46853,7 +46853,7 @@
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t>-45.16749053591606,170.90919670630734</t>
+          <t>-45.16749035621467,170.90919642151812</t>
         </is>
       </c>
       <c r="E546" t="inlineStr">
@@ -46895,7 +46895,7 @@
       </c>
       <c r="D547" t="inlineStr">
         <is>
-          <t>-45.1674667554258,170.9091590192187</t>
+          <t>-45.167467474231735,170.90916015837456</t>
         </is>
       </c>
       <c r="E547" t="inlineStr">
@@ -46929,7 +46929,7 @@
       <c r="C548" t="inlineStr"/>
       <c r="D548" t="inlineStr">
         <is>
-          <t>-45.167475560797655,170.9091729738801</t>
+          <t>-45.16747478209137,170.9091717397942</t>
         </is>
       </c>
       <c r="E548" t="inlineStr"/>
@@ -46963,7 +46963,7 @@
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t>-45.16758655626255,170.90934887892752</t>
+          <t>-45.167587754269384,170.90935077752863</t>
         </is>
       </c>
       <c r="E549" t="inlineStr">
@@ -47005,7 +47005,7 @@
       </c>
       <c r="D550" t="inlineStr">
         <is>
-          <t>-45.167495627455246,170.90920477533547</t>
+          <t>-45.16749646606165,170.909206104352</t>
         </is>
       </c>
       <c r="E550" t="inlineStr">
@@ -47047,7 +47047,7 @@
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>-45.16747496179281,170.90917202458326</t>
+          <t>-45.167474003385074,170.90917050570837</t>
         </is>
       </c>
       <c r="E551" t="inlineStr">
@@ -47089,7 +47089,7 @@
       </c>
       <c r="D552" t="inlineStr">
         <is>
-          <t>-45.167435726959575,170.90910984568436</t>
+          <t>-45.167436325964914,170.90911079497988</t>
         </is>
       </c>
       <c r="E552" t="inlineStr">
@@ -47131,7 +47131,7 @@
       </c>
       <c r="D553" t="inlineStr">
         <is>
-          <t>-45.16747765731452,170.90917629641916</t>
+          <t>-45.16747819641883,170.90917715078638</t>
         </is>
       </c>
       <c r="E553" t="inlineStr">
@@ -47173,7 +47173,7 @@
       </c>
       <c r="D554" t="inlineStr">
         <is>
-          <t>-45.167509105056304,170.9092261345345</t>
+          <t>-45.16750832635057,170.90922490044716</t>
         </is>
       </c>
       <c r="E554" t="inlineStr">
@@ -47215,7 +47215,7 @@
       </c>
       <c r="D555" t="inlineStr">
         <is>
-          <t>-45.167451960001394,170.90913557160007</t>
+          <t>-45.167452259503975,170.90913604624808</t>
         </is>
       </c>
       <c r="E555" t="inlineStr">
@@ -47257,7 +47257,7 @@
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t>-45.16750149769974,170.909214078452</t>
+          <t>-45.167501437799274,170.90921398352222</t>
         </is>
       </c>
       <c r="E556" t="inlineStr">
@@ -47299,7 +47299,7 @@
       </c>
       <c r="D557" t="inlineStr">
         <is>
-          <t>-45.16746028617199,170.90914876681714</t>
+          <t>-45.167460645575,170.90914933639496</t>
         </is>
       </c>
       <c r="E557" t="inlineStr">
@@ -47341,7 +47341,7 @@
       </c>
       <c r="D558" t="inlineStr">
         <is>
-          <t>-45.16747969393081,170.90917952402876</t>
+          <t>-45.16747957412986,170.90917933416938</t>
         </is>
       </c>
       <c r="E558" t="inlineStr">
@@ -47383,7 +47383,7 @@
       </c>
       <c r="D559" t="inlineStr">
         <is>
-          <t>-45.16746340099802,170.90915370315835</t>
+          <t>-45.16746292179403,170.90915294372118</t>
         </is>
       </c>
       <c r="E559" t="inlineStr">
@@ -47425,7 +47425,7 @@
       </c>
       <c r="D560" t="inlineStr">
         <is>
-          <t>-45.167471367763646,170.90916632880268</t>
+          <t>-45.167471966768524,170.9091672780994</t>
         </is>
       </c>
       <c r="E560" t="inlineStr">
@@ -47467,7 +47467,7 @@
       </c>
       <c r="D561" t="inlineStr">
         <is>
-          <t>-45.16749323143687,170.90920097814558</t>
+          <t>-45.16749233292996,170.90919955419946</t>
         </is>
       </c>
       <c r="E561" t="inlineStr">
@@ -47509,7 +47509,7 @@
       </c>
       <c r="D562" t="inlineStr">
         <is>
-          <t>-45.167487660693695,170.90919214968034</t>
+          <t>-45.16748843939977,170.90919338376676</t>
         </is>
       </c>
       <c r="E562" t="inlineStr">
@@ -47551,7 +47551,7 @@
       </c>
       <c r="D563" t="inlineStr">
         <is>
-          <t>-45.1674456105466,170.90912550906302</t>
+          <t>-45.16744644915388,170.9091268380772</t>
         </is>
       </c>
       <c r="E563" t="inlineStr">
@@ -47593,7 +47593,7 @@
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t>-45.16749341113825,170.9092012629348</t>
+          <t>-45.1674925725318,170.9091999339184</t>
         </is>
       </c>
       <c r="E564" t="inlineStr">
@@ -47635,7 +47635,7 @@
       </c>
       <c r="D565" t="inlineStr">
         <is>
-          <t>-45.16742787998902,170.90909740991484</t>
+          <t>-45.1674270413814,170.90909608090152</t>
         </is>
       </c>
       <c r="E565" t="inlineStr">
@@ -47677,7 +47677,7 @@
       </c>
       <c r="D566" t="inlineStr">
         <is>
-          <t>-45.167475381096196,170.90917268909104</t>
+          <t>-45.16747598010103,170.90917363838787</t>
         </is>
       </c>
       <c r="E566" t="inlineStr">
@@ -47719,7 +47719,7 @@
       </c>
       <c r="D567" t="inlineStr">
         <is>
-          <t>-45.16749472894837,170.9092033513892</t>
+          <t>-45.16749478884883,170.90920344631894</t>
         </is>
       </c>
       <c r="E567" t="inlineStr">
@@ -47761,7 +47761,7 @@
       </c>
       <c r="D568" t="inlineStr">
         <is>
-          <t>-45.16748448596881,170.9091871184052</t>
+          <t>-45.16748424636691,170.90918673868637</t>
         </is>
       </c>
       <c r="E568" t="inlineStr">
@@ -47803,7 +47803,7 @@
       </c>
       <c r="D569" t="inlineStr">
         <is>
-          <t>-45.16746172378403,170.9091510451284</t>
+          <t>-45.167462322789014,170.90915199442478</t>
         </is>
       </c>
       <c r="E569" t="inlineStr">
@@ -47845,7 +47845,7 @@
       </c>
       <c r="D570" t="inlineStr">
         <is>
-          <t>-45.16746753413223,170.90916025330424</t>
+          <t>-45.16746825293814,170.9091613924601</t>
         </is>
       </c>
       <c r="E570" t="inlineStr">
@@ -47887,7 +47887,7 @@
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>-45.16746867224159,170.90916205696774</t>
+          <t>-45.16746915144552,170.90916281640503</t>
         </is>
       </c>
       <c r="E571" t="inlineStr">
@@ -47929,7 +47929,7 @@
       </c>
       <c r="D572" t="inlineStr">
         <is>
-          <t>-45.16745423622084,170.90913917892522</t>
+          <t>-45.16745429612136,170.90913927385483</t>
         </is>
       </c>
       <c r="E572" t="inlineStr">
@@ -47963,7 +47963,7 @@
       <c r="C573" t="inlineStr"/>
       <c r="D573" t="inlineStr">
         <is>
-          <t>-45.1675249786704,170.9092512909374</t>
+          <t>-45.16752443956662,170.90925043656878</t>
         </is>
       </c>
       <c r="E573" t="inlineStr"/>
@@ -47993,7 +47993,7 @@
       </c>
       <c r="D574" t="inlineStr">
         <is>
-          <t>-45.167453038210624,170.909137280333</t>
+          <t>-45.16745285850908,170.90913699554417</t>
         </is>
       </c>
       <c r="E574" t="inlineStr">
@@ -48035,7 +48035,7 @@
       </c>
       <c r="D575" t="inlineStr">
         <is>
-          <t>-45.16745088179216,170.9091338628672</t>
+          <t>-45.16745094169267,170.9091339577968</t>
         </is>
       </c>
       <c r="E575" t="inlineStr">
@@ -48077,7 +48077,7 @@
       </c>
       <c r="D576" t="inlineStr">
         <is>
-          <t>-45.1674657970179,170.90915750034424</t>
+          <t>-45.16746585691838,170.90915759527388</t>
         </is>
       </c>
       <c r="E576" t="inlineStr">
@@ -48119,7 +48119,7 @@
       </c>
       <c r="D577" t="inlineStr">
         <is>
-          <t>-45.16746561731641,170.90915721555527</t>
+          <t>-45.16746627622185,170.90915825978146</t>
         </is>
       </c>
       <c r="E577" t="inlineStr">
@@ -48161,7 +48161,7 @@
       </c>
       <c r="D578" t="inlineStr">
         <is>
-          <t>-45.167467294530255,170.9091598735856</t>
+          <t>-45.167467833634696,170.9091607279525</t>
         </is>
       </c>
       <c r="E578" t="inlineStr">
@@ -48203,7 +48203,7 @@
       </c>
       <c r="D579" t="inlineStr">
         <is>
-          <t>-45.16754851952979,170.90928859838343</t>
+          <t>-45.167547261621564,170.90928660485497</t>
         </is>
       </c>
       <c r="E579" t="inlineStr">
@@ -48245,7 +48245,7 @@
       </c>
       <c r="D580" t="inlineStr">
         <is>
-          <t>-45.167423686950784,170.9090907648486</t>
+          <t>-45.167422548840335,170.9090889611879</t>
         </is>
       </c>
       <c r="E580" t="inlineStr">
@@ -48287,7 +48287,7 @@
       </c>
       <c r="D581" t="inlineStr">
         <is>
-          <t>-45.167461963386025,170.90915142484695</t>
+          <t>-45.16746124458001,170.90915028569128</t>
         </is>
       </c>
       <c r="E581" t="inlineStr">
@@ -48329,7 +48329,7 @@
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>-45.16750976396116,170.90922717876225</t>
+          <t>-45.16750934465806,170.90922651425365</t>
         </is>
       </c>
       <c r="E582" t="inlineStr">
@@ -48413,7 +48413,7 @@
       </c>
       <c r="D584" t="inlineStr">
         <is>
-          <t>-45.16741973351439,170.90908449950126</t>
+          <t>-45.16741979341494,170.9090845944308</t>
         </is>
       </c>
       <c r="E584" t="inlineStr">
@@ -48455,7 +48455,7 @@
       </c>
       <c r="D585" t="inlineStr">
         <is>
-          <t>-45.16745387681779,170.90913860934754</t>
+          <t>-45.167454475822886,170.9091395586437</t>
         </is>
       </c>
       <c r="E585" t="inlineStr">
@@ -48497,7 +48497,7 @@
       </c>
       <c r="D586" t="inlineStr">
         <is>
-          <t>-45.16741368355806,170.909074911623</t>
+          <t>-45.16741296475132,170.90907377246927</t>
         </is>
       </c>
       <c r="E586" t="inlineStr">
@@ -48539,7 +48539,7 @@
       </c>
       <c r="D587" t="inlineStr">
         <is>
-          <t>-45.16745795005233,170.9091450645616</t>
+          <t>-45.167458429256364,170.9091458239986</t>
         </is>
       </c>
       <c r="E587" t="inlineStr">
@@ -48581,7 +48581,7 @@
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>-45.167537018653384,170.90927037184105</t>
+          <t>-45.16753761765743,170.90927132113995</t>
         </is>
       </c>
       <c r="E588" t="inlineStr">
@@ -48615,7 +48615,7 @@
       <c r="C589" t="inlineStr"/>
       <c r="D589" t="inlineStr">
         <is>
-          <t>-45.16774547160379,170.9096007290639</t>
+          <t>-45.16774631020576,170.90960205809208</t>
         </is>
       </c>
       <c r="E589" t="inlineStr">
@@ -48653,7 +48653,7 @@
       </c>
       <c r="D590" t="inlineStr">
         <is>
-          <t>-45.16751036296554,170.90922812806022</t>
+          <t>-45.167509105056304,170.9092261345345</t>
         </is>
       </c>
       <c r="E590" t="inlineStr">
@@ -48695,7 +48695,7 @@
       </c>
       <c r="D591" t="inlineStr">
         <is>
-          <t>-45.16741649888436,170.90907937330869</t>
+          <t>-45.167416798387144,170.90907984795612</t>
         </is>
       </c>
       <c r="E591" t="inlineStr">
@@ -48737,7 +48737,7 @@
       </c>
       <c r="D592" t="inlineStr">
         <is>
-          <t>-45.1674667554258,170.9091590192187</t>
+          <t>-45.167467234629775,170.90915977865592</t>
         </is>
       </c>
       <c r="E592" t="inlineStr">
@@ -48779,7 +48779,7 @@
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>-45.1674774177126,170.90917591670038</t>
+          <t>-45.16747699840923,170.90917525219257</t>
         </is>
       </c>
       <c r="E593" t="inlineStr">
@@ -48821,7 +48821,7 @@
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>-45.16745753074879,170.90914440005423</t>
+          <t>-45.167457590649285,170.90914449498385</t>
         </is>
       </c>
       <c r="E594" t="inlineStr">
@@ -48863,7 +48863,7 @@
       </c>
       <c r="D595" t="inlineStr">
         <is>
-          <t>-45.16747424298701,170.9091708854271</t>
+          <t>-45.16747496179281,170.90917202458326</t>
         </is>
       </c>
       <c r="E595" t="inlineStr">
@@ -48905,7 +48905,7 @@
       </c>
       <c r="D596" t="inlineStr">
         <is>
-          <t>-45.16747562069813,170.90917306880976</t>
+          <t>-45.167476339503935,170.90917420796598</t>
         </is>
       </c>
       <c r="E596" t="inlineStr">
@@ -48947,7 +48947,7 @@
       </c>
       <c r="D597" t="inlineStr">
         <is>
-          <t>-45.167456033236114,170.9091420268137</t>
+          <t>-45.167456752042206,170.90914316596914</t>
         </is>
       </c>
       <c r="E597" t="inlineStr">
@@ -48989,7 +48989,7 @@
       </c>
       <c r="D598" t="inlineStr">
         <is>
-          <t>-45.16746699502779,170.9091593989373</t>
+          <t>-45.167467833634696,170.9091607279525</t>
         </is>
       </c>
       <c r="E598" t="inlineStr">
@@ -49053,7 +49053,7 @@
       </c>
       <c r="D600" t="inlineStr">
         <is>
-          <t>-45.16743446904836,170.9091078521638</t>
+          <t>-45.1674347086505,170.909108231882</t>
         </is>
       </c>
       <c r="E600" t="inlineStr">
@@ -49125,7 +49125,7 @@
       </c>
       <c r="D602" t="inlineStr">
         <is>
-          <t>-45.16740835240778,170.90906646290028</t>
+          <t>-45.167408532109484,170.90906674768866</t>
         </is>
       </c>
       <c r="E602" t="inlineStr"/>
@@ -49155,7 +49155,7 @@
       </c>
       <c r="D603" t="inlineStr">
         <is>
-          <t>-45.16742674187868,170.9090956062539</t>
+          <t>-45.1674270413814,170.90909608090152</t>
         </is>
       </c>
       <c r="E603" t="inlineStr">
@@ -49197,7 +49197,7 @@
       </c>
       <c r="D604" t="inlineStr">
         <is>
-          <t>-45.16744057890256,170.90911753497866</t>
+          <t>-45.167440459101506,170.9091173451195</t>
         </is>
       </c>
       <c r="E604" t="inlineStr">
@@ -49239,7 +49239,7 @@
       </c>
       <c r="D605" t="inlineStr">
         <is>
-          <t>-45.167453277812676,170.90913766005144</t>
+          <t>-45.16745363721574,170.90913822962912</t>
         </is>
       </c>
       <c r="E605" t="inlineStr">
@@ -49281,7 +49281,7 @@
       </c>
       <c r="D606" t="inlineStr">
         <is>
-          <t>-45.16747951422938,170.90917923923965</t>
+          <t>-45.16748017313463,170.90918028346636</t>
         </is>
       </c>
       <c r="E606" t="inlineStr">
@@ -49323,7 +49323,7 @@
       </c>
       <c r="D607" t="inlineStr">
         <is>
-          <t>-45.16740403956666,170.90905962797967</t>
+          <t>-45.16740499797584,170.90906114685083</t>
         </is>
       </c>
       <c r="E607" t="inlineStr">
@@ -49365,7 +49365,7 @@
       </c>
       <c r="D608" t="inlineStr">
         <is>
-          <t>-45.16756816685383,170.9093197354103</t>
+          <t>-45.16756726834834,170.90931831146042</t>
         </is>
       </c>
       <c r="E608" t="inlineStr">
@@ -49407,7 +49407,7 @@
       </c>
       <c r="D609" t="inlineStr">
         <is>
-          <t>-45.16745243920551,170.9091363310369</t>
+          <t>-45.167453038210624,170.909137280333</t>
         </is>
       </c>
       <c r="E609" t="inlineStr">
@@ -49449,7 +49449,7 @@
       </c>
       <c r="D610" t="inlineStr">
         <is>
-          <t>-45.167506289735506,170.9092216728343</t>
+          <t>-45.16750545112928,170.9092203438173</t>
         </is>
       </c>
       <c r="E610" t="inlineStr">
@@ -49491,7 +49491,7 @@
       </c>
       <c r="D611" t="inlineStr">
         <is>
-          <t>-45.167485025073034,170.90918797277268</t>
+          <t>-45.16748508497351,170.9091880677024</t>
         </is>
       </c>
       <c r="E611" t="inlineStr">
@@ -49555,7 +49555,7 @@
       </c>
       <c r="D613" t="inlineStr">
         <is>
-          <t>-45.16745609313662,170.90914212174332</t>
+          <t>-45.16745639263916,170.9091425963914</t>
         </is>
       </c>
       <c r="E613" t="inlineStr">
@@ -49597,7 +49597,7 @@
       </c>
       <c r="D614" t="inlineStr">
         <is>
-          <t>-45.16748113154225,170.90918180234155</t>
+          <t>-45.16748173054702,170.9091827516386</t>
         </is>
       </c>
       <c r="E614" t="inlineStr">
@@ -49635,7 +49635,7 @@
       </c>
       <c r="D615" t="inlineStr">
         <is>
-          <t>-45.167696413362854,170.90952298098262</t>
+          <t>-45.16769575446062,170.909521936748</t>
         </is>
       </c>
       <c r="E615" t="inlineStr">

--- a/data/nzd0475/nzd0475.xlsx
+++ b/data/nzd0475/nzd0475.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H615"/>
+  <dimension ref="A1:H617"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18895,6 +18895,66 @@
       <c r="H615" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:14:52+00:00</t>
+        </is>
+      </c>
+      <c r="B616" t="n">
+        <v>318.38</v>
+      </c>
+      <c r="C616" t="n">
+        <v>313.68</v>
+      </c>
+      <c r="D616" t="n">
+        <v>321.37</v>
+      </c>
+      <c r="E616" t="n">
+        <v>321.87</v>
+      </c>
+      <c r="F616" t="n">
+        <v>315.31</v>
+      </c>
+      <c r="G616" t="n">
+        <v>318.82</v>
+      </c>
+      <c r="H616" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-28 22:20:45+00:00</t>
+        </is>
+      </c>
+      <c r="B617" t="n">
+        <v>318.25</v>
+      </c>
+      <c r="C617" t="n">
+        <v>312.6</v>
+      </c>
+      <c r="D617" t="n">
+        <v>321.48</v>
+      </c>
+      <c r="E617" t="n">
+        <v>321.38</v>
+      </c>
+      <c r="F617" t="n">
+        <v>315.07</v>
+      </c>
+      <c r="G617" t="n">
+        <v>318.56</v>
+      </c>
+      <c r="H617" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -18909,7 +18969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B720"/>
+  <dimension ref="A1:B722"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26117,6 +26177,26 @@
       </c>
       <c r="B720" t="n">
         <v>-0.51</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B721" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>2025-11-28 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B722" t="n">
+        <v>0.67</v>
       </c>
     </row>
   </sheetData>
@@ -26284,34 +26364,34 @@
         <v>0.2</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1442</v>
+        <v>0.145</v>
       </c>
       <c r="H2" t="n">
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.02637668145044752</v>
+        <v>-0.02904990954484281</v>
       </c>
       <c r="J2" t="n">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="K2" t="n">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001716790498929366</v>
+        <v>0.002089233231378107</v>
       </c>
       <c r="M2" t="n">
-        <v>3.53153514225006</v>
+        <v>3.53385200051799</v>
       </c>
       <c r="N2" t="n">
-        <v>17.98347900145769</v>
+        <v>17.97468389848711</v>
       </c>
       <c r="O2" t="n">
-        <v>4.240693221804389</v>
+        <v>4.239656106158507</v>
       </c>
       <c r="P2" t="n">
-        <v>322.9363943727134</v>
+        <v>322.9687912307891</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -26366,34 +26446,34 @@
         <v>0.11</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0761</v>
+        <v>0.078</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1937</v>
+        <v>0.1987</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3390018934495118</v>
+        <v>-0.3398793734913026</v>
       </c>
       <c r="J3" t="n">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="K3" t="n">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4492402497765937</v>
+        <v>0.451857810742409</v>
       </c>
       <c r="M3" t="n">
-        <v>1.933769205586805</v>
+        <v>1.931553057272058</v>
       </c>
       <c r="N3" t="n">
-        <v>6.263033286949492</v>
+        <v>6.248963151852267</v>
       </c>
       <c r="O3" t="n">
-        <v>2.502605299872414</v>
+        <v>2.499792621769307</v>
       </c>
       <c r="P3" t="n">
-        <v>323.3234025136437</v>
+        <v>323.3340403622371</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -26448,34 +26528,34 @@
         <v>0.15</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1043</v>
+        <v>0.1064</v>
       </c>
       <c r="H4" t="n">
         <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1645894562379377</v>
+        <v>-0.1642151556162233</v>
       </c>
       <c r="J4" t="n">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="K4" t="n">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1808554489939843</v>
+        <v>0.1811033084449455</v>
       </c>
       <c r="M4" t="n">
-        <v>1.797687403412016</v>
+        <v>1.793471776684866</v>
       </c>
       <c r="N4" t="n">
-        <v>5.454185534476537</v>
+        <v>5.437460489414824</v>
       </c>
       <c r="O4" t="n">
-        <v>2.335419776930164</v>
+        <v>2.331836291298088</v>
       </c>
       <c r="P4" t="n">
-        <v>325.1926834058759</v>
+        <v>325.1881468924997</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -26530,34 +26610,34 @@
         <v>0.2</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1111</v>
+        <v>0.114</v>
       </c>
       <c r="H5" t="n">
         <v>0.2</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2488666558338938</v>
+        <v>-0.2503405707185222</v>
       </c>
       <c r="J5" t="n">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="K5" t="n">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3239279605273963</v>
+        <v>0.3273443345995383</v>
       </c>
       <c r="M5" t="n">
-        <v>1.829995207989195</v>
+        <v>1.82992188582047</v>
       </c>
       <c r="N5" t="n">
-        <v>5.746122761821873</v>
+        <v>5.742716286997839</v>
       </c>
       <c r="O5" t="n">
-        <v>2.397107165276904</v>
+        <v>2.396396521237218</v>
       </c>
       <c r="P5" t="n">
-        <v>330.3182047567974</v>
+        <v>330.3360685737432</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -26612,34 +26692,34 @@
         <v>0.065</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0593</v>
+        <v>0.0595</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0766</v>
+        <v>0.077</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2559811040043483</v>
+        <v>-0.2570602900941444</v>
       </c>
       <c r="J6" t="n">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="K6" t="n">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2962470207889938</v>
+        <v>0.2990994638802632</v>
       </c>
       <c r="M6" t="n">
-        <v>2.109608661945555</v>
+        <v>2.107350984652411</v>
       </c>
       <c r="N6" t="n">
-        <v>6.919568424123066</v>
+        <v>6.905222130474279</v>
       </c>
       <c r="O6" t="n">
-        <v>2.630507256048359</v>
+        <v>2.627778934856256</v>
       </c>
       <c r="P6" t="n">
-        <v>323.4906620597183</v>
+        <v>323.5037413371447</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -26694,34 +26774,34 @@
         <v>0.115</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0847</v>
+        <v>0.0859</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1724</v>
+        <v>0.1747</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1425484637222767</v>
+        <v>-0.1452944465138068</v>
       </c>
       <c r="J7" t="n">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="K7" t="n">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="L7" t="n">
-        <v>0.06616037296806931</v>
+        <v>0.06870411879498217</v>
       </c>
       <c r="M7" t="n">
-        <v>2.865928402470285</v>
+        <v>2.870154826275346</v>
       </c>
       <c r="N7" t="n">
-        <v>12.74959456342315</v>
+        <v>12.76056334717335</v>
       </c>
       <c r="O7" t="n">
-        <v>3.570657441343702</v>
+        <v>3.572193072493892</v>
       </c>
       <c r="P7" t="n">
-        <v>326.4661464908466</v>
+        <v>326.499425490738</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -26763,7 +26843,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H615"/>
+  <dimension ref="A1:H617"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52601,6 +52681,90 @@
         </is>
       </c>
     </row>
+    <row r="616">
+      <c r="A616" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:14:52+00:00</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>-45.1665321501475,170.91040047147877</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>-45.16692978606695,170.9096726991694</t>
+        </is>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>-45.16747412318603,170.90917069556772</t>
+        </is>
+      </c>
+      <c r="E616" t="inlineStr">
+        <is>
+          <t>-45.16795246656426,170.9085604593501</t>
+        </is>
+      </c>
+      <c r="F616" t="inlineStr">
+        <is>
+          <t>-45.168462140717445,170.9080080113593</t>
+        </is>
+      </c>
+      <c r="G616" t="inlineStr">
+        <is>
+          <t>-45.168980701751366,170.90751935500586</t>
+        </is>
+      </c>
+      <c r="H616" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-28 22:20:45+00:00</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>-45.166531259949636,170.91039939858447</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>-45.166922938808256,170.90966294976278</t>
+        </is>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>-45.16747478209137,170.9091717397942</t>
+        </is>
+      </c>
+      <c r="E617" t="inlineStr">
+        <is>
+          <t>-45.167949737630806,170.90855556331502</t>
+        </is>
+      </c>
+      <c r="F617" t="inlineStr">
+        <is>
+          <t>-45.16846089400355,170.9080055183829</t>
+        </is>
+      </c>
+      <c r="G617" t="inlineStr">
+        <is>
+          <t>-45.16897927861398,170.90751672974613</t>
+        </is>
+      </c>
+      <c r="H617" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
